--- a/Hethongquanlylab/wwwroot/data/users.xlsx
+++ b/Hethongquanlylab/wwwroot/data/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\Hethongquanly\Hethongquanlylab\wwwroot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73227F94-B7C1-442D-ADA0-3B72C4CD97AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B753E051-D57E-4B6C-8F39-721A8046FA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>Nguyễn Hải Thanh</t>
   </si>
   <si>
-    <t>Cố Vấn Lab, Cố Vấn chuyên trách PT LT</t>
-  </si>
-  <si>
     <t>Bùi Văn Diện</t>
   </si>
   <si>
@@ -141,12 +138,6 @@
     <t>Dương Văn Hữu</t>
   </si>
   <si>
-    <t>Ban Cố Vấn, PT LT</t>
-  </si>
-  <si>
-    <t>Phó Ban Cố Vấn, Trưởng PT LT</t>
-  </si>
-  <si>
     <t>Đỗ Ngọc Trường</t>
   </si>
   <si>
@@ -222,9 +213,6 @@
     <t>Hoàng Minh Chí</t>
   </si>
   <si>
-    <t>PT LT</t>
-  </si>
-  <si>
     <t>Ngụy Lê Minh Hiếu</t>
   </si>
   <si>
@@ -312,9 +300,6 @@
     <t>Đào Trung Kiên</t>
   </si>
   <si>
-    <t>PT CK-CĐT, PT LT</t>
-  </si>
-  <si>
     <t>Ngô Quang Tuấn</t>
   </si>
   <si>
@@ -387,27 +372,15 @@
     <t>Lê Ngọc Chinh</t>
   </si>
   <si>
-    <t xml:space="preserve">PT LT </t>
-  </si>
-  <si>
     <t>Nguyễn Văn Duy</t>
   </si>
   <si>
-    <t>PT LT, PT BA, PT PTBT</t>
-  </si>
-  <si>
     <t>Phó trưởng PT BA, Phó trưởng PT PTBT</t>
   </si>
   <si>
     <t>Lã Quang Dương</t>
   </si>
   <si>
-    <t>PT LT, PT PTBT</t>
-  </si>
-  <si>
-    <t>Phó Trưởng PT LT, thành viên</t>
-  </si>
-  <si>
     <t>Nghiêm Hồng Đăng</t>
   </si>
   <si>
@@ -441,9 +414,6 @@
     <t>Trần Minh Thành</t>
   </si>
   <si>
-    <t>Phó Trưởng PT LT</t>
-  </si>
-  <si>
     <t>Lê Văn Tùng</t>
   </si>
   <si>
@@ -784,6 +754,36 @@
   </si>
   <si>
     <t>Vũ Tiến Dũng</t>
+  </si>
+  <si>
+    <t>Cố Vấn Lab, Cố Vấn chuyên trách PowerTeam Lập trình</t>
+  </si>
+  <si>
+    <t>Ban Cố Vấn, PowerTeam Lập trình</t>
+  </si>
+  <si>
+    <t>Phó Ban Cố Vấn, Trưởng PowerTeam Lập trình</t>
+  </si>
+  <si>
+    <t>PowerTeam Lập trình</t>
+  </si>
+  <si>
+    <t>PT CK-CĐT, PowerTeam Lập trình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PowerTeam Lập trình </t>
+  </si>
+  <si>
+    <t>PowerTeam Lập trình, PT BA, PT PTBT</t>
+  </si>
+  <si>
+    <t>PowerTeam Lập trình, PT PTBT</t>
+  </si>
+  <si>
+    <t>Phó Trưởng PowerTeam Lập trình, thành viên</t>
+  </si>
+  <si>
+    <t>Phó Trưởng PowerTeam Lập trình</t>
   </si>
 </sst>
 </file>
@@ -791,7 +791,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -956,50 +956,50 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1218,7 +1218,7 @@
   <dimension ref="A1:T951"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D164" sqref="D1:D1048576"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1347,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1368,7 +1368,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>8</v>
@@ -1383,7 +1383,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -1404,7 +1404,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>8</v>
@@ -1419,7 +1419,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1440,7 +1440,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>8</v>
@@ -1452,10 +1452,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1476,7 +1476,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>8</v>
@@ -1488,10 +1488,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1512,10 +1512,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="D9" s="29">
         <v>36766</v>
@@ -1524,10 +1524,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1548,7 +1548,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>8</v>
@@ -1560,10 +1560,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1584,7 +1584,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>8</v>
@@ -1596,10 +1596,10 @@
         <v>3</v>
       </c>
       <c r="F11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1620,7 +1620,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>8</v>
@@ -1632,10 +1632,10 @@
         <v>3</v>
       </c>
       <c r="F12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1656,7 +1656,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>8</v>
@@ -1668,10 +1668,10 @@
         <v>3</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>36</v>
+        <v>242</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1692,7 +1692,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>8</v>
@@ -1707,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1728,7 +1728,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>8</v>
@@ -1740,10 +1740,10 @@
         <v>3</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1764,7 +1764,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>8</v>
@@ -1776,10 +1776,10 @@
         <v>3</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -1800,7 +1800,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>8</v>
@@ -1812,10 +1812,10 @@
         <v>3</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
@@ -1836,7 +1836,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>8</v>
@@ -1848,10 +1848,10 @@
         <v>3</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
@@ -1872,7 +1872,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>8</v>
@@ -1884,10 +1884,10 @@
         <v>4</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -1908,7 +1908,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>8</v>
@@ -1920,10 +1920,10 @@
         <v>4</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
@@ -1944,7 +1944,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>8</v>
@@ -1956,10 +1956,10 @@
         <v>4</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -1980,7 +1980,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>8</v>
@@ -1992,10 +1992,10 @@
         <v>4</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -2016,7 +2016,7 @@
         <v>40</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>8</v>
@@ -2028,10 +2028,10 @@
         <v>4</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
@@ -2052,7 +2052,7 @@
         <v>41</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>8</v>
@@ -2064,10 +2064,10 @@
         <v>4</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -2088,7 +2088,7 @@
         <v>42</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>8</v>
@@ -2100,10 +2100,10 @@
         <v>4</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -2124,7 +2124,7 @@
         <v>43</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>8</v>
@@ -2136,10 +2136,10 @@
         <v>4</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -2160,7 +2160,7 @@
         <v>44</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>8</v>
@@ -2172,10 +2172,10 @@
         <v>4</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -2196,7 +2196,7 @@
         <v>45</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>8</v>
@@ -2208,10 +2208,10 @@
         <v>4</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -2232,7 +2232,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>8</v>
@@ -2244,10 +2244,10 @@
         <v>4</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
@@ -2268,7 +2268,7 @@
         <v>47</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>8</v>
@@ -2280,10 +2280,10 @@
         <v>4</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
@@ -2304,7 +2304,7 @@
         <v>48</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>8</v>
@@ -2316,10 +2316,10 @@
         <v>4</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
@@ -2340,7 +2340,7 @@
         <v>49</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>8</v>
@@ -2352,10 +2352,10 @@
         <v>4</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -2376,7 +2376,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>8</v>
@@ -2388,10 +2388,10 @@
         <v>4</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>63</v>
+        <v>244</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -2412,7 +2412,7 @@
         <v>51</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>8</v>
@@ -2424,10 +2424,10 @@
         <v>4</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -2448,7 +2448,7 @@
         <v>52</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>8</v>
@@ -2460,10 +2460,10 @@
         <v>4</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>63</v>
+        <v>244</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
@@ -2484,7 +2484,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>8</v>
@@ -2496,10 +2496,10 @@
         <v>4</v>
       </c>
       <c r="F36" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -2520,10 +2520,10 @@
         <v>54</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" s="32">
         <v>37187</v>
@@ -2532,10 +2532,10 @@
         <v>4</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2556,7 +2556,7 @@
         <v>55</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>8</v>
@@ -2568,10 +2568,10 @@
         <v>4</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -2592,7 +2592,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>8</v>
@@ -2604,10 +2604,10 @@
         <v>4</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -2628,7 +2628,7 @@
         <v>57</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>8</v>
@@ -2640,10 +2640,10 @@
         <v>4</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>63</v>
+        <v>244</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -2664,7 +2664,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>8</v>
@@ -2676,10 +2676,10 @@
         <v>4</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -2700,7 +2700,7 @@
         <v>59</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>8</v>
@@ -2712,10 +2712,10 @@
         <v>4</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>63</v>
+        <v>244</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
@@ -2736,7 +2736,7 @@
         <v>60</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>8</v>
@@ -2748,10 +2748,10 @@
         <v>4</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>63</v>
+        <v>244</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -2772,7 +2772,7 @@
         <v>61</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>8</v>
@@ -2784,10 +2784,10 @@
         <v>4</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -2808,7 +2808,7 @@
         <v>62</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>8</v>
@@ -2820,10 +2820,10 @@
         <v>4</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -2844,7 +2844,7 @@
         <v>63</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>8</v>
@@ -2856,10 +2856,10 @@
         <v>4</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
@@ -2880,7 +2880,7 @@
         <v>64</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>8</v>
@@ -2892,10 +2892,10 @@
         <v>4</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
@@ -2916,7 +2916,7 @@
         <v>65</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>8</v>
@@ -2928,10 +2928,10 @@
         <v>4</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
@@ -2952,7 +2952,7 @@
         <v>66</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>8</v>
@@ -2964,10 +2964,10 @@
         <v>4</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
@@ -2988,7 +2988,7 @@
         <v>67</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>8</v>
@@ -3000,10 +3000,10 @@
         <v>4</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
@@ -3024,10 +3024,10 @@
         <v>68</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51" s="33">
         <v>36677</v>
@@ -3036,10 +3036,10 @@
         <v>5</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -3060,7 +3060,7 @@
         <v>69</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>8</v>
@@ -3072,10 +3072,10 @@
         <v>5</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -3096,7 +3096,7 @@
         <v>70</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>8</v>
@@ -3108,10 +3108,10 @@
         <v>5</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -3132,7 +3132,7 @@
         <v>71</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>8</v>
@@ -3144,10 +3144,10 @@
         <v>5</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
@@ -3168,7 +3168,7 @@
         <v>72</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>8</v>
@@ -3180,10 +3180,10 @@
         <v>5</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
@@ -3204,7 +3204,7 @@
         <v>73</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>8</v>
@@ -3216,10 +3216,10 @@
         <v>5</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
@@ -3240,7 +3240,7 @@
         <v>74</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>8</v>
@@ -3252,10 +3252,10 @@
         <v>5</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
@@ -3276,7 +3276,7 @@
         <v>75</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>8</v>
@@ -3288,10 +3288,10 @@
         <v>5</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -3312,7 +3312,7 @@
         <v>76</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>8</v>
@@ -3324,10 +3324,10 @@
         <v>5</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -3348,7 +3348,7 @@
         <v>77</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>8</v>
@@ -3360,10 +3360,10 @@
         <v>5</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>93</v>
+        <v>245</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -3384,7 +3384,7 @@
         <v>78</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>8</v>
@@ -3396,10 +3396,10 @@
         <v>5</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
@@ -3420,7 +3420,7 @@
         <v>79</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>8</v>
@@ -3432,10 +3432,10 @@
         <v>5</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -3456,7 +3456,7 @@
         <v>80</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>8</v>
@@ -3468,10 +3468,10 @@
         <v>5</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
@@ -3492,7 +3492,7 @@
         <v>81</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>8</v>
@@ -3504,10 +3504,10 @@
         <v>5</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
@@ -3528,7 +3528,7 @@
         <v>82</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>8</v>
@@ -3540,10 +3540,10 @@
         <v>5</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
@@ -3564,7 +3564,7 @@
         <v>83</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>8</v>
@@ -3576,10 +3576,10 @@
         <v>5</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
@@ -3600,7 +3600,7 @@
         <v>84</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>8</v>
@@ -3612,10 +3612,10 @@
         <v>5</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
@@ -3636,7 +3636,7 @@
         <v>85</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>8</v>
@@ -3648,10 +3648,10 @@
         <v>5</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
@@ -3672,7 +3672,7 @@
         <v>86</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>8</v>
@@ -3684,10 +3684,10 @@
         <v>5</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
@@ -3708,7 +3708,7 @@
         <v>87</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C70" s="19" t="s">
         <v>8</v>
@@ -3720,10 +3720,10 @@
         <v>5</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
@@ -3744,7 +3744,7 @@
         <v>88</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C71" s="19" t="s">
         <v>8</v>
@@ -3756,10 +3756,10 @@
         <v>5</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
@@ -3780,7 +3780,7 @@
         <v>89</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>8</v>
@@ -3792,10 +3792,10 @@
         <v>5</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H72" s="15"/>
       <c r="I72" s="15"/>
@@ -3816,7 +3816,7 @@
         <v>90</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>8</v>
@@ -3828,10 +3828,10 @@
         <v>5</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
@@ -3852,7 +3852,7 @@
         <v>91</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>8</v>
@@ -3864,10 +3864,10 @@
         <v>5</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
@@ -3888,7 +3888,7 @@
         <v>92</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>8</v>
@@ -3900,10 +3900,10 @@
         <v>5</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
@@ -3924,7 +3924,7 @@
         <v>93</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>8</v>
@@ -3936,10 +3936,10 @@
         <v>5</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
@@ -3960,7 +3960,7 @@
         <v>94</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>8</v>
@@ -3972,10 +3972,10 @@
         <v>5</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
@@ -3996,7 +3996,7 @@
         <v>95</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>8</v>
@@ -4008,10 +4008,10 @@
         <v>5</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H78" s="15"/>
       <c r="I78" s="15"/>
@@ -4032,7 +4032,7 @@
         <v>96</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>8</v>
@@ -4044,10 +4044,10 @@
         <v>5</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
@@ -4068,7 +4068,7 @@
         <v>97</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>8</v>
@@ -4080,10 +4080,10 @@
         <v>5</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
@@ -4104,7 +4104,7 @@
         <v>98</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C81" s="19" t="s">
         <v>8</v>
@@ -4116,10 +4116,10 @@
         <v>5</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
@@ -4140,7 +4140,7 @@
         <v>99</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>8</v>
@@ -4152,10 +4152,10 @@
         <v>5</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>118</v>
+        <v>246</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
@@ -4176,7 +4176,7 @@
         <v>100</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>8</v>
@@ -4188,10 +4188,10 @@
         <v>5</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>120</v>
+        <v>247</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
@@ -4212,7 +4212,7 @@
         <v>101</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>8</v>
@@ -4224,10 +4224,10 @@
         <v>5</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>123</v>
+        <v>248</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
@@ -4248,7 +4248,7 @@
         <v>102</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>8</v>
@@ -4260,10 +4260,10 @@
         <v>5</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>118</v>
+        <v>246</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
@@ -4284,7 +4284,7 @@
         <v>103</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>8</v>
@@ -4296,10 +4296,10 @@
         <v>5</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>118</v>
+        <v>246</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
@@ -4320,7 +4320,7 @@
         <v>104</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>8</v>
@@ -4332,10 +4332,10 @@
         <v>5</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>118</v>
+        <v>246</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H87" s="15"/>
       <c r="I87" s="15"/>
@@ -4356,7 +4356,7 @@
         <v>105</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>8</v>
@@ -4368,10 +4368,10 @@
         <v>5</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>118</v>
+        <v>246</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
@@ -4392,7 +4392,7 @@
         <v>106</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C89" s="19" t="s">
         <v>8</v>
@@ -4404,10 +4404,10 @@
         <v>5</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>118</v>
+        <v>246</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
@@ -4428,7 +4428,7 @@
         <v>107</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C90" s="19" t="s">
         <v>8</v>
@@ -4440,10 +4440,10 @@
         <v>5</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>123</v>
+        <v>248</v>
       </c>
       <c r="G90" s="19" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
@@ -4464,7 +4464,7 @@
         <v>108</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>8</v>
@@ -4476,10 +4476,10 @@
         <v>5</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>118</v>
+        <v>246</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H91" s="15"/>
       <c r="I91" s="15"/>
@@ -4500,7 +4500,7 @@
         <v>109</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>8</v>
@@ -4512,10 +4512,10 @@
         <v>5</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>123</v>
+        <v>248</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
@@ -4536,7 +4536,7 @@
         <v>110</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C93" s="19" t="s">
         <v>8</v>
@@ -4548,10 +4548,10 @@
         <v>5</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>118</v>
+        <v>246</v>
       </c>
       <c r="G93" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
@@ -4572,7 +4572,7 @@
         <v>111</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>8</v>
@@ -4584,10 +4584,10 @@
         <v>5</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>118</v>
+        <v>246</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
@@ -4608,7 +4608,7 @@
         <v>112</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>8</v>
@@ -4620,10 +4620,10 @@
         <v>5</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>118</v>
+        <v>246</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
@@ -4644,7 +4644,7 @@
         <v>113</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C96" s="19" t="s">
         <v>8</v>
@@ -4656,10 +4656,10 @@
         <v>5</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>123</v>
+        <v>248</v>
       </c>
       <c r="G96" s="19" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
@@ -4680,7 +4680,7 @@
         <v>114</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>8</v>
@@ -4692,10 +4692,10 @@
         <v>5</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
@@ -4716,7 +4716,7 @@
         <v>115</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>8</v>
@@ -4728,10 +4728,10 @@
         <v>5</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
@@ -4752,7 +4752,7 @@
         <v>116</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>8</v>
@@ -4764,10 +4764,10 @@
         <v>5</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G99" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
@@ -4788,7 +4788,7 @@
         <v>117</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C100" s="19" t="s">
         <v>8</v>
@@ -4800,10 +4800,10 @@
         <v>5</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G100" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
@@ -4824,7 +4824,7 @@
         <v>118</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>8</v>
@@ -4836,10 +4836,10 @@
         <v>5</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H101" s="15"/>
       <c r="I101" s="15"/>
@@ -4860,7 +4860,7 @@
         <v>119</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>8</v>
@@ -4872,10 +4872,10 @@
         <v>5</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
@@ -4896,7 +4896,7 @@
         <v>120</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>8</v>
@@ -4908,10 +4908,10 @@
         <v>5</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
@@ -4932,7 +4932,7 @@
         <v>121</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C104" s="19" t="s">
         <v>8</v>
@@ -4944,10 +4944,10 @@
         <v>5</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
@@ -4968,7 +4968,7 @@
         <v>122</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>8</v>
@@ -4980,10 +4980,10 @@
         <v>5</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H105" s="15"/>
       <c r="I105" s="15"/>
@@ -5004,7 +5004,7 @@
         <v>123</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C106" s="19" t="s">
         <v>8</v>
@@ -5016,10 +5016,10 @@
         <v>5</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
@@ -5040,7 +5040,7 @@
         <v>124</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C107" s="19" t="s">
         <v>8</v>
@@ -5052,10 +5052,10 @@
         <v>5</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G107" s="19" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
@@ -5076,7 +5076,7 @@
         <v>125</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C108" s="19" t="s">
         <v>8</v>
@@ -5088,10 +5088,10 @@
         <v>5</v>
       </c>
       <c r="F108" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G108" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
@@ -5112,7 +5112,7 @@
         <v>126</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C109" s="13" t="s">
         <v>8</v>
@@ -5124,10 +5124,10 @@
         <v>5</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
@@ -5148,7 +5148,7 @@
         <v>127</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C110" s="19" t="s">
         <v>8</v>
@@ -5160,10 +5160,10 @@
         <v>5</v>
       </c>
       <c r="F110" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G110" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
@@ -5184,7 +5184,7 @@
         <v>128</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C111" s="13" t="s">
         <v>8</v>
@@ -5196,10 +5196,10 @@
         <v>5</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H111" s="15"/>
       <c r="I111" s="15"/>
@@ -5220,7 +5220,7 @@
         <v>129</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C112" s="13" t="s">
         <v>8</v>
@@ -5232,10 +5232,10 @@
         <v>5</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
@@ -5256,7 +5256,7 @@
         <v>130</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>8</v>
@@ -5268,10 +5268,10 @@
         <v>5</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H113" s="15"/>
       <c r="I113" s="15"/>
@@ -5292,7 +5292,7 @@
         <v>131</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>8</v>
@@ -5304,10 +5304,10 @@
         <v>5</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
@@ -5328,7 +5328,7 @@
         <v>132</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C115" s="19" t="s">
         <v>8</v>
@@ -5340,10 +5340,10 @@
         <v>5</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G115" s="19" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
@@ -5364,7 +5364,7 @@
         <v>133</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C116" s="19" t="s">
         <v>8</v>
@@ -5376,10 +5376,10 @@
         <v>5</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G116" s="19" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
@@ -5400,10 +5400,10 @@
         <v>134</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D117" s="34">
         <v>37541</v>
@@ -5412,10 +5412,10 @@
         <v>5</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G117" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
@@ -5436,10 +5436,10 @@
         <v>135</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D118" s="35">
         <v>37072</v>
@@ -5448,10 +5448,10 @@
         <v>5</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G118" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
@@ -5472,7 +5472,7 @@
         <v>136</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C119" s="19" t="s">
         <v>8</v>
@@ -5484,10 +5484,10 @@
         <v>5</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
@@ -5508,7 +5508,7 @@
         <v>137</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C120" s="19" t="s">
         <v>8</v>
@@ -5520,10 +5520,10 @@
         <v>5</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
@@ -5544,7 +5544,7 @@
         <v>138</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C121" s="19" t="s">
         <v>8</v>
@@ -5556,10 +5556,10 @@
         <v>5</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G121" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
@@ -5580,7 +5580,7 @@
         <v>139</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C122" s="19" t="s">
         <v>8</v>
@@ -5592,10 +5592,10 @@
         <v>5</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G122" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
@@ -5616,7 +5616,7 @@
         <v>140</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C123" s="13" t="s">
         <v>8</v>
@@ -5628,10 +5628,10 @@
         <v>5</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H123" s="15"/>
       <c r="I123" s="15"/>
@@ -5652,10 +5652,10 @@
         <v>141</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D124" s="34">
         <v>37691</v>
@@ -5664,10 +5664,10 @@
         <v>5</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G124" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
@@ -5688,7 +5688,7 @@
         <v>142</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C125" s="13" t="s">
         <v>8</v>
@@ -5697,13 +5697,13 @@
         <v>36617</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
@@ -5724,7 +5724,7 @@
         <v>143</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>8</v>
@@ -5733,13 +5733,13 @@
         <v>48726</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
@@ -5760,7 +5760,7 @@
         <v>144</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>8</v>
@@ -5769,13 +5769,13 @@
         <v>37539</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
@@ -5796,7 +5796,7 @@
         <v>145</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>8</v>
@@ -5805,13 +5805,13 @@
         <v>37794</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
@@ -5832,7 +5832,7 @@
         <v>146</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C129" s="13" t="s">
         <v>8</v>
@@ -5841,13 +5841,13 @@
         <v>37638</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H129" s="15"/>
       <c r="I129" s="15"/>
@@ -5868,7 +5868,7 @@
         <v>147</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C130" s="23" t="s">
         <v>8</v>
@@ -5877,13 +5877,13 @@
         <v>37572</v>
       </c>
       <c r="E130" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F130" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G130" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
@@ -5904,7 +5904,7 @@
         <v>148</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C131" s="23" t="s">
         <v>8</v>
@@ -5913,13 +5913,13 @@
         <v>37775</v>
       </c>
       <c r="E131" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F131" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G131" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
@@ -5940,22 +5940,22 @@
         <v>149</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C132" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="38" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E132" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F132" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G132" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
@@ -5976,7 +5976,7 @@
         <v>150</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>8</v>
@@ -5985,13 +5985,13 @@
         <v>37793</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H133" s="15"/>
       <c r="I133" s="15"/>
@@ -6012,7 +6012,7 @@
         <v>151</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>8</v>
@@ -6021,13 +6021,13 @@
         <v>37098</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H134" s="15"/>
       <c r="I134" s="15"/>
@@ -6048,7 +6048,7 @@
         <v>152</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C135" s="23" t="s">
         <v>8</v>
@@ -6057,13 +6057,13 @@
         <v>36770</v>
       </c>
       <c r="E135" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F135" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G135" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
@@ -6084,7 +6084,7 @@
         <v>153</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C136" s="13" t="s">
         <v>8</v>
@@ -6093,13 +6093,13 @@
         <v>36643</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H136" s="15"/>
       <c r="I136" s="15"/>
@@ -6120,7 +6120,7 @@
         <v>154</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C137" s="13" t="s">
         <v>8</v>
@@ -6129,13 +6129,13 @@
         <v>37805</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H137" s="15"/>
       <c r="I137" s="15"/>
@@ -6156,7 +6156,7 @@
         <v>155</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C138" s="13" t="s">
         <v>8</v>
@@ -6165,13 +6165,13 @@
         <v>37021</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H138" s="15"/>
       <c r="I138" s="15"/>
@@ -6192,7 +6192,7 @@
         <v>156</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C139" s="23" t="s">
         <v>8</v>
@@ -6201,13 +6201,13 @@
         <v>37549</v>
       </c>
       <c r="E139" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F139" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G139" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
@@ -6228,7 +6228,7 @@
         <v>157</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C140" s="13" t="s">
         <v>8</v>
@@ -6237,13 +6237,13 @@
         <v>36894</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H140" s="15"/>
       <c r="I140" s="15"/>
@@ -6264,22 +6264,22 @@
         <v>158</v>
       </c>
       <c r="B141" s="24" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D141" s="38">
         <v>37603</v>
       </c>
       <c r="E141" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F141" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G141" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
@@ -6300,7 +6300,7 @@
         <v>159</v>
       </c>
       <c r="B142" s="24" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C142" s="23" t="s">
         <v>8</v>
@@ -6309,13 +6309,13 @@
         <v>37028</v>
       </c>
       <c r="E142" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F142" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G142" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
@@ -6336,7 +6336,7 @@
         <v>160</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C143" s="13" t="s">
         <v>8</v>
@@ -6345,13 +6345,13 @@
         <v>37397</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H143" s="15"/>
       <c r="I143" s="15"/>
@@ -6372,7 +6372,7 @@
         <v>161</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C144" s="13" t="s">
         <v>8</v>
@@ -6381,13 +6381,13 @@
         <v>37341</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H144" s="15"/>
       <c r="I144" s="15"/>
@@ -6408,7 +6408,7 @@
         <v>162</v>
       </c>
       <c r="B145" s="24" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C145" s="23" t="s">
         <v>8</v>
@@ -6417,13 +6417,13 @@
         <v>37135</v>
       </c>
       <c r="E145" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F145" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G145" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
@@ -6444,7 +6444,7 @@
         <v>163</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C146" s="13" t="s">
         <v>8</v>
@@ -6453,13 +6453,13 @@
         <v>37265</v>
       </c>
       <c r="E146" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H146" s="15"/>
       <c r="I146" s="15"/>
@@ -6480,7 +6480,7 @@
         <v>164</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C147" s="13" t="s">
         <v>8</v>
@@ -6489,13 +6489,13 @@
         <v>37863</v>
       </c>
       <c r="E147" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H147" s="15"/>
       <c r="I147" s="15"/>
@@ -6516,7 +6516,7 @@
         <v>165</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C148" s="13" t="s">
         <v>8</v>
@@ -6525,13 +6525,13 @@
         <v>37405</v>
       </c>
       <c r="E148" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H148" s="15"/>
       <c r="I148" s="15"/>
@@ -6552,7 +6552,7 @@
         <v>166</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C149" s="13" t="s">
         <v>8</v>
@@ -6561,13 +6561,13 @@
         <v>37828</v>
       </c>
       <c r="E149" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F149" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G149" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H149" s="15"/>
       <c r="I149" s="15"/>
@@ -6588,7 +6588,7 @@
         <v>167</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C150" s="13" t="s">
         <v>8</v>
@@ -6597,13 +6597,13 @@
         <v>37481</v>
       </c>
       <c r="E150" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F150" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H150" s="15"/>
       <c r="I150" s="15"/>
@@ -6624,7 +6624,7 @@
         <v>168</v>
       </c>
       <c r="B151" s="24" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C151" s="23" t="s">
         <v>8</v>
@@ -6633,13 +6633,13 @@
         <v>36894</v>
       </c>
       <c r="E151" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F151" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G151" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
@@ -6660,7 +6660,7 @@
         <v>169</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C152" s="13" t="s">
         <v>8</v>
@@ -6669,13 +6669,13 @@
         <v>37757</v>
       </c>
       <c r="E152" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F152" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H152" s="15"/>
       <c r="I152" s="15"/>
@@ -6696,7 +6696,7 @@
         <v>170</v>
       </c>
       <c r="B153" s="24" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C153" s="23" t="s">
         <v>8</v>
@@ -6705,13 +6705,13 @@
         <v>37714</v>
       </c>
       <c r="E153" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F153" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G153" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
@@ -6732,7 +6732,7 @@
         <v>171</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C154" s="13" t="s">
         <v>8</v>
@@ -6741,13 +6741,13 @@
         <v>36790</v>
       </c>
       <c r="E154" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G154" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H154" s="15"/>
       <c r="I154" s="15"/>
@@ -6768,7 +6768,7 @@
         <v>172</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C155" s="13" t="s">
         <v>8</v>
@@ -6777,13 +6777,13 @@
         <v>37945</v>
       </c>
       <c r="E155" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F155" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G155" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H155" s="15"/>
       <c r="I155" s="15"/>
@@ -6804,7 +6804,7 @@
         <v>173</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C156" s="13" t="s">
         <v>8</v>
@@ -6813,13 +6813,13 @@
         <v>36925</v>
       </c>
       <c r="E156" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F156" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H156" s="15"/>
       <c r="I156" s="15"/>
@@ -6840,7 +6840,7 @@
         <v>174</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C157" s="13" t="s">
         <v>8</v>
@@ -6849,13 +6849,13 @@
         <v>37656</v>
       </c>
       <c r="E157" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F157" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G157" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H157" s="15"/>
       <c r="I157" s="15"/>
@@ -6876,7 +6876,7 @@
         <v>175</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C158" s="13" t="s">
         <v>8</v>
@@ -6885,13 +6885,13 @@
         <v>36920</v>
       </c>
       <c r="E158" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F158" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H158" s="15"/>
       <c r="I158" s="15"/>
@@ -6912,7 +6912,7 @@
         <v>176</v>
       </c>
       <c r="B159" s="24" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C159" s="23" t="s">
         <v>8</v>
@@ -6921,13 +6921,13 @@
         <v>37506</v>
       </c>
       <c r="E159" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F159" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G159" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
@@ -6948,22 +6948,22 @@
         <v>177</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D160" s="31">
         <v>37883</v>
       </c>
       <c r="E160" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H160" s="15"/>
       <c r="I160" s="15"/>
@@ -6984,7 +6984,7 @@
         <v>178</v>
       </c>
       <c r="B161" s="24" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C161" s="23" t="s">
         <v>8</v>
@@ -6993,13 +6993,13 @@
         <v>37388</v>
       </c>
       <c r="E161" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F161" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G161" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
@@ -7020,7 +7020,7 @@
         <v>179</v>
       </c>
       <c r="B162" s="24" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C162" s="23" t="s">
         <v>8</v>
@@ -7029,13 +7029,13 @@
         <v>36845</v>
       </c>
       <c r="E162" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F162" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G162" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
@@ -7056,7 +7056,7 @@
         <v>180</v>
       </c>
       <c r="B163" s="24" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C163" s="23" t="s">
         <v>8</v>
@@ -7065,13 +7065,13 @@
         <v>37573</v>
       </c>
       <c r="E163" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F163" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G163" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
@@ -7092,7 +7092,7 @@
         <v>181</v>
       </c>
       <c r="B164" s="24" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C164" s="23" t="s">
         <v>8</v>
@@ -7101,13 +7101,13 @@
         <v>37465</v>
       </c>
       <c r="E164" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F164" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G164" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
@@ -7128,7 +7128,7 @@
         <v>182</v>
       </c>
       <c r="B165" s="24" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C165" s="23" t="s">
         <v>8</v>
@@ -7137,13 +7137,13 @@
         <v>37756</v>
       </c>
       <c r="E165" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F165" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G165" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
@@ -7164,7 +7164,7 @@
         <v>183</v>
       </c>
       <c r="B166" s="24" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C166" s="23" t="s">
         <v>8</v>
@@ -7173,13 +7173,13 @@
         <v>37376</v>
       </c>
       <c r="E166" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F166" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G166" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
@@ -7200,7 +7200,7 @@
         <v>184</v>
       </c>
       <c r="B167" s="24" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C167" s="23" t="s">
         <v>8</v>
@@ -7209,13 +7209,13 @@
         <v>37240</v>
       </c>
       <c r="E167" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F167" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G167" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
@@ -7236,7 +7236,7 @@
         <v>185</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C168" s="13" t="s">
         <v>8</v>
@@ -7245,13 +7245,13 @@
         <v>37938</v>
       </c>
       <c r="E168" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F168" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H168" s="15"/>
       <c r="I168" s="15"/>
@@ -7272,22 +7272,22 @@
         <v>186</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D169" s="31">
         <v>37370</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F169" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H169" s="15"/>
       <c r="I169" s="15"/>
@@ -7308,22 +7308,22 @@
         <v>187</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D170" s="31">
         <v>37434</v>
       </c>
       <c r="E170" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F170" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H170" s="15"/>
       <c r="I170" s="15"/>
@@ -7344,22 +7344,22 @@
         <v>188</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D171" s="31">
         <v>37492</v>
       </c>
       <c r="E171" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F171" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H171" s="15"/>
       <c r="I171" s="15"/>
@@ -7380,22 +7380,22 @@
         <v>189</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D172" s="31">
         <v>37275</v>
       </c>
       <c r="E172" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F172" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H172" s="15"/>
       <c r="I172" s="15"/>
@@ -7416,22 +7416,22 @@
         <v>190</v>
       </c>
       <c r="B173" s="24" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C173" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D173" s="38">
         <v>37867</v>
       </c>
       <c r="E173" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F173" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G173" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
@@ -7452,7 +7452,7 @@
         <v>191</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C174" s="13" t="s">
         <v>8</v>
@@ -7461,13 +7461,13 @@
         <v>36038</v>
       </c>
       <c r="E174" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F174" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H174" s="15"/>
       <c r="I174" s="15"/>
@@ -7488,7 +7488,7 @@
         <v>192</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C175" s="13" t="s">
         <v>8</v>
@@ -7497,13 +7497,13 @@
         <v>37319</v>
       </c>
       <c r="E175" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F175" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H175" s="15"/>
       <c r="I175" s="15"/>
@@ -7524,7 +7524,7 @@
         <v>193</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C176" s="13" t="s">
         <v>8</v>
@@ -7533,13 +7533,13 @@
         <v>37330</v>
       </c>
       <c r="E176" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F176" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H176" s="15"/>
       <c r="I176" s="15"/>
@@ -7560,7 +7560,7 @@
         <v>194</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C177" s="13" t="s">
         <v>8</v>
@@ -7569,13 +7569,13 @@
         <v>36892</v>
       </c>
       <c r="E177" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F177" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H177" s="15"/>
       <c r="I177" s="15"/>
@@ -7596,7 +7596,7 @@
         <v>195</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C178" s="13" t="s">
         <v>8</v>
@@ -7605,13 +7605,13 @@
         <v>37016</v>
       </c>
       <c r="E178" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F178" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H178" s="15"/>
       <c r="I178" s="15"/>
@@ -7632,7 +7632,7 @@
         <v>196</v>
       </c>
       <c r="B179" s="24" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C179" s="23" t="s">
         <v>8</v>
@@ -7641,13 +7641,13 @@
         <v>36684</v>
       </c>
       <c r="E179" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F179" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G179" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
@@ -7668,22 +7668,22 @@
         <v>197</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D180" s="31">
         <v>37266</v>
       </c>
       <c r="E180" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F180" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H180" s="15"/>
       <c r="I180" s="15"/>
@@ -7704,7 +7704,7 @@
         <v>198</v>
       </c>
       <c r="B181" s="24" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C181" s="23" t="s">
         <v>8</v>
@@ -7713,13 +7713,13 @@
         <v>37165</v>
       </c>
       <c r="E181" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F181" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G181" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
@@ -7740,7 +7740,7 @@
         <v>199</v>
       </c>
       <c r="B182" s="24" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C182" s="23" t="s">
         <v>8</v>
@@ -7749,13 +7749,13 @@
         <v>37986</v>
       </c>
       <c r="E182" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F182" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G182" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
@@ -7776,7 +7776,7 @@
         <v>200</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C183" s="13" t="s">
         <v>8</v>
@@ -7785,13 +7785,13 @@
         <v>37124</v>
       </c>
       <c r="E183" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F183" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G183" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H183" s="15"/>
       <c r="I183" s="15"/>
@@ -7812,7 +7812,7 @@
         <v>201</v>
       </c>
       <c r="B184" s="24" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C184" s="23" t="s">
         <v>8</v>
@@ -7821,13 +7821,13 @@
         <v>37138</v>
       </c>
       <c r="E184" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F184" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G184" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
@@ -7848,7 +7848,7 @@
         <v>202</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C185" s="13" t="s">
         <v>8</v>
@@ -7860,10 +7860,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="F185" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H185" s="15"/>
       <c r="I185" s="15"/>
@@ -7884,7 +7884,7 @@
         <v>203</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C186" s="13" t="s">
         <v>8</v>
@@ -7893,13 +7893,13 @@
         <v>37199</v>
       </c>
       <c r="E186" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F186" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G186" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H186" s="15"/>
       <c r="I186" s="15"/>
@@ -7920,22 +7920,22 @@
         <v>204</v>
       </c>
       <c r="B187" s="24" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C187" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D187" s="38">
         <v>37640</v>
       </c>
       <c r="E187" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F187" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G187" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
@@ -7956,7 +7956,7 @@
         <v>205</v>
       </c>
       <c r="B188" s="24" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C188" s="23" t="s">
         <v>8</v>
@@ -7965,13 +7965,13 @@
         <v>36762</v>
       </c>
       <c r="E188" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F188" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G188" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
@@ -7992,7 +7992,7 @@
         <v>206</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C189" s="13" t="s">
         <v>8</v>
@@ -8001,13 +8001,13 @@
         <v>37299</v>
       </c>
       <c r="E189" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F189" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G189" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H189" s="15"/>
       <c r="I189" s="15"/>
@@ -8028,7 +8028,7 @@
         <v>207</v>
       </c>
       <c r="B190" s="24" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C190" s="23" t="s">
         <v>8</v>
@@ -8037,13 +8037,13 @@
         <v>36621</v>
       </c>
       <c r="E190" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F190" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G190" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
@@ -8064,7 +8064,7 @@
         <v>208</v>
       </c>
       <c r="B191" s="24" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C191" s="23" t="s">
         <v>8</v>
@@ -8073,13 +8073,13 @@
         <v>37070</v>
       </c>
       <c r="E191" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F191" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G191" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
@@ -8100,7 +8100,7 @@
         <v>209</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C192" s="13" t="s">
         <v>8</v>
@@ -8109,13 +8109,13 @@
         <v>37878</v>
       </c>
       <c r="E192" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F192" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G192" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H192" s="15"/>
       <c r="I192" s="15"/>
@@ -8136,7 +8136,7 @@
         <v>210</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C193" s="13" t="s">
         <v>8</v>
@@ -8145,13 +8145,13 @@
         <v>37024</v>
       </c>
       <c r="E193" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F193" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G193" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H193" s="15"/>
       <c r="I193" s="15"/>
@@ -8172,22 +8172,22 @@
         <v>211</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D194" s="31">
         <v>37642</v>
       </c>
       <c r="E194" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F194" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G194" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H194" s="15"/>
       <c r="I194" s="15"/>
@@ -8208,7 +8208,7 @@
         <v>212</v>
       </c>
       <c r="B195" s="24" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C195" s="23" t="s">
         <v>8</v>
@@ -8217,13 +8217,13 @@
         <v>37636</v>
       </c>
       <c r="E195" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F195" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G195" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
@@ -8244,7 +8244,7 @@
         <v>213</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C196" s="13" t="s">
         <v>8</v>
@@ -8253,13 +8253,13 @@
         <v>37924</v>
       </c>
       <c r="E196" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F196" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G196" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H196" s="15"/>
       <c r="I196" s="15"/>
@@ -8280,7 +8280,7 @@
         <v>214</v>
       </c>
       <c r="B197" s="24" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C197" s="23" t="s">
         <v>8</v>
@@ -8289,13 +8289,13 @@
         <v>37836</v>
       </c>
       <c r="E197" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F197" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G197" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
@@ -8316,7 +8316,7 @@
         <v>215</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C198" s="13" t="s">
         <v>8</v>
@@ -8325,13 +8325,13 @@
         <v>37608</v>
       </c>
       <c r="E198" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F198" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G198" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H198" s="15"/>
       <c r="I198" s="15"/>
@@ -8352,7 +8352,7 @@
         <v>216</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C199" s="13" t="s">
         <v>8</v>
@@ -8361,13 +8361,13 @@
         <v>37632</v>
       </c>
       <c r="E199" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F199" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H199" s="15"/>
       <c r="I199" s="15"/>
@@ -8388,7 +8388,7 @@
         <v>217</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C200" s="13" t="s">
         <v>8</v>
@@ -8397,13 +8397,13 @@
         <v>37599</v>
       </c>
       <c r="E200" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F200" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G200" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H200" s="15"/>
       <c r="I200" s="15"/>
@@ -8424,22 +8424,22 @@
         <v>218</v>
       </c>
       <c r="B201" s="24" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C201" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D201" s="38">
         <v>37780</v>
       </c>
       <c r="E201" s="24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F201" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G201" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
@@ -8460,7 +8460,7 @@
         <v>219</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C202" s="13" t="s">
         <v>8</v>
@@ -8469,13 +8469,13 @@
         <v>37716</v>
       </c>
       <c r="E202" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F202" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G202" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H202" s="15"/>
       <c r="I202" s="15"/>
@@ -24973,7 +24973,7 @@
   <customSheetViews>
     <customSheetView guid="{D7E611A9-CBFC-42C5-9647-0040AB3C88E9}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:G230" xr:uid="{EC4CA7B7-F59C-4A30-93B7-8D87ED21F7C8}"/>
+      <autoFilter ref="A2:G230" xr:uid="{A201FC06-04C6-457B-A4AD-4634894375AF}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1681142713"/>

--- a/Hethongquanlylab/wwwroot/data/users.xlsx
+++ b/Hethongquanlylab/wwwroot/data/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\Hethongquanly\Hethongquanlylab\wwwroot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B753E051-D57E-4B6C-8F39-721A8046FA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44497031-4683-4A43-8899-DB85DB0B62EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="253">
   <si>
     <t>STT</t>
   </si>
@@ -784,6 +784,12 @@
   </si>
   <si>
     <t>Phó Trưởng PowerTeam Lập trình</t>
+  </si>
+  <si>
+    <t>PowerTeam Lập trình,BDT</t>
+  </si>
+  <si>
+    <t>BDT</t>
   </si>
 </sst>
 </file>
@@ -907,7 +913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -999,7 +1005,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1217,23 +1223,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T951"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="16" style="40" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="34.77734375" customWidth="1"/>
-    <col min="7" max="7" width="36.77734375" customWidth="1"/>
-    <col min="8" max="20" width="8.77734375" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" customWidth="1"/>
+    <col min="8" max="20" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -1255,7 +1261,7 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
     </row>
-    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1297,7 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1327,7 +1333,7 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1363,7 +1369,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1399,7 +1405,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1435,7 +1441,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1471,7 +1477,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
     </row>
-    <row r="8" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1507,7 +1513,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1543,7 +1549,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1579,7 +1585,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1615,7 +1621,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
     </row>
-    <row r="12" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -1651,7 +1657,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -1687,7 +1693,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
     </row>
-    <row r="14" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>18</v>
       </c>
@@ -1723,7 +1729,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
     </row>
-    <row r="15" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>32</v>
       </c>
@@ -1759,7 +1765,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
     </row>
-    <row r="16" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>33</v>
       </c>
@@ -1795,7 +1801,7 @@
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
     </row>
-    <row r="17" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>34</v>
       </c>
@@ -1831,7 +1837,7 @@
       <c r="S17" s="15"/>
       <c r="T17" s="15"/>
     </row>
-    <row r="18" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>35</v>
       </c>
@@ -1867,7 +1873,7 @@
       <c r="S18" s="15"/>
       <c r="T18" s="15"/>
     </row>
-    <row r="19" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>36</v>
       </c>
@@ -1903,7 +1909,7 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
     </row>
-    <row r="20" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>37</v>
       </c>
@@ -1939,7 +1945,7 @@
       <c r="S20" s="15"/>
       <c r="T20" s="15"/>
     </row>
-    <row r="21" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>38</v>
       </c>
@@ -1975,7 +1981,7 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
     </row>
-    <row r="22" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>39</v>
       </c>
@@ -2011,7 +2017,7 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
     </row>
-    <row r="23" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>40</v>
       </c>
@@ -2047,7 +2053,7 @@
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
     </row>
-    <row r="24" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>41</v>
       </c>
@@ -2083,7 +2089,7 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
     </row>
-    <row r="25" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>42</v>
       </c>
@@ -2119,7 +2125,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>43</v>
       </c>
@@ -2155,7 +2161,7 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
     </row>
-    <row r="27" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>44</v>
       </c>
@@ -2191,7 +2197,7 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
     </row>
-    <row r="28" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>45</v>
       </c>
@@ -2227,7 +2233,7 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
     </row>
-    <row r="29" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>46</v>
       </c>
@@ -2263,7 +2269,7 @@
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
     </row>
-    <row r="30" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>47</v>
       </c>
@@ -2299,7 +2305,7 @@
       <c r="S30" s="15"/>
       <c r="T30" s="15"/>
     </row>
-    <row r="31" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>48</v>
       </c>
@@ -2335,7 +2341,7 @@
       <c r="S31" s="15"/>
       <c r="T31" s="15"/>
     </row>
-    <row r="32" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>49</v>
       </c>
@@ -2371,7 +2377,7 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
     </row>
-    <row r="33" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>50</v>
       </c>
@@ -2407,7 +2413,7 @@
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
     </row>
-    <row r="34" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>51</v>
       </c>
@@ -2443,7 +2449,7 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
     </row>
-    <row r="35" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>52</v>
       </c>
@@ -2479,7 +2485,7 @@
       <c r="S35" s="15"/>
       <c r="T35" s="15"/>
     </row>
-    <row r="36" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>53</v>
       </c>
@@ -2515,7 +2521,7 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
     </row>
-    <row r="37" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>54</v>
       </c>
@@ -2551,7 +2557,7 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
     </row>
-    <row r="38" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>55</v>
       </c>
@@ -2587,7 +2593,7 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
     </row>
-    <row r="39" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>56</v>
       </c>
@@ -2623,7 +2629,7 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
     </row>
-    <row r="40" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>57</v>
       </c>
@@ -2659,7 +2665,7 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
     </row>
-    <row r="41" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>58</v>
       </c>
@@ -2695,7 +2701,7 @@
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
     </row>
-    <row r="42" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>59</v>
       </c>
@@ -2731,7 +2737,7 @@
       <c r="S42" s="15"/>
       <c r="T42" s="15"/>
     </row>
-    <row r="43" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>60</v>
       </c>
@@ -2748,7 +2754,7 @@
         <v>4</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="G43" s="16" t="s">
         <v>44</v>
@@ -2767,7 +2773,7 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
     </row>
-    <row r="44" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>61</v>
       </c>
@@ -2784,7 +2790,7 @@
         <v>4</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="G44" s="16" t="s">
         <v>38</v>
@@ -2803,7 +2809,7 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
     </row>
-    <row r="45" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>62</v>
       </c>
@@ -2839,7 +2845,7 @@
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
     </row>
-    <row r="46" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>63</v>
       </c>
@@ -2875,7 +2881,7 @@
       <c r="S46" s="15"/>
       <c r="T46" s="15"/>
     </row>
-    <row r="47" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>64</v>
       </c>
@@ -2911,7 +2917,7 @@
       <c r="S47" s="15"/>
       <c r="T47" s="15"/>
     </row>
-    <row r="48" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>65</v>
       </c>
@@ -2947,7 +2953,7 @@
       <c r="S48" s="15"/>
       <c r="T48" s="15"/>
     </row>
-    <row r="49" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>66</v>
       </c>
@@ -2983,7 +2989,7 @@
       <c r="S49" s="15"/>
       <c r="T49" s="15"/>
     </row>
-    <row r="50" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>67</v>
       </c>
@@ -3019,7 +3025,7 @@
       <c r="S50" s="15"/>
       <c r="T50" s="15"/>
     </row>
-    <row r="51" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>68</v>
       </c>
@@ -3055,7 +3061,7 @@
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
     </row>
-    <row r="52" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>69</v>
       </c>
@@ -3091,7 +3097,7 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
     </row>
-    <row r="53" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>70</v>
       </c>
@@ -3127,7 +3133,7 @@
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
     </row>
-    <row r="54" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>71</v>
       </c>
@@ -3163,7 +3169,7 @@
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
     </row>
-    <row r="55" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>72</v>
       </c>
@@ -3199,7 +3205,7 @@
       <c r="S55" s="15"/>
       <c r="T55" s="15"/>
     </row>
-    <row r="56" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>73</v>
       </c>
@@ -3235,7 +3241,7 @@
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
     </row>
-    <row r="57" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>74</v>
       </c>
@@ -3271,7 +3277,7 @@
       <c r="S57" s="15"/>
       <c r="T57" s="15"/>
     </row>
-    <row r="58" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>75</v>
       </c>
@@ -3307,7 +3313,7 @@
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
     </row>
-    <row r="59" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>76</v>
       </c>
@@ -3343,7 +3349,7 @@
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
     </row>
-    <row r="60" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>77</v>
       </c>
@@ -3379,7 +3385,7 @@
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
     </row>
-    <row r="61" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>78</v>
       </c>
@@ -3415,7 +3421,7 @@
       <c r="S61" s="15"/>
       <c r="T61" s="15"/>
     </row>
-    <row r="62" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>79</v>
       </c>
@@ -3451,7 +3457,7 @@
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
     </row>
-    <row r="63" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>80</v>
       </c>
@@ -3487,7 +3493,7 @@
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
     </row>
-    <row r="64" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>81</v>
       </c>
@@ -3523,7 +3529,7 @@
       <c r="S64" s="15"/>
       <c r="T64" s="15"/>
     </row>
-    <row r="65" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>82</v>
       </c>
@@ -3559,7 +3565,7 @@
       <c r="S65" s="15"/>
       <c r="T65" s="15"/>
     </row>
-    <row r="66" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>83</v>
       </c>
@@ -3595,7 +3601,7 @@
       <c r="S66" s="15"/>
       <c r="T66" s="15"/>
     </row>
-    <row r="67" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>84</v>
       </c>
@@ -3631,7 +3637,7 @@
       <c r="S67" s="15"/>
       <c r="T67" s="15"/>
     </row>
-    <row r="68" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>85</v>
       </c>
@@ -3667,7 +3673,7 @@
       <c r="S68" s="15"/>
       <c r="T68" s="15"/>
     </row>
-    <row r="69" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>86</v>
       </c>
@@ -3703,7 +3709,7 @@
       <c r="S69" s="15"/>
       <c r="T69" s="15"/>
     </row>
-    <row r="70" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>87</v>
       </c>
@@ -3739,7 +3745,7 @@
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
     </row>
-    <row r="71" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>88</v>
       </c>
@@ -3775,7 +3781,7 @@
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
     </row>
-    <row r="72" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <v>89</v>
       </c>
@@ -3811,7 +3817,7 @@
       <c r="S72" s="15"/>
       <c r="T72" s="15"/>
     </row>
-    <row r="73" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>90</v>
       </c>
@@ -3847,7 +3853,7 @@
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
     </row>
-    <row r="74" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>91</v>
       </c>
@@ -3883,7 +3889,7 @@
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
     </row>
-    <row r="75" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>92</v>
       </c>
@@ -3919,7 +3925,7 @@
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
     </row>
-    <row r="76" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>93</v>
       </c>
@@ -3955,7 +3961,7 @@
       <c r="S76" s="4"/>
       <c r="T76" s="4"/>
     </row>
-    <row r="77" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>94</v>
       </c>
@@ -3991,7 +3997,7 @@
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
     </row>
-    <row r="78" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
         <v>95</v>
       </c>
@@ -4027,7 +4033,7 @@
       <c r="S78" s="15"/>
       <c r="T78" s="15"/>
     </row>
-    <row r="79" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>96</v>
       </c>
@@ -4063,7 +4069,7 @@
       <c r="S79" s="15"/>
       <c r="T79" s="15"/>
     </row>
-    <row r="80" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
         <v>97</v>
       </c>
@@ -4099,7 +4105,7 @@
       <c r="S80" s="15"/>
       <c r="T80" s="15"/>
     </row>
-    <row r="81" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
         <v>98</v>
       </c>
@@ -4135,7 +4141,7 @@
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
     </row>
-    <row r="82" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
         <v>99</v>
       </c>
@@ -4171,7 +4177,7 @@
       <c r="S82" s="15"/>
       <c r="T82" s="15"/>
     </row>
-    <row r="83" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>100</v>
       </c>
@@ -4207,7 +4213,7 @@
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
     </row>
-    <row r="84" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="19">
         <v>101</v>
       </c>
@@ -4243,7 +4249,7 @@
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
     </row>
-    <row r="85" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13">
         <v>102</v>
       </c>
@@ -4279,7 +4285,7 @@
       <c r="S85" s="15"/>
       <c r="T85" s="15"/>
     </row>
-    <row r="86" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13">
         <v>103</v>
       </c>
@@ -4315,7 +4321,7 @@
       <c r="S86" s="15"/>
       <c r="T86" s="15"/>
     </row>
-    <row r="87" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13">
         <v>104</v>
       </c>
@@ -4351,7 +4357,7 @@
       <c r="S87" s="15"/>
       <c r="T87" s="15"/>
     </row>
-    <row r="88" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="19">
         <v>105</v>
       </c>
@@ -4387,7 +4393,7 @@
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
     </row>
-    <row r="89" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
         <v>106</v>
       </c>
@@ -4423,7 +4429,7 @@
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
     </row>
-    <row r="90" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="19">
         <v>107</v>
       </c>
@@ -4459,7 +4465,7 @@
       <c r="S90" s="4"/>
       <c r="T90" s="4"/>
     </row>
-    <row r="91" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="13">
         <v>108</v>
       </c>
@@ -4495,7 +4501,7 @@
       <c r="S91" s="15"/>
       <c r="T91" s="15"/>
     </row>
-    <row r="92" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
         <v>109</v>
       </c>
@@ -4531,7 +4537,7 @@
       <c r="S92" s="4"/>
       <c r="T92" s="4"/>
     </row>
-    <row r="93" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
         <v>110</v>
       </c>
@@ -4567,7 +4573,7 @@
       <c r="S93" s="4"/>
       <c r="T93" s="4"/>
     </row>
-    <row r="94" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13">
         <v>111</v>
       </c>
@@ -4603,7 +4609,7 @@
       <c r="S94" s="15"/>
       <c r="T94" s="15"/>
     </row>
-    <row r="95" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
         <v>112</v>
       </c>
@@ -4639,7 +4645,7 @@
       <c r="S95" s="15"/>
       <c r="T95" s="15"/>
     </row>
-    <row r="96" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>113</v>
       </c>
@@ -4675,7 +4681,7 @@
       <c r="S96" s="4"/>
       <c r="T96" s="4"/>
     </row>
-    <row r="97" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13">
         <v>114</v>
       </c>
@@ -4711,7 +4717,7 @@
       <c r="S97" s="15"/>
       <c r="T97" s="15"/>
     </row>
-    <row r="98" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
         <v>115</v>
       </c>
@@ -4747,7 +4753,7 @@
       <c r="S98" s="15"/>
       <c r="T98" s="15"/>
     </row>
-    <row r="99" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>116</v>
       </c>
@@ -4783,7 +4789,7 @@
       <c r="S99" s="4"/>
       <c r="T99" s="4"/>
     </row>
-    <row r="100" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="19">
         <v>117</v>
       </c>
@@ -4819,7 +4825,7 @@
       <c r="S100" s="4"/>
       <c r="T100" s="4"/>
     </row>
-    <row r="101" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13">
         <v>118</v>
       </c>
@@ -4855,7 +4861,7 @@
       <c r="S101" s="15"/>
       <c r="T101" s="15"/>
     </row>
-    <row r="102" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13">
         <v>119</v>
       </c>
@@ -4891,7 +4897,7 @@
       <c r="S102" s="15"/>
       <c r="T102" s="15"/>
     </row>
-    <row r="103" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="19">
         <v>120</v>
       </c>
@@ -4927,7 +4933,7 @@
       <c r="S103" s="4"/>
       <c r="T103" s="4"/>
     </row>
-    <row r="104" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="19">
         <v>121</v>
       </c>
@@ -4963,7 +4969,7 @@
       <c r="S104" s="4"/>
       <c r="T104" s="4"/>
     </row>
-    <row r="105" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13">
         <v>122</v>
       </c>
@@ -4999,7 +5005,7 @@
       <c r="S105" s="15"/>
       <c r="T105" s="15"/>
     </row>
-    <row r="106" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="19">
         <v>123</v>
       </c>
@@ -5035,7 +5041,7 @@
       <c r="S106" s="4"/>
       <c r="T106" s="4"/>
     </row>
-    <row r="107" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="19">
         <v>124</v>
       </c>
@@ -5071,7 +5077,7 @@
       <c r="S107" s="4"/>
       <c r="T107" s="4"/>
     </row>
-    <row r="108" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="19">
         <v>125</v>
       </c>
@@ -5107,7 +5113,7 @@
       <c r="S108" s="4"/>
       <c r="T108" s="4"/>
     </row>
-    <row r="109" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13">
         <v>126</v>
       </c>
@@ -5143,7 +5149,7 @@
       <c r="S109" s="15"/>
       <c r="T109" s="15"/>
     </row>
-    <row r="110" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="19">
         <v>127</v>
       </c>
@@ -5179,7 +5185,7 @@
       <c r="S110" s="4"/>
       <c r="T110" s="4"/>
     </row>
-    <row r="111" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13">
         <v>128</v>
       </c>
@@ -5215,7 +5221,7 @@
       <c r="S111" s="15"/>
       <c r="T111" s="15"/>
     </row>
-    <row r="112" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13">
         <v>129</v>
       </c>
@@ -5251,7 +5257,7 @@
       <c r="S112" s="15"/>
       <c r="T112" s="15"/>
     </row>
-    <row r="113" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13">
         <v>130</v>
       </c>
@@ -5287,7 +5293,7 @@
       <c r="S113" s="15"/>
       <c r="T113" s="15"/>
     </row>
-    <row r="114" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13">
         <v>131</v>
       </c>
@@ -5323,7 +5329,7 @@
       <c r="S114" s="15"/>
       <c r="T114" s="15"/>
     </row>
-    <row r="115" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="19">
         <v>132</v>
       </c>
@@ -5359,7 +5365,7 @@
       <c r="S115" s="4"/>
       <c r="T115" s="4"/>
     </row>
-    <row r="116" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="19">
         <v>133</v>
       </c>
@@ -5395,7 +5401,7 @@
       <c r="S116" s="4"/>
       <c r="T116" s="4"/>
     </row>
-    <row r="117" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="19">
         <v>134</v>
       </c>
@@ -5431,7 +5437,7 @@
       <c r="S117" s="4"/>
       <c r="T117" s="4"/>
     </row>
-    <row r="118" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="19">
         <v>135</v>
       </c>
@@ -5467,7 +5473,7 @@
       <c r="S118" s="4"/>
       <c r="T118" s="4"/>
     </row>
-    <row r="119" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="19">
         <v>136</v>
       </c>
@@ -5503,7 +5509,7 @@
       <c r="S119" s="4"/>
       <c r="T119" s="4"/>
     </row>
-    <row r="120" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="19">
         <v>137</v>
       </c>
@@ -5539,7 +5545,7 @@
       <c r="S120" s="4"/>
       <c r="T120" s="4"/>
     </row>
-    <row r="121" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="19">
         <v>138</v>
       </c>
@@ -5575,7 +5581,7 @@
       <c r="S121" s="4"/>
       <c r="T121" s="4"/>
     </row>
-    <row r="122" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="19">
         <v>139</v>
       </c>
@@ -5611,7 +5617,7 @@
       <c r="S122" s="4"/>
       <c r="T122" s="4"/>
     </row>
-    <row r="123" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13">
         <v>140</v>
       </c>
@@ -5647,7 +5653,7 @@
       <c r="S123" s="15"/>
       <c r="T123" s="15"/>
     </row>
-    <row r="124" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="19">
         <v>141</v>
       </c>
@@ -5683,7 +5689,7 @@
       <c r="S124" s="4"/>
       <c r="T124" s="4"/>
     </row>
-    <row r="125" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="13">
         <v>142</v>
       </c>
@@ -5719,7 +5725,7 @@
       <c r="S125" s="15"/>
       <c r="T125" s="15"/>
     </row>
-    <row r="126" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="13">
         <v>143</v>
       </c>
@@ -5755,7 +5761,7 @@
       <c r="S126" s="15"/>
       <c r="T126" s="15"/>
     </row>
-    <row r="127" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="13">
         <v>144</v>
       </c>
@@ -5791,7 +5797,7 @@
       <c r="S127" s="15"/>
       <c r="T127" s="15"/>
     </row>
-    <row r="128" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="13">
         <v>145</v>
       </c>
@@ -5827,7 +5833,7 @@
       <c r="S128" s="15"/>
       <c r="T128" s="15"/>
     </row>
-    <row r="129" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="13">
         <v>146</v>
       </c>
@@ -5863,7 +5869,7 @@
       <c r="S129" s="15"/>
       <c r="T129" s="15"/>
     </row>
-    <row r="130" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>147</v>
       </c>
@@ -5899,7 +5905,7 @@
       <c r="S130" s="4"/>
       <c r="T130" s="4"/>
     </row>
-    <row r="131" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>148</v>
       </c>
@@ -5935,7 +5941,7 @@
       <c r="S131" s="4"/>
       <c r="T131" s="4"/>
     </row>
-    <row r="132" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <v>149</v>
       </c>
@@ -5971,7 +5977,7 @@
       <c r="S132" s="4"/>
       <c r="T132" s="4"/>
     </row>
-    <row r="133" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="13">
         <v>150</v>
       </c>
@@ -6007,7 +6013,7 @@
       <c r="S133" s="15"/>
       <c r="T133" s="15"/>
     </row>
-    <row r="134" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="13">
         <v>151</v>
       </c>
@@ -6043,7 +6049,7 @@
       <c r="S134" s="15"/>
       <c r="T134" s="15"/>
     </row>
-    <row r="135" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>152</v>
       </c>
@@ -6079,7 +6085,7 @@
       <c r="S135" s="4"/>
       <c r="T135" s="4"/>
     </row>
-    <row r="136" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="13">
         <v>153</v>
       </c>
@@ -6115,7 +6121,7 @@
       <c r="S136" s="15"/>
       <c r="T136" s="15"/>
     </row>
-    <row r="137" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="13">
         <v>154</v>
       </c>
@@ -6151,7 +6157,7 @@
       <c r="S137" s="15"/>
       <c r="T137" s="15"/>
     </row>
-    <row r="138" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="13">
         <v>155</v>
       </c>
@@ -6187,7 +6193,7 @@
       <c r="S138" s="15"/>
       <c r="T138" s="15"/>
     </row>
-    <row r="139" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <v>156</v>
       </c>
@@ -6223,7 +6229,7 @@
       <c r="S139" s="4"/>
       <c r="T139" s="4"/>
     </row>
-    <row r="140" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="13">
         <v>157</v>
       </c>
@@ -6259,7 +6265,7 @@
       <c r="S140" s="15"/>
       <c r="T140" s="15"/>
     </row>
-    <row r="141" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <v>158</v>
       </c>
@@ -6295,7 +6301,7 @@
       <c r="S141" s="4"/>
       <c r="T141" s="4"/>
     </row>
-    <row r="142" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <v>159</v>
       </c>
@@ -6331,7 +6337,7 @@
       <c r="S142" s="4"/>
       <c r="T142" s="4"/>
     </row>
-    <row r="143" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="13">
         <v>160</v>
       </c>
@@ -6367,7 +6373,7 @@
       <c r="S143" s="15"/>
       <c r="T143" s="15"/>
     </row>
-    <row r="144" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="13">
         <v>161</v>
       </c>
@@ -6403,7 +6409,7 @@
       <c r="S144" s="15"/>
       <c r="T144" s="15"/>
     </row>
-    <row r="145" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>162</v>
       </c>
@@ -6439,7 +6445,7 @@
       <c r="S145" s="4"/>
       <c r="T145" s="4"/>
     </row>
-    <row r="146" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="13">
         <v>163</v>
       </c>
@@ -6475,7 +6481,7 @@
       <c r="S146" s="15"/>
       <c r="T146" s="15"/>
     </row>
-    <row r="147" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="13">
         <v>164</v>
       </c>
@@ -6511,7 +6517,7 @@
       <c r="S147" s="15"/>
       <c r="T147" s="15"/>
     </row>
-    <row r="148" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="13">
         <v>165</v>
       </c>
@@ -6547,7 +6553,7 @@
       <c r="S148" s="15"/>
       <c r="T148" s="15"/>
     </row>
-    <row r="149" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="13">
         <v>166</v>
       </c>
@@ -6583,7 +6589,7 @@
       <c r="S149" s="15"/>
       <c r="T149" s="15"/>
     </row>
-    <row r="150" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="13">
         <v>167</v>
       </c>
@@ -6619,7 +6625,7 @@
       <c r="S150" s="15"/>
       <c r="T150" s="15"/>
     </row>
-    <row r="151" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <v>168</v>
       </c>
@@ -6655,7 +6661,7 @@
       <c r="S151" s="4"/>
       <c r="T151" s="4"/>
     </row>
-    <row r="152" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="13">
         <v>169</v>
       </c>
@@ -6691,7 +6697,7 @@
       <c r="S152" s="15"/>
       <c r="T152" s="15"/>
     </row>
-    <row r="153" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>170</v>
       </c>
@@ -6727,7 +6733,7 @@
       <c r="S153" s="4"/>
       <c r="T153" s="4"/>
     </row>
-    <row r="154" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="13">
         <v>171</v>
       </c>
@@ -6763,7 +6769,7 @@
       <c r="S154" s="15"/>
       <c r="T154" s="15"/>
     </row>
-    <row r="155" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="13">
         <v>172</v>
       </c>
@@ -6799,7 +6805,7 @@
       <c r="S155" s="15"/>
       <c r="T155" s="15"/>
     </row>
-    <row r="156" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="13">
         <v>173</v>
       </c>
@@ -6835,7 +6841,7 @@
       <c r="S156" s="15"/>
       <c r="T156" s="15"/>
     </row>
-    <row r="157" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="13">
         <v>174</v>
       </c>
@@ -6871,7 +6877,7 @@
       <c r="S157" s="15"/>
       <c r="T157" s="15"/>
     </row>
-    <row r="158" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="13">
         <v>175</v>
       </c>
@@ -6907,7 +6913,7 @@
       <c r="S158" s="15"/>
       <c r="T158" s="15"/>
     </row>
-    <row r="159" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>176</v>
       </c>
@@ -6943,7 +6949,7 @@
       <c r="S159" s="4"/>
       <c r="T159" s="4"/>
     </row>
-    <row r="160" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="13">
         <v>177</v>
       </c>
@@ -6979,7 +6985,7 @@
       <c r="S160" s="15"/>
       <c r="T160" s="15"/>
     </row>
-    <row r="161" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <v>178</v>
       </c>
@@ -7015,7 +7021,7 @@
       <c r="S161" s="4"/>
       <c r="T161" s="4"/>
     </row>
-    <row r="162" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>179</v>
       </c>
@@ -7051,7 +7057,7 @@
       <c r="S162" s="4"/>
       <c r="T162" s="4"/>
     </row>
-    <row r="163" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <v>180</v>
       </c>
@@ -7087,7 +7093,7 @@
       <c r="S163" s="4"/>
       <c r="T163" s="4"/>
     </row>
-    <row r="164" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <v>181</v>
       </c>
@@ -7123,7 +7129,7 @@
       <c r="S164" s="4"/>
       <c r="T164" s="4"/>
     </row>
-    <row r="165" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>182</v>
       </c>
@@ -7159,7 +7165,7 @@
       <c r="S165" s="4"/>
       <c r="T165" s="4"/>
     </row>
-    <row r="166" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <v>183</v>
       </c>
@@ -7195,7 +7201,7 @@
       <c r="S166" s="4"/>
       <c r="T166" s="4"/>
     </row>
-    <row r="167" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <v>184</v>
       </c>
@@ -7231,7 +7237,7 @@
       <c r="S167" s="4"/>
       <c r="T167" s="4"/>
     </row>
-    <row r="168" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="13">
         <v>185</v>
       </c>
@@ -7267,7 +7273,7 @@
       <c r="S168" s="15"/>
       <c r="T168" s="15"/>
     </row>
-    <row r="169" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="13">
         <v>186</v>
       </c>
@@ -7303,7 +7309,7 @@
       <c r="S169" s="15"/>
       <c r="T169" s="15"/>
     </row>
-    <row r="170" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="13">
         <v>187</v>
       </c>
@@ -7339,7 +7345,7 @@
       <c r="S170" s="15"/>
       <c r="T170" s="15"/>
     </row>
-    <row r="171" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="13">
         <v>188</v>
       </c>
@@ -7375,7 +7381,7 @@
       <c r="S171" s="15"/>
       <c r="T171" s="15"/>
     </row>
-    <row r="172" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="13">
         <v>189</v>
       </c>
@@ -7411,7 +7417,7 @@
       <c r="S172" s="15"/>
       <c r="T172" s="15"/>
     </row>
-    <row r="173" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>190</v>
       </c>
@@ -7447,7 +7453,7 @@
       <c r="S173" s="4"/>
       <c r="T173" s="4"/>
     </row>
-    <row r="174" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="13">
         <v>191</v>
       </c>
@@ -7483,7 +7489,7 @@
       <c r="S174" s="15"/>
       <c r="T174" s="15"/>
     </row>
-    <row r="175" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="13">
         <v>192</v>
       </c>
@@ -7519,7 +7525,7 @@
       <c r="S175" s="15"/>
       <c r="T175" s="15"/>
     </row>
-    <row r="176" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="13">
         <v>193</v>
       </c>
@@ -7555,7 +7561,7 @@
       <c r="S176" s="15"/>
       <c r="T176" s="15"/>
     </row>
-    <row r="177" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="13">
         <v>194</v>
       </c>
@@ -7591,7 +7597,7 @@
       <c r="S177" s="15"/>
       <c r="T177" s="15"/>
     </row>
-    <row r="178" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="13">
         <v>195</v>
       </c>
@@ -7627,7 +7633,7 @@
       <c r="S178" s="15"/>
       <c r="T178" s="15"/>
     </row>
-    <row r="179" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <v>196</v>
       </c>
@@ -7663,7 +7669,7 @@
       <c r="S179" s="4"/>
       <c r="T179" s="4"/>
     </row>
-    <row r="180" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="13">
         <v>197</v>
       </c>
@@ -7699,7 +7705,7 @@
       <c r="S180" s="15"/>
       <c r="T180" s="15"/>
     </row>
-    <row r="181" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="23">
         <v>198</v>
       </c>
@@ -7735,7 +7741,7 @@
       <c r="S181" s="4"/>
       <c r="T181" s="4"/>
     </row>
-    <row r="182" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <v>199</v>
       </c>
@@ -7771,7 +7777,7 @@
       <c r="S182" s="4"/>
       <c r="T182" s="4"/>
     </row>
-    <row r="183" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="13">
         <v>200</v>
       </c>
@@ -7807,7 +7813,7 @@
       <c r="S183" s="15"/>
       <c r="T183" s="15"/>
     </row>
-    <row r="184" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <v>201</v>
       </c>
@@ -7843,7 +7849,7 @@
       <c r="S184" s="4"/>
       <c r="T184" s="4"/>
     </row>
-    <row r="185" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="13">
         <v>202</v>
       </c>
@@ -7879,7 +7885,7 @@
       <c r="S185" s="15"/>
       <c r="T185" s="15"/>
     </row>
-    <row r="186" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="13">
         <v>203</v>
       </c>
@@ -7915,7 +7921,7 @@
       <c r="S186" s="15"/>
       <c r="T186" s="15"/>
     </row>
-    <row r="187" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <v>204</v>
       </c>
@@ -7951,7 +7957,7 @@
       <c r="S187" s="4"/>
       <c r="T187" s="4"/>
     </row>
-    <row r="188" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <v>205</v>
       </c>
@@ -7987,7 +7993,7 @@
       <c r="S188" s="4"/>
       <c r="T188" s="4"/>
     </row>
-    <row r="189" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="13">
         <v>206</v>
       </c>
@@ -8023,7 +8029,7 @@
       <c r="S189" s="15"/>
       <c r="T189" s="15"/>
     </row>
-    <row r="190" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <v>207</v>
       </c>
@@ -8059,7 +8065,7 @@
       <c r="S190" s="4"/>
       <c r="T190" s="4"/>
     </row>
-    <row r="191" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <v>208</v>
       </c>
@@ -8095,7 +8101,7 @@
       <c r="S191" s="4"/>
       <c r="T191" s="4"/>
     </row>
-    <row r="192" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="13">
         <v>209</v>
       </c>
@@ -8131,7 +8137,7 @@
       <c r="S192" s="15"/>
       <c r="T192" s="15"/>
     </row>
-    <row r="193" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="13">
         <v>210</v>
       </c>
@@ -8167,7 +8173,7 @@
       <c r="S193" s="15"/>
       <c r="T193" s="15"/>
     </row>
-    <row r="194" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="13">
         <v>211</v>
       </c>
@@ -8203,7 +8209,7 @@
       <c r="S194" s="15"/>
       <c r="T194" s="15"/>
     </row>
-    <row r="195" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>212</v>
       </c>
@@ -8239,7 +8245,7 @@
       <c r="S195" s="4"/>
       <c r="T195" s="4"/>
     </row>
-    <row r="196" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="13">
         <v>213</v>
       </c>
@@ -8275,7 +8281,7 @@
       <c r="S196" s="15"/>
       <c r="T196" s="15"/>
     </row>
-    <row r="197" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <v>214</v>
       </c>
@@ -8311,7 +8317,7 @@
       <c r="S197" s="4"/>
       <c r="T197" s="4"/>
     </row>
-    <row r="198" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="13">
         <v>215</v>
       </c>
@@ -8347,7 +8353,7 @@
       <c r="S198" s="15"/>
       <c r="T198" s="15"/>
     </row>
-    <row r="199" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="13">
         <v>216</v>
       </c>
@@ -8383,7 +8389,7 @@
       <c r="S199" s="15"/>
       <c r="T199" s="15"/>
     </row>
-    <row r="200" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="13">
         <v>217</v>
       </c>
@@ -8419,7 +8425,7 @@
       <c r="S200" s="15"/>
       <c r="T200" s="15"/>
     </row>
-    <row r="201" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <v>218</v>
       </c>
@@ -8455,7 +8461,7 @@
       <c r="S201" s="4"/>
       <c r="T201" s="4"/>
     </row>
-    <row r="202" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="13">
         <v>219</v>
       </c>
@@ -8491,7 +8497,7 @@
       <c r="S202" s="15"/>
       <c r="T202" s="15"/>
     </row>
-    <row r="203" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -8513,7 +8519,7 @@
       <c r="S203" s="4"/>
       <c r="T203" s="4"/>
     </row>
-    <row r="204" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -8535,7 +8541,7 @@
       <c r="S204" s="4"/>
       <c r="T204" s="4"/>
     </row>
-    <row r="205" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -8557,7 +8563,7 @@
       <c r="S205" s="4"/>
       <c r="T205" s="4"/>
     </row>
-    <row r="206" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -8579,7 +8585,7 @@
       <c r="S206" s="4"/>
       <c r="T206" s="4"/>
     </row>
-    <row r="207" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -8601,7 +8607,7 @@
       <c r="S207" s="4"/>
       <c r="T207" s="4"/>
     </row>
-    <row r="208" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -8623,7 +8629,7 @@
       <c r="S208" s="4"/>
       <c r="T208" s="4"/>
     </row>
-    <row r="209" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -8645,7 +8651,7 @@
       <c r="S209" s="4"/>
       <c r="T209" s="4"/>
     </row>
-    <row r="210" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -8667,7 +8673,7 @@
       <c r="S210" s="4"/>
       <c r="T210" s="4"/>
     </row>
-    <row r="211" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -8689,7 +8695,7 @@
       <c r="S211" s="4"/>
       <c r="T211" s="4"/>
     </row>
-    <row r="212" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -8711,7 +8717,7 @@
       <c r="S212" s="4"/>
       <c r="T212" s="4"/>
     </row>
-    <row r="213" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -8733,7 +8739,7 @@
       <c r="S213" s="4"/>
       <c r="T213" s="4"/>
     </row>
-    <row r="214" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -8755,7 +8761,7 @@
       <c r="S214" s="4"/>
       <c r="T214" s="4"/>
     </row>
-    <row r="215" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -8777,7 +8783,7 @@
       <c r="S215" s="4"/>
       <c r="T215" s="4"/>
     </row>
-    <row r="216" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -8799,7 +8805,7 @@
       <c r="S216" s="4"/>
       <c r="T216" s="4"/>
     </row>
-    <row r="217" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -8821,7 +8827,7 @@
       <c r="S217" s="4"/>
       <c r="T217" s="4"/>
     </row>
-    <row r="218" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -8843,7 +8849,7 @@
       <c r="S218" s="4"/>
       <c r="T218" s="4"/>
     </row>
-    <row r="219" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -8865,7 +8871,7 @@
       <c r="S219" s="4"/>
       <c r="T219" s="4"/>
     </row>
-    <row r="220" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -8887,7 +8893,7 @@
       <c r="S220" s="4"/>
       <c r="T220" s="4"/>
     </row>
-    <row r="221" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -8909,7 +8915,7 @@
       <c r="S221" s="4"/>
       <c r="T221" s="4"/>
     </row>
-    <row r="222" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -8931,7 +8937,7 @@
       <c r="S222" s="4"/>
       <c r="T222" s="4"/>
     </row>
-    <row r="223" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -8953,7 +8959,7 @@
       <c r="S223" s="4"/>
       <c r="T223" s="4"/>
     </row>
-    <row r="224" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -8975,7 +8981,7 @@
       <c r="S224" s="4"/>
       <c r="T224" s="4"/>
     </row>
-    <row r="225" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -8997,7 +9003,7 @@
       <c r="S225" s="4"/>
       <c r="T225" s="4"/>
     </row>
-    <row r="226" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -9019,7 +9025,7 @@
       <c r="S226" s="4"/>
       <c r="T226" s="4"/>
     </row>
-    <row r="227" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -9041,7 +9047,7 @@
       <c r="S227" s="4"/>
       <c r="T227" s="4"/>
     </row>
-    <row r="228" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -9063,7 +9069,7 @@
       <c r="S228" s="4"/>
       <c r="T228" s="4"/>
     </row>
-    <row r="229" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -9085,7 +9091,7 @@
       <c r="S229" s="4"/>
       <c r="T229" s="4"/>
     </row>
-    <row r="230" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -9107,7 +9113,7 @@
       <c r="S230" s="4"/>
       <c r="T230" s="4"/>
     </row>
-    <row r="231" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -9129,7 +9135,7 @@
       <c r="S231" s="4"/>
       <c r="T231" s="4"/>
     </row>
-    <row r="232" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -9151,7 +9157,7 @@
       <c r="S232" s="4"/>
       <c r="T232" s="4"/>
     </row>
-    <row r="233" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -9173,7 +9179,7 @@
       <c r="S233" s="4"/>
       <c r="T233" s="4"/>
     </row>
-    <row r="234" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -9195,7 +9201,7 @@
       <c r="S234" s="4"/>
       <c r="T234" s="4"/>
     </row>
-    <row r="235" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -9217,7 +9223,7 @@
       <c r="S235" s="4"/>
       <c r="T235" s="4"/>
     </row>
-    <row r="236" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -9239,7 +9245,7 @@
       <c r="S236" s="4"/>
       <c r="T236" s="4"/>
     </row>
-    <row r="237" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -9261,7 +9267,7 @@
       <c r="S237" s="4"/>
       <c r="T237" s="4"/>
     </row>
-    <row r="238" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -9283,7 +9289,7 @@
       <c r="S238" s="4"/>
       <c r="T238" s="4"/>
     </row>
-    <row r="239" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -9305,7 +9311,7 @@
       <c r="S239" s="4"/>
       <c r="T239" s="4"/>
     </row>
-    <row r="240" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -9327,7 +9333,7 @@
       <c r="S240" s="4"/>
       <c r="T240" s="4"/>
     </row>
-    <row r="241" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -9349,7 +9355,7 @@
       <c r="S241" s="4"/>
       <c r="T241" s="4"/>
     </row>
-    <row r="242" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -9371,7 +9377,7 @@
       <c r="S242" s="4"/>
       <c r="T242" s="4"/>
     </row>
-    <row r="243" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -9393,7 +9399,7 @@
       <c r="S243" s="4"/>
       <c r="T243" s="4"/>
     </row>
-    <row r="244" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -9415,7 +9421,7 @@
       <c r="S244" s="4"/>
       <c r="T244" s="4"/>
     </row>
-    <row r="245" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -9437,7 +9443,7 @@
       <c r="S245" s="4"/>
       <c r="T245" s="4"/>
     </row>
-    <row r="246" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -9459,7 +9465,7 @@
       <c r="S246" s="4"/>
       <c r="T246" s="4"/>
     </row>
-    <row r="247" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -9481,7 +9487,7 @@
       <c r="S247" s="4"/>
       <c r="T247" s="4"/>
     </row>
-    <row r="248" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -9503,7 +9509,7 @@
       <c r="S248" s="4"/>
       <c r="T248" s="4"/>
     </row>
-    <row r="249" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -9525,7 +9531,7 @@
       <c r="S249" s="4"/>
       <c r="T249" s="4"/>
     </row>
-    <row r="250" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -9547,7 +9553,7 @@
       <c r="S250" s="4"/>
       <c r="T250" s="4"/>
     </row>
-    <row r="251" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -9569,7 +9575,7 @@
       <c r="S251" s="4"/>
       <c r="T251" s="4"/>
     </row>
-    <row r="252" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -9591,7 +9597,7 @@
       <c r="S252" s="4"/>
       <c r="T252" s="4"/>
     </row>
-    <row r="253" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -9613,7 +9619,7 @@
       <c r="S253" s="4"/>
       <c r="T253" s="4"/>
     </row>
-    <row r="254" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -9635,7 +9641,7 @@
       <c r="S254" s="4"/>
       <c r="T254" s="4"/>
     </row>
-    <row r="255" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -9657,7 +9663,7 @@
       <c r="S255" s="4"/>
       <c r="T255" s="4"/>
     </row>
-    <row r="256" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -9679,7 +9685,7 @@
       <c r="S256" s="4"/>
       <c r="T256" s="4"/>
     </row>
-    <row r="257" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -9701,7 +9707,7 @@
       <c r="S257" s="4"/>
       <c r="T257" s="4"/>
     </row>
-    <row r="258" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -9723,7 +9729,7 @@
       <c r="S258" s="4"/>
       <c r="T258" s="4"/>
     </row>
-    <row r="259" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -9745,7 +9751,7 @@
       <c r="S259" s="4"/>
       <c r="T259" s="4"/>
     </row>
-    <row r="260" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -9767,7 +9773,7 @@
       <c r="S260" s="4"/>
       <c r="T260" s="4"/>
     </row>
-    <row r="261" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -9789,7 +9795,7 @@
       <c r="S261" s="4"/>
       <c r="T261" s="4"/>
     </row>
-    <row r="262" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -9811,7 +9817,7 @@
       <c r="S262" s="4"/>
       <c r="T262" s="4"/>
     </row>
-    <row r="263" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -9833,7 +9839,7 @@
       <c r="S263" s="4"/>
       <c r="T263" s="4"/>
     </row>
-    <row r="264" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -9855,7 +9861,7 @@
       <c r="S264" s="4"/>
       <c r="T264" s="4"/>
     </row>
-    <row r="265" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -9877,7 +9883,7 @@
       <c r="S265" s="4"/>
       <c r="T265" s="4"/>
     </row>
-    <row r="266" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -9899,7 +9905,7 @@
       <c r="S266" s="4"/>
       <c r="T266" s="4"/>
     </row>
-    <row r="267" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -9921,7 +9927,7 @@
       <c r="S267" s="4"/>
       <c r="T267" s="4"/>
     </row>
-    <row r="268" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -9943,7 +9949,7 @@
       <c r="S268" s="4"/>
       <c r="T268" s="4"/>
     </row>
-    <row r="269" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -9965,7 +9971,7 @@
       <c r="S269" s="4"/>
       <c r="T269" s="4"/>
     </row>
-    <row r="270" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -9987,7 +9993,7 @@
       <c r="S270" s="4"/>
       <c r="T270" s="4"/>
     </row>
-    <row r="271" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -10009,7 +10015,7 @@
       <c r="S271" s="4"/>
       <c r="T271" s="4"/>
     </row>
-    <row r="272" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -10031,7 +10037,7 @@
       <c r="S272" s="4"/>
       <c r="T272" s="4"/>
     </row>
-    <row r="273" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -10053,7 +10059,7 @@
       <c r="S273" s="4"/>
       <c r="T273" s="4"/>
     </row>
-    <row r="274" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -10075,7 +10081,7 @@
       <c r="S274" s="4"/>
       <c r="T274" s="4"/>
     </row>
-    <row r="275" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -10097,7 +10103,7 @@
       <c r="S275" s="4"/>
       <c r="T275" s="4"/>
     </row>
-    <row r="276" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -10119,7 +10125,7 @@
       <c r="S276" s="4"/>
       <c r="T276" s="4"/>
     </row>
-    <row r="277" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -10141,7 +10147,7 @@
       <c r="S277" s="4"/>
       <c r="T277" s="4"/>
     </row>
-    <row r="278" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -10163,7 +10169,7 @@
       <c r="S278" s="4"/>
       <c r="T278" s="4"/>
     </row>
-    <row r="279" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -10185,7 +10191,7 @@
       <c r="S279" s="4"/>
       <c r="T279" s="4"/>
     </row>
-    <row r="280" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -10207,7 +10213,7 @@
       <c r="S280" s="4"/>
       <c r="T280" s="4"/>
     </row>
-    <row r="281" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -10229,7 +10235,7 @@
       <c r="S281" s="4"/>
       <c r="T281" s="4"/>
     </row>
-    <row r="282" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -10251,7 +10257,7 @@
       <c r="S282" s="4"/>
       <c r="T282" s="4"/>
     </row>
-    <row r="283" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -10273,7 +10279,7 @@
       <c r="S283" s="4"/>
       <c r="T283" s="4"/>
     </row>
-    <row r="284" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -10295,7 +10301,7 @@
       <c r="S284" s="4"/>
       <c r="T284" s="4"/>
     </row>
-    <row r="285" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -10317,7 +10323,7 @@
       <c r="S285" s="4"/>
       <c r="T285" s="4"/>
     </row>
-    <row r="286" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -10339,7 +10345,7 @@
       <c r="S286" s="4"/>
       <c r="T286" s="4"/>
     </row>
-    <row r="287" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -10361,7 +10367,7 @@
       <c r="S287" s="4"/>
       <c r="T287" s="4"/>
     </row>
-    <row r="288" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -10383,7 +10389,7 @@
       <c r="S288" s="4"/>
       <c r="T288" s="4"/>
     </row>
-    <row r="289" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -10405,7 +10411,7 @@
       <c r="S289" s="4"/>
       <c r="T289" s="4"/>
     </row>
-    <row r="290" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -10427,7 +10433,7 @@
       <c r="S290" s="4"/>
       <c r="T290" s="4"/>
     </row>
-    <row r="291" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -10449,7 +10455,7 @@
       <c r="S291" s="4"/>
       <c r="T291" s="4"/>
     </row>
-    <row r="292" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -10471,7 +10477,7 @@
       <c r="S292" s="4"/>
       <c r="T292" s="4"/>
     </row>
-    <row r="293" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -10493,7 +10499,7 @@
       <c r="S293" s="4"/>
       <c r="T293" s="4"/>
     </row>
-    <row r="294" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -10515,7 +10521,7 @@
       <c r="S294" s="4"/>
       <c r="T294" s="4"/>
     </row>
-    <row r="295" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -10537,7 +10543,7 @@
       <c r="S295" s="4"/>
       <c r="T295" s="4"/>
     </row>
-    <row r="296" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -10559,7 +10565,7 @@
       <c r="S296" s="4"/>
       <c r="T296" s="4"/>
     </row>
-    <row r="297" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -10581,7 +10587,7 @@
       <c r="S297" s="4"/>
       <c r="T297" s="4"/>
     </row>
-    <row r="298" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -10603,7 +10609,7 @@
       <c r="S298" s="4"/>
       <c r="T298" s="4"/>
     </row>
-    <row r="299" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -10625,7 +10631,7 @@
       <c r="S299" s="4"/>
       <c r="T299" s="4"/>
     </row>
-    <row r="300" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -10647,7 +10653,7 @@
       <c r="S300" s="4"/>
       <c r="T300" s="4"/>
     </row>
-    <row r="301" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -10669,7 +10675,7 @@
       <c r="S301" s="4"/>
       <c r="T301" s="4"/>
     </row>
-    <row r="302" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -10691,7 +10697,7 @@
       <c r="S302" s="4"/>
       <c r="T302" s="4"/>
     </row>
-    <row r="303" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -10713,7 +10719,7 @@
       <c r="S303" s="4"/>
       <c r="T303" s="4"/>
     </row>
-    <row r="304" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -10735,7 +10741,7 @@
       <c r="S304" s="4"/>
       <c r="T304" s="4"/>
     </row>
-    <row r="305" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -10757,7 +10763,7 @@
       <c r="S305" s="4"/>
       <c r="T305" s="4"/>
     </row>
-    <row r="306" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -10779,7 +10785,7 @@
       <c r="S306" s="4"/>
       <c r="T306" s="4"/>
     </row>
-    <row r="307" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -10801,7 +10807,7 @@
       <c r="S307" s="4"/>
       <c r="T307" s="4"/>
     </row>
-    <row r="308" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -10823,7 +10829,7 @@
       <c r="S308" s="4"/>
       <c r="T308" s="4"/>
     </row>
-    <row r="309" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -10845,7 +10851,7 @@
       <c r="S309" s="4"/>
       <c r="T309" s="4"/>
     </row>
-    <row r="310" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -10867,7 +10873,7 @@
       <c r="S310" s="4"/>
       <c r="T310" s="4"/>
     </row>
-    <row r="311" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -10889,7 +10895,7 @@
       <c r="S311" s="4"/>
       <c r="T311" s="4"/>
     </row>
-    <row r="312" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -10911,7 +10917,7 @@
       <c r="S312" s="4"/>
       <c r="T312" s="4"/>
     </row>
-    <row r="313" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -10933,7 +10939,7 @@
       <c r="S313" s="4"/>
       <c r="T313" s="4"/>
     </row>
-    <row r="314" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -10955,7 +10961,7 @@
       <c r="S314" s="4"/>
       <c r="T314" s="4"/>
     </row>
-    <row r="315" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -10977,7 +10983,7 @@
       <c r="S315" s="4"/>
       <c r="T315" s="4"/>
     </row>
-    <row r="316" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -10999,7 +11005,7 @@
       <c r="S316" s="4"/>
       <c r="T316" s="4"/>
     </row>
-    <row r="317" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -11021,7 +11027,7 @@
       <c r="S317" s="4"/>
       <c r="T317" s="4"/>
     </row>
-    <row r="318" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -11043,7 +11049,7 @@
       <c r="S318" s="4"/>
       <c r="T318" s="4"/>
     </row>
-    <row r="319" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -11065,7 +11071,7 @@
       <c r="S319" s="4"/>
       <c r="T319" s="4"/>
     </row>
-    <row r="320" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -11087,7 +11093,7 @@
       <c r="S320" s="4"/>
       <c r="T320" s="4"/>
     </row>
-    <row r="321" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -11109,7 +11115,7 @@
       <c r="S321" s="4"/>
       <c r="T321" s="4"/>
     </row>
-    <row r="322" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -11131,7 +11137,7 @@
       <c r="S322" s="4"/>
       <c r="T322" s="4"/>
     </row>
-    <row r="323" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -11153,7 +11159,7 @@
       <c r="S323" s="4"/>
       <c r="T323" s="4"/>
     </row>
-    <row r="324" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -11175,7 +11181,7 @@
       <c r="S324" s="4"/>
       <c r="T324" s="4"/>
     </row>
-    <row r="325" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -11197,7 +11203,7 @@
       <c r="S325" s="4"/>
       <c r="T325" s="4"/>
     </row>
-    <row r="326" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -11219,7 +11225,7 @@
       <c r="S326" s="4"/>
       <c r="T326" s="4"/>
     </row>
-    <row r="327" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -11241,7 +11247,7 @@
       <c r="S327" s="4"/>
       <c r="T327" s="4"/>
     </row>
-    <row r="328" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -11263,7 +11269,7 @@
       <c r="S328" s="4"/>
       <c r="T328" s="4"/>
     </row>
-    <row r="329" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -11285,7 +11291,7 @@
       <c r="S329" s="4"/>
       <c r="T329" s="4"/>
     </row>
-    <row r="330" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -11307,7 +11313,7 @@
       <c r="S330" s="4"/>
       <c r="T330" s="4"/>
     </row>
-    <row r="331" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -11329,7 +11335,7 @@
       <c r="S331" s="4"/>
       <c r="T331" s="4"/>
     </row>
-    <row r="332" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -11351,7 +11357,7 @@
       <c r="S332" s="4"/>
       <c r="T332" s="4"/>
     </row>
-    <row r="333" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -11373,7 +11379,7 @@
       <c r="S333" s="4"/>
       <c r="T333" s="4"/>
     </row>
-    <row r="334" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -11395,7 +11401,7 @@
       <c r="S334" s="4"/>
       <c r="T334" s="4"/>
     </row>
-    <row r="335" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -11417,7 +11423,7 @@
       <c r="S335" s="4"/>
       <c r="T335" s="4"/>
     </row>
-    <row r="336" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -11439,7 +11445,7 @@
       <c r="S336" s="4"/>
       <c r="T336" s="4"/>
     </row>
-    <row r="337" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -11461,7 +11467,7 @@
       <c r="S337" s="4"/>
       <c r="T337" s="4"/>
     </row>
-    <row r="338" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -11483,7 +11489,7 @@
       <c r="S338" s="4"/>
       <c r="T338" s="4"/>
     </row>
-    <row r="339" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -11505,7 +11511,7 @@
       <c r="S339" s="4"/>
       <c r="T339" s="4"/>
     </row>
-    <row r="340" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -11527,7 +11533,7 @@
       <c r="S340" s="4"/>
       <c r="T340" s="4"/>
     </row>
-    <row r="341" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -11549,7 +11555,7 @@
       <c r="S341" s="4"/>
       <c r="T341" s="4"/>
     </row>
-    <row r="342" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -11571,7 +11577,7 @@
       <c r="S342" s="4"/>
       <c r="T342" s="4"/>
     </row>
-    <row r="343" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -11593,7 +11599,7 @@
       <c r="S343" s="4"/>
       <c r="T343" s="4"/>
     </row>
-    <row r="344" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -11615,7 +11621,7 @@
       <c r="S344" s="4"/>
       <c r="T344" s="4"/>
     </row>
-    <row r="345" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -11637,7 +11643,7 @@
       <c r="S345" s="4"/>
       <c r="T345" s="4"/>
     </row>
-    <row r="346" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -11659,7 +11665,7 @@
       <c r="S346" s="4"/>
       <c r="T346" s="4"/>
     </row>
-    <row r="347" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -11681,7 +11687,7 @@
       <c r="S347" s="4"/>
       <c r="T347" s="4"/>
     </row>
-    <row r="348" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -11703,7 +11709,7 @@
       <c r="S348" s="4"/>
       <c r="T348" s="4"/>
     </row>
-    <row r="349" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -11725,7 +11731,7 @@
       <c r="S349" s="4"/>
       <c r="T349" s="4"/>
     </row>
-    <row r="350" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -11747,7 +11753,7 @@
       <c r="S350" s="4"/>
       <c r="T350" s="4"/>
     </row>
-    <row r="351" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -11769,7 +11775,7 @@
       <c r="S351" s="4"/>
       <c r="T351" s="4"/>
     </row>
-    <row r="352" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -11791,7 +11797,7 @@
       <c r="S352" s="4"/>
       <c r="T352" s="4"/>
     </row>
-    <row r="353" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -11813,7 +11819,7 @@
       <c r="S353" s="4"/>
       <c r="T353" s="4"/>
     </row>
-    <row r="354" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -11835,7 +11841,7 @@
       <c r="S354" s="4"/>
       <c r="T354" s="4"/>
     </row>
-    <row r="355" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -11857,7 +11863,7 @@
       <c r="S355" s="4"/>
       <c r="T355" s="4"/>
     </row>
-    <row r="356" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -11879,7 +11885,7 @@
       <c r="S356" s="4"/>
       <c r="T356" s="4"/>
     </row>
-    <row r="357" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -11901,7 +11907,7 @@
       <c r="S357" s="4"/>
       <c r="T357" s="4"/>
     </row>
-    <row r="358" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -11923,7 +11929,7 @@
       <c r="S358" s="4"/>
       <c r="T358" s="4"/>
     </row>
-    <row r="359" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -11945,7 +11951,7 @@
       <c r="S359" s="4"/>
       <c r="T359" s="4"/>
     </row>
-    <row r="360" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -11967,7 +11973,7 @@
       <c r="S360" s="4"/>
       <c r="T360" s="4"/>
     </row>
-    <row r="361" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -11989,7 +11995,7 @@
       <c r="S361" s="4"/>
       <c r="T361" s="4"/>
     </row>
-    <row r="362" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -12011,7 +12017,7 @@
       <c r="S362" s="4"/>
       <c r="T362" s="4"/>
     </row>
-    <row r="363" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -12033,7 +12039,7 @@
       <c r="S363" s="4"/>
       <c r="T363" s="4"/>
     </row>
-    <row r="364" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -12055,7 +12061,7 @@
       <c r="S364" s="4"/>
       <c r="T364" s="4"/>
     </row>
-    <row r="365" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -12077,7 +12083,7 @@
       <c r="S365" s="4"/>
       <c r="T365" s="4"/>
     </row>
-    <row r="366" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -12099,7 +12105,7 @@
       <c r="S366" s="4"/>
       <c r="T366" s="4"/>
     </row>
-    <row r="367" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -12121,7 +12127,7 @@
       <c r="S367" s="4"/>
       <c r="T367" s="4"/>
     </row>
-    <row r="368" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -12143,7 +12149,7 @@
       <c r="S368" s="4"/>
       <c r="T368" s="4"/>
     </row>
-    <row r="369" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -12165,7 +12171,7 @@
       <c r="S369" s="4"/>
       <c r="T369" s="4"/>
     </row>
-    <row r="370" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -12187,7 +12193,7 @@
       <c r="S370" s="4"/>
       <c r="T370" s="4"/>
     </row>
-    <row r="371" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -12209,7 +12215,7 @@
       <c r="S371" s="4"/>
       <c r="T371" s="4"/>
     </row>
-    <row r="372" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -12231,7 +12237,7 @@
       <c r="S372" s="4"/>
       <c r="T372" s="4"/>
     </row>
-    <row r="373" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -12253,7 +12259,7 @@
       <c r="S373" s="4"/>
       <c r="T373" s="4"/>
     </row>
-    <row r="374" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -12275,7 +12281,7 @@
       <c r="S374" s="4"/>
       <c r="T374" s="4"/>
     </row>
-    <row r="375" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -12297,7 +12303,7 @@
       <c r="S375" s="4"/>
       <c r="T375" s="4"/>
     </row>
-    <row r="376" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -12319,7 +12325,7 @@
       <c r="S376" s="4"/>
       <c r="T376" s="4"/>
     </row>
-    <row r="377" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -12341,7 +12347,7 @@
       <c r="S377" s="4"/>
       <c r="T377" s="4"/>
     </row>
-    <row r="378" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -12363,7 +12369,7 @@
       <c r="S378" s="4"/>
       <c r="T378" s="4"/>
     </row>
-    <row r="379" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -12385,7 +12391,7 @@
       <c r="S379" s="4"/>
       <c r="T379" s="4"/>
     </row>
-    <row r="380" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -12407,7 +12413,7 @@
       <c r="S380" s="4"/>
       <c r="T380" s="4"/>
     </row>
-    <row r="381" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -12429,7 +12435,7 @@
       <c r="S381" s="4"/>
       <c r="T381" s="4"/>
     </row>
-    <row r="382" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -12451,7 +12457,7 @@
       <c r="S382" s="4"/>
       <c r="T382" s="4"/>
     </row>
-    <row r="383" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -12473,7 +12479,7 @@
       <c r="S383" s="4"/>
       <c r="T383" s="4"/>
     </row>
-    <row r="384" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -12495,7 +12501,7 @@
       <c r="S384" s="4"/>
       <c r="T384" s="4"/>
     </row>
-    <row r="385" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -12517,7 +12523,7 @@
       <c r="S385" s="4"/>
       <c r="T385" s="4"/>
     </row>
-    <row r="386" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -12539,7 +12545,7 @@
       <c r="S386" s="4"/>
       <c r="T386" s="4"/>
     </row>
-    <row r="387" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -12561,7 +12567,7 @@
       <c r="S387" s="4"/>
       <c r="T387" s="4"/>
     </row>
-    <row r="388" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -12583,7 +12589,7 @@
       <c r="S388" s="4"/>
       <c r="T388" s="4"/>
     </row>
-    <row r="389" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -12605,7 +12611,7 @@
       <c r="S389" s="4"/>
       <c r="T389" s="4"/>
     </row>
-    <row r="390" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -12627,7 +12633,7 @@
       <c r="S390" s="4"/>
       <c r="T390" s="4"/>
     </row>
-    <row r="391" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -12649,7 +12655,7 @@
       <c r="S391" s="4"/>
       <c r="T391" s="4"/>
     </row>
-    <row r="392" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -12671,7 +12677,7 @@
       <c r="S392" s="4"/>
       <c r="T392" s="4"/>
     </row>
-    <row r="393" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -12693,7 +12699,7 @@
       <c r="S393" s="4"/>
       <c r="T393" s="4"/>
     </row>
-    <row r="394" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -12715,7 +12721,7 @@
       <c r="S394" s="4"/>
       <c r="T394" s="4"/>
     </row>
-    <row r="395" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -12737,7 +12743,7 @@
       <c r="S395" s="4"/>
       <c r="T395" s="4"/>
     </row>
-    <row r="396" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -12759,7 +12765,7 @@
       <c r="S396" s="4"/>
       <c r="T396" s="4"/>
     </row>
-    <row r="397" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -12781,7 +12787,7 @@
       <c r="S397" s="4"/>
       <c r="T397" s="4"/>
     </row>
-    <row r="398" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -12803,7 +12809,7 @@
       <c r="S398" s="4"/>
       <c r="T398" s="4"/>
     </row>
-    <row r="399" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -12825,7 +12831,7 @@
       <c r="S399" s="4"/>
       <c r="T399" s="4"/>
     </row>
-    <row r="400" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -12847,7 +12853,7 @@
       <c r="S400" s="4"/>
       <c r="T400" s="4"/>
     </row>
-    <row r="401" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -12869,7 +12875,7 @@
       <c r="S401" s="4"/>
       <c r="T401" s="4"/>
     </row>
-    <row r="402" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -12891,7 +12897,7 @@
       <c r="S402" s="4"/>
       <c r="T402" s="4"/>
     </row>
-    <row r="403" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -12913,7 +12919,7 @@
       <c r="S403" s="4"/>
       <c r="T403" s="4"/>
     </row>
-    <row r="404" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -12935,7 +12941,7 @@
       <c r="S404" s="4"/>
       <c r="T404" s="4"/>
     </row>
-    <row r="405" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -12957,7 +12963,7 @@
       <c r="S405" s="4"/>
       <c r="T405" s="4"/>
     </row>
-    <row r="406" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -12979,7 +12985,7 @@
       <c r="S406" s="4"/>
       <c r="T406" s="4"/>
     </row>
-    <row r="407" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -13001,7 +13007,7 @@
       <c r="S407" s="4"/>
       <c r="T407" s="4"/>
     </row>
-    <row r="408" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -13023,7 +13029,7 @@
       <c r="S408" s="4"/>
       <c r="T408" s="4"/>
     </row>
-    <row r="409" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -13045,7 +13051,7 @@
       <c r="S409" s="4"/>
       <c r="T409" s="4"/>
     </row>
-    <row r="410" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -13067,7 +13073,7 @@
       <c r="S410" s="4"/>
       <c r="T410" s="4"/>
     </row>
-    <row r="411" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -13089,7 +13095,7 @@
       <c r="S411" s="4"/>
       <c r="T411" s="4"/>
     </row>
-    <row r="412" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -13111,7 +13117,7 @@
       <c r="S412" s="4"/>
       <c r="T412" s="4"/>
     </row>
-    <row r="413" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -13133,7 +13139,7 @@
       <c r="S413" s="4"/>
       <c r="T413" s="4"/>
     </row>
-    <row r="414" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -13155,7 +13161,7 @@
       <c r="S414" s="4"/>
       <c r="T414" s="4"/>
     </row>
-    <row r="415" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -13177,7 +13183,7 @@
       <c r="S415" s="4"/>
       <c r="T415" s="4"/>
     </row>
-    <row r="416" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -13199,7 +13205,7 @@
       <c r="S416" s="4"/>
       <c r="T416" s="4"/>
     </row>
-    <row r="417" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -13221,7 +13227,7 @@
       <c r="S417" s="4"/>
       <c r="T417" s="4"/>
     </row>
-    <row r="418" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -13243,7 +13249,7 @@
       <c r="S418" s="4"/>
       <c r="T418" s="4"/>
     </row>
-    <row r="419" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -13265,7 +13271,7 @@
       <c r="S419" s="4"/>
       <c r="T419" s="4"/>
     </row>
-    <row r="420" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -13287,7 +13293,7 @@
       <c r="S420" s="4"/>
       <c r="T420" s="4"/>
     </row>
-    <row r="421" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -13309,7 +13315,7 @@
       <c r="S421" s="4"/>
       <c r="T421" s="4"/>
     </row>
-    <row r="422" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -13331,7 +13337,7 @@
       <c r="S422" s="4"/>
       <c r="T422" s="4"/>
     </row>
-    <row r="423" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -13353,7 +13359,7 @@
       <c r="S423" s="4"/>
       <c r="T423" s="4"/>
     </row>
-    <row r="424" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -13375,7 +13381,7 @@
       <c r="S424" s="4"/>
       <c r="T424" s="4"/>
     </row>
-    <row r="425" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -13397,7 +13403,7 @@
       <c r="S425" s="4"/>
       <c r="T425" s="4"/>
     </row>
-    <row r="426" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -13419,7 +13425,7 @@
       <c r="S426" s="4"/>
       <c r="T426" s="4"/>
     </row>
-    <row r="427" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -13441,7 +13447,7 @@
       <c r="S427" s="4"/>
       <c r="T427" s="4"/>
     </row>
-    <row r="428" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -13463,7 +13469,7 @@
       <c r="S428" s="4"/>
       <c r="T428" s="4"/>
     </row>
-    <row r="429" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -13485,7 +13491,7 @@
       <c r="S429" s="4"/>
       <c r="T429" s="4"/>
     </row>
-    <row r="430" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -13507,7 +13513,7 @@
       <c r="S430" s="4"/>
       <c r="T430" s="4"/>
     </row>
-    <row r="431" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -13529,7 +13535,7 @@
       <c r="S431" s="4"/>
       <c r="T431" s="4"/>
     </row>
-    <row r="432" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -13551,7 +13557,7 @@
       <c r="S432" s="4"/>
       <c r="T432" s="4"/>
     </row>
-    <row r="433" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -13573,7 +13579,7 @@
       <c r="S433" s="4"/>
       <c r="T433" s="4"/>
     </row>
-    <row r="434" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -13595,7 +13601,7 @@
       <c r="S434" s="4"/>
       <c r="T434" s="4"/>
     </row>
-    <row r="435" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -13617,7 +13623,7 @@
       <c r="S435" s="4"/>
       <c r="T435" s="4"/>
     </row>
-    <row r="436" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -13639,7 +13645,7 @@
       <c r="S436" s="4"/>
       <c r="T436" s="4"/>
     </row>
-    <row r="437" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -13661,7 +13667,7 @@
       <c r="S437" s="4"/>
       <c r="T437" s="4"/>
     </row>
-    <row r="438" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -13683,7 +13689,7 @@
       <c r="S438" s="4"/>
       <c r="T438" s="4"/>
     </row>
-    <row r="439" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -13705,7 +13711,7 @@
       <c r="S439" s="4"/>
       <c r="T439" s="4"/>
     </row>
-    <row r="440" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -13727,7 +13733,7 @@
       <c r="S440" s="4"/>
       <c r="T440" s="4"/>
     </row>
-    <row r="441" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -13749,7 +13755,7 @@
       <c r="S441" s="4"/>
       <c r="T441" s="4"/>
     </row>
-    <row r="442" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -13771,7 +13777,7 @@
       <c r="S442" s="4"/>
       <c r="T442" s="4"/>
     </row>
-    <row r="443" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -13793,7 +13799,7 @@
       <c r="S443" s="4"/>
       <c r="T443" s="4"/>
     </row>
-    <row r="444" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -13815,7 +13821,7 @@
       <c r="S444" s="4"/>
       <c r="T444" s="4"/>
     </row>
-    <row r="445" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -13837,7 +13843,7 @@
       <c r="S445" s="4"/>
       <c r="T445" s="4"/>
     </row>
-    <row r="446" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -13859,7 +13865,7 @@
       <c r="S446" s="4"/>
       <c r="T446" s="4"/>
     </row>
-    <row r="447" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -13881,7 +13887,7 @@
       <c r="S447" s="4"/>
       <c r="T447" s="4"/>
     </row>
-    <row r="448" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -13903,7 +13909,7 @@
       <c r="S448" s="4"/>
       <c r="T448" s="4"/>
     </row>
-    <row r="449" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -13925,7 +13931,7 @@
       <c r="S449" s="4"/>
       <c r="T449" s="4"/>
     </row>
-    <row r="450" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -13947,7 +13953,7 @@
       <c r="S450" s="4"/>
       <c r="T450" s="4"/>
     </row>
-    <row r="451" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -13969,7 +13975,7 @@
       <c r="S451" s="4"/>
       <c r="T451" s="4"/>
     </row>
-    <row r="452" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -13991,7 +13997,7 @@
       <c r="S452" s="4"/>
       <c r="T452" s="4"/>
     </row>
-    <row r="453" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -14013,7 +14019,7 @@
       <c r="S453" s="4"/>
       <c r="T453" s="4"/>
     </row>
-    <row r="454" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -14035,7 +14041,7 @@
       <c r="S454" s="4"/>
       <c r="T454" s="4"/>
     </row>
-    <row r="455" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -14057,7 +14063,7 @@
       <c r="S455" s="4"/>
       <c r="T455" s="4"/>
     </row>
-    <row r="456" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -14079,7 +14085,7 @@
       <c r="S456" s="4"/>
       <c r="T456" s="4"/>
     </row>
-    <row r="457" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -14101,7 +14107,7 @@
       <c r="S457" s="4"/>
       <c r="T457" s="4"/>
     </row>
-    <row r="458" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -14123,7 +14129,7 @@
       <c r="S458" s="4"/>
       <c r="T458" s="4"/>
     </row>
-    <row r="459" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -14145,7 +14151,7 @@
       <c r="S459" s="4"/>
       <c r="T459" s="4"/>
     </row>
-    <row r="460" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -14167,7 +14173,7 @@
       <c r="S460" s="4"/>
       <c r="T460" s="4"/>
     </row>
-    <row r="461" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -14189,7 +14195,7 @@
       <c r="S461" s="4"/>
       <c r="T461" s="4"/>
     </row>
-    <row r="462" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -14211,7 +14217,7 @@
       <c r="S462" s="4"/>
       <c r="T462" s="4"/>
     </row>
-    <row r="463" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -14233,7 +14239,7 @@
       <c r="S463" s="4"/>
       <c r="T463" s="4"/>
     </row>
-    <row r="464" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -14255,7 +14261,7 @@
       <c r="S464" s="4"/>
       <c r="T464" s="4"/>
     </row>
-    <row r="465" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -14277,7 +14283,7 @@
       <c r="S465" s="4"/>
       <c r="T465" s="4"/>
     </row>
-    <row r="466" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -14299,7 +14305,7 @@
       <c r="S466" s="4"/>
       <c r="T466" s="4"/>
     </row>
-    <row r="467" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -14321,7 +14327,7 @@
       <c r="S467" s="4"/>
       <c r="T467" s="4"/>
     </row>
-    <row r="468" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -14343,7 +14349,7 @@
       <c r="S468" s="4"/>
       <c r="T468" s="4"/>
     </row>
-    <row r="469" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -14365,7 +14371,7 @@
       <c r="S469" s="4"/>
       <c r="T469" s="4"/>
     </row>
-    <row r="470" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -14387,7 +14393,7 @@
       <c r="S470" s="4"/>
       <c r="T470" s="4"/>
     </row>
-    <row r="471" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -14409,7 +14415,7 @@
       <c r="S471" s="4"/>
       <c r="T471" s="4"/>
     </row>
-    <row r="472" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -14431,7 +14437,7 @@
       <c r="S472" s="4"/>
       <c r="T472" s="4"/>
     </row>
-    <row r="473" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -14453,7 +14459,7 @@
       <c r="S473" s="4"/>
       <c r="T473" s="4"/>
     </row>
-    <row r="474" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -14475,7 +14481,7 @@
       <c r="S474" s="4"/>
       <c r="T474" s="4"/>
     </row>
-    <row r="475" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -14497,7 +14503,7 @@
       <c r="S475" s="4"/>
       <c r="T475" s="4"/>
     </row>
-    <row r="476" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -14519,7 +14525,7 @@
       <c r="S476" s="4"/>
       <c r="T476" s="4"/>
     </row>
-    <row r="477" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -14541,7 +14547,7 @@
       <c r="S477" s="4"/>
       <c r="T477" s="4"/>
     </row>
-    <row r="478" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -14563,7 +14569,7 @@
       <c r="S478" s="4"/>
       <c r="T478" s="4"/>
     </row>
-    <row r="479" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -14585,7 +14591,7 @@
       <c r="S479" s="4"/>
       <c r="T479" s="4"/>
     </row>
-    <row r="480" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -14607,7 +14613,7 @@
       <c r="S480" s="4"/>
       <c r="T480" s="4"/>
     </row>
-    <row r="481" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -14629,7 +14635,7 @@
       <c r="S481" s="4"/>
       <c r="T481" s="4"/>
     </row>
-    <row r="482" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -14651,7 +14657,7 @@
       <c r="S482" s="4"/>
       <c r="T482" s="4"/>
     </row>
-    <row r="483" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -14673,7 +14679,7 @@
       <c r="S483" s="4"/>
       <c r="T483" s="4"/>
     </row>
-    <row r="484" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -14695,7 +14701,7 @@
       <c r="S484" s="4"/>
       <c r="T484" s="4"/>
     </row>
-    <row r="485" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -14717,7 +14723,7 @@
       <c r="S485" s="4"/>
       <c r="T485" s="4"/>
     </row>
-    <row r="486" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -14739,7 +14745,7 @@
       <c r="S486" s="4"/>
       <c r="T486" s="4"/>
     </row>
-    <row r="487" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -14761,7 +14767,7 @@
       <c r="S487" s="4"/>
       <c r="T487" s="4"/>
     </row>
-    <row r="488" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -14783,7 +14789,7 @@
       <c r="S488" s="4"/>
       <c r="T488" s="4"/>
     </row>
-    <row r="489" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -14805,7 +14811,7 @@
       <c r="S489" s="4"/>
       <c r="T489" s="4"/>
     </row>
-    <row r="490" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -14827,7 +14833,7 @@
       <c r="S490" s="4"/>
       <c r="T490" s="4"/>
     </row>
-    <row r="491" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -14849,7 +14855,7 @@
       <c r="S491" s="4"/>
       <c r="T491" s="4"/>
     </row>
-    <row r="492" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -14871,7 +14877,7 @@
       <c r="S492" s="4"/>
       <c r="T492" s="4"/>
     </row>
-    <row r="493" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -14893,7 +14899,7 @@
       <c r="S493" s="4"/>
       <c r="T493" s="4"/>
     </row>
-    <row r="494" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -14915,7 +14921,7 @@
       <c r="S494" s="4"/>
       <c r="T494" s="4"/>
     </row>
-    <row r="495" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -14937,7 +14943,7 @@
       <c r="S495" s="4"/>
       <c r="T495" s="4"/>
     </row>
-    <row r="496" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -14959,7 +14965,7 @@
       <c r="S496" s="4"/>
       <c r="T496" s="4"/>
     </row>
-    <row r="497" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -14981,7 +14987,7 @@
       <c r="S497" s="4"/>
       <c r="T497" s="4"/>
     </row>
-    <row r="498" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -15003,7 +15009,7 @@
       <c r="S498" s="4"/>
       <c r="T498" s="4"/>
     </row>
-    <row r="499" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -15025,7 +15031,7 @@
       <c r="S499" s="4"/>
       <c r="T499" s="4"/>
     </row>
-    <row r="500" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -15047,7 +15053,7 @@
       <c r="S500" s="4"/>
       <c r="T500" s="4"/>
     </row>
-    <row r="501" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -15069,7 +15075,7 @@
       <c r="S501" s="4"/>
       <c r="T501" s="4"/>
     </row>
-    <row r="502" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -15091,7 +15097,7 @@
       <c r="S502" s="4"/>
       <c r="T502" s="4"/>
     </row>
-    <row r="503" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -15113,7 +15119,7 @@
       <c r="S503" s="4"/>
       <c r="T503" s="4"/>
     </row>
-    <row r="504" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -15135,7 +15141,7 @@
       <c r="S504" s="4"/>
       <c r="T504" s="4"/>
     </row>
-    <row r="505" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -15157,7 +15163,7 @@
       <c r="S505" s="4"/>
       <c r="T505" s="4"/>
     </row>
-    <row r="506" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -15179,7 +15185,7 @@
       <c r="S506" s="4"/>
       <c r="T506" s="4"/>
     </row>
-    <row r="507" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -15201,7 +15207,7 @@
       <c r="S507" s="4"/>
       <c r="T507" s="4"/>
     </row>
-    <row r="508" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -15223,7 +15229,7 @@
       <c r="S508" s="4"/>
       <c r="T508" s="4"/>
     </row>
-    <row r="509" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -15245,7 +15251,7 @@
       <c r="S509" s="4"/>
       <c r="T509" s="4"/>
     </row>
-    <row r="510" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -15267,7 +15273,7 @@
       <c r="S510" s="4"/>
       <c r="T510" s="4"/>
     </row>
-    <row r="511" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -15289,7 +15295,7 @@
       <c r="S511" s="4"/>
       <c r="T511" s="4"/>
     </row>
-    <row r="512" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -15311,7 +15317,7 @@
       <c r="S512" s="4"/>
       <c r="T512" s="4"/>
     </row>
-    <row r="513" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -15333,7 +15339,7 @@
       <c r="S513" s="4"/>
       <c r="T513" s="4"/>
     </row>
-    <row r="514" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -15355,7 +15361,7 @@
       <c r="S514" s="4"/>
       <c r="T514" s="4"/>
     </row>
-    <row r="515" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -15377,7 +15383,7 @@
       <c r="S515" s="4"/>
       <c r="T515" s="4"/>
     </row>
-    <row r="516" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -15399,7 +15405,7 @@
       <c r="S516" s="4"/>
       <c r="T516" s="4"/>
     </row>
-    <row r="517" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -15421,7 +15427,7 @@
       <c r="S517" s="4"/>
       <c r="T517" s="4"/>
     </row>
-    <row r="518" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -15443,7 +15449,7 @@
       <c r="S518" s="4"/>
       <c r="T518" s="4"/>
     </row>
-    <row r="519" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -15465,7 +15471,7 @@
       <c r="S519" s="4"/>
       <c r="T519" s="4"/>
     </row>
-    <row r="520" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -15487,7 +15493,7 @@
       <c r="S520" s="4"/>
       <c r="T520" s="4"/>
     </row>
-    <row r="521" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -15509,7 +15515,7 @@
       <c r="S521" s="4"/>
       <c r="T521" s="4"/>
     </row>
-    <row r="522" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -15531,7 +15537,7 @@
       <c r="S522" s="4"/>
       <c r="T522" s="4"/>
     </row>
-    <row r="523" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -15553,7 +15559,7 @@
       <c r="S523" s="4"/>
       <c r="T523" s="4"/>
     </row>
-    <row r="524" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -15575,7 +15581,7 @@
       <c r="S524" s="4"/>
       <c r="T524" s="4"/>
     </row>
-    <row r="525" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -15597,7 +15603,7 @@
       <c r="S525" s="4"/>
       <c r="T525" s="4"/>
     </row>
-    <row r="526" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -15619,7 +15625,7 @@
       <c r="S526" s="4"/>
       <c r="T526" s="4"/>
     </row>
-    <row r="527" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -15641,7 +15647,7 @@
       <c r="S527" s="4"/>
       <c r="T527" s="4"/>
     </row>
-    <row r="528" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -15663,7 +15669,7 @@
       <c r="S528" s="4"/>
       <c r="T528" s="4"/>
     </row>
-    <row r="529" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -15685,7 +15691,7 @@
       <c r="S529" s="4"/>
       <c r="T529" s="4"/>
     </row>
-    <row r="530" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -15707,7 +15713,7 @@
       <c r="S530" s="4"/>
       <c r="T530" s="4"/>
     </row>
-    <row r="531" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -15729,7 +15735,7 @@
       <c r="S531" s="4"/>
       <c r="T531" s="4"/>
     </row>
-    <row r="532" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -15751,7 +15757,7 @@
       <c r="S532" s="4"/>
       <c r="T532" s="4"/>
     </row>
-    <row r="533" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -15773,7 +15779,7 @@
       <c r="S533" s="4"/>
       <c r="T533" s="4"/>
     </row>
-    <row r="534" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -15795,7 +15801,7 @@
       <c r="S534" s="4"/>
       <c r="T534" s="4"/>
     </row>
-    <row r="535" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -15817,7 +15823,7 @@
       <c r="S535" s="4"/>
       <c r="T535" s="4"/>
     </row>
-    <row r="536" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -15839,7 +15845,7 @@
       <c r="S536" s="4"/>
       <c r="T536" s="4"/>
     </row>
-    <row r="537" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -15861,7 +15867,7 @@
       <c r="S537" s="4"/>
       <c r="T537" s="4"/>
     </row>
-    <row r="538" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -15883,7 +15889,7 @@
       <c r="S538" s="4"/>
       <c r="T538" s="4"/>
     </row>
-    <row r="539" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -15905,7 +15911,7 @@
       <c r="S539" s="4"/>
       <c r="T539" s="4"/>
     </row>
-    <row r="540" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -15927,7 +15933,7 @@
       <c r="S540" s="4"/>
       <c r="T540" s="4"/>
     </row>
-    <row r="541" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -15949,7 +15955,7 @@
       <c r="S541" s="4"/>
       <c r="T541" s="4"/>
     </row>
-    <row r="542" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -15971,7 +15977,7 @@
       <c r="S542" s="4"/>
       <c r="T542" s="4"/>
     </row>
-    <row r="543" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -15993,7 +15999,7 @@
       <c r="S543" s="4"/>
       <c r="T543" s="4"/>
     </row>
-    <row r="544" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -16015,7 +16021,7 @@
       <c r="S544" s="4"/>
       <c r="T544" s="4"/>
     </row>
-    <row r="545" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -16037,7 +16043,7 @@
       <c r="S545" s="4"/>
       <c r="T545" s="4"/>
     </row>
-    <row r="546" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -16059,7 +16065,7 @@
       <c r="S546" s="4"/>
       <c r="T546" s="4"/>
     </row>
-    <row r="547" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -16081,7 +16087,7 @@
       <c r="S547" s="4"/>
       <c r="T547" s="4"/>
     </row>
-    <row r="548" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -16103,7 +16109,7 @@
       <c r="S548" s="4"/>
       <c r="T548" s="4"/>
     </row>
-    <row r="549" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -16125,7 +16131,7 @@
       <c r="S549" s="4"/>
       <c r="T549" s="4"/>
     </row>
-    <row r="550" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -16147,7 +16153,7 @@
       <c r="S550" s="4"/>
       <c r="T550" s="4"/>
     </row>
-    <row r="551" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -16169,7 +16175,7 @@
       <c r="S551" s="4"/>
       <c r="T551" s="4"/>
     </row>
-    <row r="552" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -16191,7 +16197,7 @@
       <c r="S552" s="4"/>
       <c r="T552" s="4"/>
     </row>
-    <row r="553" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -16213,7 +16219,7 @@
       <c r="S553" s="4"/>
       <c r="T553" s="4"/>
     </row>
-    <row r="554" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -16235,7 +16241,7 @@
       <c r="S554" s="4"/>
       <c r="T554" s="4"/>
     </row>
-    <row r="555" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -16257,7 +16263,7 @@
       <c r="S555" s="4"/>
       <c r="T555" s="4"/>
     </row>
-    <row r="556" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -16279,7 +16285,7 @@
       <c r="S556" s="4"/>
       <c r="T556" s="4"/>
     </row>
-    <row r="557" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -16301,7 +16307,7 @@
       <c r="S557" s="4"/>
       <c r="T557" s="4"/>
     </row>
-    <row r="558" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -16323,7 +16329,7 @@
       <c r="S558" s="4"/>
       <c r="T558" s="4"/>
     </row>
-    <row r="559" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -16345,7 +16351,7 @@
       <c r="S559" s="4"/>
       <c r="T559" s="4"/>
     </row>
-    <row r="560" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -16367,7 +16373,7 @@
       <c r="S560" s="4"/>
       <c r="T560" s="4"/>
     </row>
-    <row r="561" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -16389,7 +16395,7 @@
       <c r="S561" s="4"/>
       <c r="T561" s="4"/>
     </row>
-    <row r="562" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -16411,7 +16417,7 @@
       <c r="S562" s="4"/>
       <c r="T562" s="4"/>
     </row>
-    <row r="563" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -16433,7 +16439,7 @@
       <c r="S563" s="4"/>
       <c r="T563" s="4"/>
     </row>
-    <row r="564" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -16455,7 +16461,7 @@
       <c r="S564" s="4"/>
       <c r="T564" s="4"/>
     </row>
-    <row r="565" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -16477,7 +16483,7 @@
       <c r="S565" s="4"/>
       <c r="T565" s="4"/>
     </row>
-    <row r="566" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -16499,7 +16505,7 @@
       <c r="S566" s="4"/>
       <c r="T566" s="4"/>
     </row>
-    <row r="567" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -16521,7 +16527,7 @@
       <c r="S567" s="4"/>
       <c r="T567" s="4"/>
     </row>
-    <row r="568" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -16543,7 +16549,7 @@
       <c r="S568" s="4"/>
       <c r="T568" s="4"/>
     </row>
-    <row r="569" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -16565,7 +16571,7 @@
       <c r="S569" s="4"/>
       <c r="T569" s="4"/>
     </row>
-    <row r="570" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -16587,7 +16593,7 @@
       <c r="S570" s="4"/>
       <c r="T570" s="4"/>
     </row>
-    <row r="571" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -16609,7 +16615,7 @@
       <c r="S571" s="4"/>
       <c r="T571" s="4"/>
     </row>
-    <row r="572" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -16631,7 +16637,7 @@
       <c r="S572" s="4"/>
       <c r="T572" s="4"/>
     </row>
-    <row r="573" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -16653,7 +16659,7 @@
       <c r="S573" s="4"/>
       <c r="T573" s="4"/>
     </row>
-    <row r="574" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -16675,7 +16681,7 @@
       <c r="S574" s="4"/>
       <c r="T574" s="4"/>
     </row>
-    <row r="575" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -16697,7 +16703,7 @@
       <c r="S575" s="4"/>
       <c r="T575" s="4"/>
     </row>
-    <row r="576" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -16719,7 +16725,7 @@
       <c r="S576" s="4"/>
       <c r="T576" s="4"/>
     </row>
-    <row r="577" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -16741,7 +16747,7 @@
       <c r="S577" s="4"/>
       <c r="T577" s="4"/>
     </row>
-    <row r="578" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -16763,7 +16769,7 @@
       <c r="S578" s="4"/>
       <c r="T578" s="4"/>
     </row>
-    <row r="579" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -16785,7 +16791,7 @@
       <c r="S579" s="4"/>
       <c r="T579" s="4"/>
     </row>
-    <row r="580" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -16807,7 +16813,7 @@
       <c r="S580" s="4"/>
       <c r="T580" s="4"/>
     </row>
-    <row r="581" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -16829,7 +16835,7 @@
       <c r="S581" s="4"/>
       <c r="T581" s="4"/>
     </row>
-    <row r="582" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -16851,7 +16857,7 @@
       <c r="S582" s="4"/>
       <c r="T582" s="4"/>
     </row>
-    <row r="583" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -16873,7 +16879,7 @@
       <c r="S583" s="4"/>
       <c r="T583" s="4"/>
     </row>
-    <row r="584" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -16895,7 +16901,7 @@
       <c r="S584" s="4"/>
       <c r="T584" s="4"/>
     </row>
-    <row r="585" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -16917,7 +16923,7 @@
       <c r="S585" s="4"/>
       <c r="T585" s="4"/>
     </row>
-    <row r="586" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -16939,7 +16945,7 @@
       <c r="S586" s="4"/>
       <c r="T586" s="4"/>
     </row>
-    <row r="587" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -16961,7 +16967,7 @@
       <c r="S587" s="4"/>
       <c r="T587" s="4"/>
     </row>
-    <row r="588" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -16983,7 +16989,7 @@
       <c r="S588" s="4"/>
       <c r="T588" s="4"/>
     </row>
-    <row r="589" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -17005,7 +17011,7 @@
       <c r="S589" s="4"/>
       <c r="T589" s="4"/>
     </row>
-    <row r="590" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -17027,7 +17033,7 @@
       <c r="S590" s="4"/>
       <c r="T590" s="4"/>
     </row>
-    <row r="591" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -17049,7 +17055,7 @@
       <c r="S591" s="4"/>
       <c r="T591" s="4"/>
     </row>
-    <row r="592" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -17071,7 +17077,7 @@
       <c r="S592" s="4"/>
       <c r="T592" s="4"/>
     </row>
-    <row r="593" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -17093,7 +17099,7 @@
       <c r="S593" s="4"/>
       <c r="T593" s="4"/>
     </row>
-    <row r="594" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -17115,7 +17121,7 @@
       <c r="S594" s="4"/>
       <c r="T594" s="4"/>
     </row>
-    <row r="595" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -17137,7 +17143,7 @@
       <c r="S595" s="4"/>
       <c r="T595" s="4"/>
     </row>
-    <row r="596" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -17159,7 +17165,7 @@
       <c r="S596" s="4"/>
       <c r="T596" s="4"/>
     </row>
-    <row r="597" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -17181,7 +17187,7 @@
       <c r="S597" s="4"/>
       <c r="T597" s="4"/>
     </row>
-    <row r="598" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -17203,7 +17209,7 @@
       <c r="S598" s="4"/>
       <c r="T598" s="4"/>
     </row>
-    <row r="599" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -17225,7 +17231,7 @@
       <c r="S599" s="4"/>
       <c r="T599" s="4"/>
     </row>
-    <row r="600" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -17247,7 +17253,7 @@
       <c r="S600" s="4"/>
       <c r="T600" s="4"/>
     </row>
-    <row r="601" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -17269,7 +17275,7 @@
       <c r="S601" s="4"/>
       <c r="T601" s="4"/>
     </row>
-    <row r="602" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -17291,7 +17297,7 @@
       <c r="S602" s="4"/>
       <c r="T602" s="4"/>
     </row>
-    <row r="603" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -17313,7 +17319,7 @@
       <c r="S603" s="4"/>
       <c r="T603" s="4"/>
     </row>
-    <row r="604" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -17335,7 +17341,7 @@
       <c r="S604" s="4"/>
       <c r="T604" s="4"/>
     </row>
-    <row r="605" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -17357,7 +17363,7 @@
       <c r="S605" s="4"/>
       <c r="T605" s="4"/>
     </row>
-    <row r="606" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -17379,7 +17385,7 @@
       <c r="S606" s="4"/>
       <c r="T606" s="4"/>
     </row>
-    <row r="607" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -17401,7 +17407,7 @@
       <c r="S607" s="4"/>
       <c r="T607" s="4"/>
     </row>
-    <row r="608" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -17423,7 +17429,7 @@
       <c r="S608" s="4"/>
       <c r="T608" s="4"/>
     </row>
-    <row r="609" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -17445,7 +17451,7 @@
       <c r="S609" s="4"/>
       <c r="T609" s="4"/>
     </row>
-    <row r="610" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -17467,7 +17473,7 @@
       <c r="S610" s="4"/>
       <c r="T610" s="4"/>
     </row>
-    <row r="611" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -17489,7 +17495,7 @@
       <c r="S611" s="4"/>
       <c r="T611" s="4"/>
     </row>
-    <row r="612" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
@@ -17511,7 +17517,7 @@
       <c r="S612" s="4"/>
       <c r="T612" s="4"/>
     </row>
-    <row r="613" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -17533,7 +17539,7 @@
       <c r="S613" s="4"/>
       <c r="T613" s="4"/>
     </row>
-    <row r="614" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -17555,7 +17561,7 @@
       <c r="S614" s="4"/>
       <c r="T614" s="4"/>
     </row>
-    <row r="615" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -17577,7 +17583,7 @@
       <c r="S615" s="4"/>
       <c r="T615" s="4"/>
     </row>
-    <row r="616" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -17599,7 +17605,7 @@
       <c r="S616" s="4"/>
       <c r="T616" s="4"/>
     </row>
-    <row r="617" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -17621,7 +17627,7 @@
       <c r="S617" s="4"/>
       <c r="T617" s="4"/>
     </row>
-    <row r="618" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -17643,7 +17649,7 @@
       <c r="S618" s="4"/>
       <c r="T618" s="4"/>
     </row>
-    <row r="619" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -17665,7 +17671,7 @@
       <c r="S619" s="4"/>
       <c r="T619" s="4"/>
     </row>
-    <row r="620" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
@@ -17687,7 +17693,7 @@
       <c r="S620" s="4"/>
       <c r="T620" s="4"/>
     </row>
-    <row r="621" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -17709,7 +17715,7 @@
       <c r="S621" s="4"/>
       <c r="T621" s="4"/>
     </row>
-    <row r="622" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -17731,7 +17737,7 @@
       <c r="S622" s="4"/>
       <c r="T622" s="4"/>
     </row>
-    <row r="623" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -17753,7 +17759,7 @@
       <c r="S623" s="4"/>
       <c r="T623" s="4"/>
     </row>
-    <row r="624" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -17775,7 +17781,7 @@
       <c r="S624" s="4"/>
       <c r="T624" s="4"/>
     </row>
-    <row r="625" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -17797,7 +17803,7 @@
       <c r="S625" s="4"/>
       <c r="T625" s="4"/>
     </row>
-    <row r="626" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
@@ -17819,7 +17825,7 @@
       <c r="S626" s="4"/>
       <c r="T626" s="4"/>
     </row>
-    <row r="627" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
@@ -17841,7 +17847,7 @@
       <c r="S627" s="4"/>
       <c r="T627" s="4"/>
     </row>
-    <row r="628" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
@@ -17863,7 +17869,7 @@
       <c r="S628" s="4"/>
       <c r="T628" s="4"/>
     </row>
-    <row r="629" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
@@ -17885,7 +17891,7 @@
       <c r="S629" s="4"/>
       <c r="T629" s="4"/>
     </row>
-    <row r="630" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
@@ -17907,7 +17913,7 @@
       <c r="S630" s="4"/>
       <c r="T630" s="4"/>
     </row>
-    <row r="631" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
@@ -17929,7 +17935,7 @@
       <c r="S631" s="4"/>
       <c r="T631" s="4"/>
     </row>
-    <row r="632" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
@@ -17951,7 +17957,7 @@
       <c r="S632" s="4"/>
       <c r="T632" s="4"/>
     </row>
-    <row r="633" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
@@ -17973,7 +17979,7 @@
       <c r="S633" s="4"/>
       <c r="T633" s="4"/>
     </row>
-    <row r="634" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
@@ -17995,7 +18001,7 @@
       <c r="S634" s="4"/>
       <c r="T634" s="4"/>
     </row>
-    <row r="635" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
@@ -18017,7 +18023,7 @@
       <c r="S635" s="4"/>
       <c r="T635" s="4"/>
     </row>
-    <row r="636" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
@@ -18039,7 +18045,7 @@
       <c r="S636" s="4"/>
       <c r="T636" s="4"/>
     </row>
-    <row r="637" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -18061,7 +18067,7 @@
       <c r="S637" s="4"/>
       <c r="T637" s="4"/>
     </row>
-    <row r="638" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
@@ -18083,7 +18089,7 @@
       <c r="S638" s="4"/>
       <c r="T638" s="4"/>
     </row>
-    <row r="639" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
@@ -18105,7 +18111,7 @@
       <c r="S639" s="4"/>
       <c r="T639" s="4"/>
     </row>
-    <row r="640" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -18127,7 +18133,7 @@
       <c r="S640" s="4"/>
       <c r="T640" s="4"/>
     </row>
-    <row r="641" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
@@ -18149,7 +18155,7 @@
       <c r="S641" s="4"/>
       <c r="T641" s="4"/>
     </row>
-    <row r="642" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
@@ -18171,7 +18177,7 @@
       <c r="S642" s="4"/>
       <c r="T642" s="4"/>
     </row>
-    <row r="643" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -18193,7 +18199,7 @@
       <c r="S643" s="4"/>
       <c r="T643" s="4"/>
     </row>
-    <row r="644" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -18215,7 +18221,7 @@
       <c r="S644" s="4"/>
       <c r="T644" s="4"/>
     </row>
-    <row r="645" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
@@ -18237,7 +18243,7 @@
       <c r="S645" s="4"/>
       <c r="T645" s="4"/>
     </row>
-    <row r="646" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -18259,7 +18265,7 @@
       <c r="S646" s="4"/>
       <c r="T646" s="4"/>
     </row>
-    <row r="647" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
@@ -18281,7 +18287,7 @@
       <c r="S647" s="4"/>
       <c r="T647" s="4"/>
     </row>
-    <row r="648" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
@@ -18303,7 +18309,7 @@
       <c r="S648" s="4"/>
       <c r="T648" s="4"/>
     </row>
-    <row r="649" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -18325,7 +18331,7 @@
       <c r="S649" s="4"/>
       <c r="T649" s="4"/>
     </row>
-    <row r="650" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
@@ -18347,7 +18353,7 @@
       <c r="S650" s="4"/>
       <c r="T650" s="4"/>
     </row>
-    <row r="651" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
@@ -18369,7 +18375,7 @@
       <c r="S651" s="4"/>
       <c r="T651" s="4"/>
     </row>
-    <row r="652" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
@@ -18391,7 +18397,7 @@
       <c r="S652" s="4"/>
       <c r="T652" s="4"/>
     </row>
-    <row r="653" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
@@ -18413,7 +18419,7 @@
       <c r="S653" s="4"/>
       <c r="T653" s="4"/>
     </row>
-    <row r="654" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
@@ -18435,7 +18441,7 @@
       <c r="S654" s="4"/>
       <c r="T654" s="4"/>
     </row>
-    <row r="655" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
@@ -18457,7 +18463,7 @@
       <c r="S655" s="4"/>
       <c r="T655" s="4"/>
     </row>
-    <row r="656" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
@@ -18479,7 +18485,7 @@
       <c r="S656" s="4"/>
       <c r="T656" s="4"/>
     </row>
-    <row r="657" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
@@ -18501,7 +18507,7 @@
       <c r="S657" s="4"/>
       <c r="T657" s="4"/>
     </row>
-    <row r="658" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
@@ -18523,7 +18529,7 @@
       <c r="S658" s="4"/>
       <c r="T658" s="4"/>
     </row>
-    <row r="659" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
@@ -18545,7 +18551,7 @@
       <c r="S659" s="4"/>
       <c r="T659" s="4"/>
     </row>
-    <row r="660" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
@@ -18567,7 +18573,7 @@
       <c r="S660" s="4"/>
       <c r="T660" s="4"/>
     </row>
-    <row r="661" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
@@ -18589,7 +18595,7 @@
       <c r="S661" s="4"/>
       <c r="T661" s="4"/>
     </row>
-    <row r="662" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
@@ -18611,7 +18617,7 @@
       <c r="S662" s="4"/>
       <c r="T662" s="4"/>
     </row>
-    <row r="663" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
@@ -18633,7 +18639,7 @@
       <c r="S663" s="4"/>
       <c r="T663" s="4"/>
     </row>
-    <row r="664" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
@@ -18655,7 +18661,7 @@
       <c r="S664" s="4"/>
       <c r="T664" s="4"/>
     </row>
-    <row r="665" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
@@ -18677,7 +18683,7 @@
       <c r="S665" s="4"/>
       <c r="T665" s="4"/>
     </row>
-    <row r="666" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -18699,7 +18705,7 @@
       <c r="S666" s="4"/>
       <c r="T666" s="4"/>
     </row>
-    <row r="667" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
@@ -18721,7 +18727,7 @@
       <c r="S667" s="4"/>
       <c r="T667" s="4"/>
     </row>
-    <row r="668" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
@@ -18743,7 +18749,7 @@
       <c r="S668" s="4"/>
       <c r="T668" s="4"/>
     </row>
-    <row r="669" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
@@ -18765,7 +18771,7 @@
       <c r="S669" s="4"/>
       <c r="T669" s="4"/>
     </row>
-    <row r="670" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
@@ -18787,7 +18793,7 @@
       <c r="S670" s="4"/>
       <c r="T670" s="4"/>
     </row>
-    <row r="671" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -18809,7 +18815,7 @@
       <c r="S671" s="4"/>
       <c r="T671" s="4"/>
     </row>
-    <row r="672" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
@@ -18831,7 +18837,7 @@
       <c r="S672" s="4"/>
       <c r="T672" s="4"/>
     </row>
-    <row r="673" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -18853,7 +18859,7 @@
       <c r="S673" s="4"/>
       <c r="T673" s="4"/>
     </row>
-    <row r="674" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
@@ -18875,7 +18881,7 @@
       <c r="S674" s="4"/>
       <c r="T674" s="4"/>
     </row>
-    <row r="675" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
@@ -18897,7 +18903,7 @@
       <c r="S675" s="4"/>
       <c r="T675" s="4"/>
     </row>
-    <row r="676" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -18919,7 +18925,7 @@
       <c r="S676" s="4"/>
       <c r="T676" s="4"/>
     </row>
-    <row r="677" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
@@ -18941,7 +18947,7 @@
       <c r="S677" s="4"/>
       <c r="T677" s="4"/>
     </row>
-    <row r="678" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
@@ -18963,7 +18969,7 @@
       <c r="S678" s="4"/>
       <c r="T678" s="4"/>
     </row>
-    <row r="679" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
@@ -18985,7 +18991,7 @@
       <c r="S679" s="4"/>
       <c r="T679" s="4"/>
     </row>
-    <row r="680" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
@@ -19007,7 +19013,7 @@
       <c r="S680" s="4"/>
       <c r="T680" s="4"/>
     </row>
-    <row r="681" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
@@ -19029,7 +19035,7 @@
       <c r="S681" s="4"/>
       <c r="T681" s="4"/>
     </row>
-    <row r="682" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -19051,7 +19057,7 @@
       <c r="S682" s="4"/>
       <c r="T682" s="4"/>
     </row>
-    <row r="683" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
@@ -19073,7 +19079,7 @@
       <c r="S683" s="4"/>
       <c r="T683" s="4"/>
     </row>
-    <row r="684" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
@@ -19095,7 +19101,7 @@
       <c r="S684" s="4"/>
       <c r="T684" s="4"/>
     </row>
-    <row r="685" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -19117,7 +19123,7 @@
       <c r="S685" s="4"/>
       <c r="T685" s="4"/>
     </row>
-    <row r="686" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
@@ -19139,7 +19145,7 @@
       <c r="S686" s="4"/>
       <c r="T686" s="4"/>
     </row>
-    <row r="687" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
@@ -19161,7 +19167,7 @@
       <c r="S687" s="4"/>
       <c r="T687" s="4"/>
     </row>
-    <row r="688" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -19183,7 +19189,7 @@
       <c r="S688" s="4"/>
       <c r="T688" s="4"/>
     </row>
-    <row r="689" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
@@ -19205,7 +19211,7 @@
       <c r="S689" s="4"/>
       <c r="T689" s="4"/>
     </row>
-    <row r="690" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
@@ -19227,7 +19233,7 @@
       <c r="S690" s="4"/>
       <c r="T690" s="4"/>
     </row>
-    <row r="691" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -19249,7 +19255,7 @@
       <c r="S691" s="4"/>
       <c r="T691" s="4"/>
     </row>
-    <row r="692" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
@@ -19271,7 +19277,7 @@
       <c r="S692" s="4"/>
       <c r="T692" s="4"/>
     </row>
-    <row r="693" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
@@ -19293,7 +19299,7 @@
       <c r="S693" s="4"/>
       <c r="T693" s="4"/>
     </row>
-    <row r="694" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
@@ -19315,7 +19321,7 @@
       <c r="S694" s="4"/>
       <c r="T694" s="4"/>
     </row>
-    <row r="695" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -19337,7 +19343,7 @@
       <c r="S695" s="4"/>
       <c r="T695" s="4"/>
     </row>
-    <row r="696" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
@@ -19359,7 +19365,7 @@
       <c r="S696" s="4"/>
       <c r="T696" s="4"/>
     </row>
-    <row r="697" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -19381,7 +19387,7 @@
       <c r="S697" s="4"/>
       <c r="T697" s="4"/>
     </row>
-    <row r="698" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
@@ -19403,7 +19409,7 @@
       <c r="S698" s="4"/>
       <c r="T698" s="4"/>
     </row>
-    <row r="699" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
@@ -19425,7 +19431,7 @@
       <c r="S699" s="4"/>
       <c r="T699" s="4"/>
     </row>
-    <row r="700" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
@@ -19447,7 +19453,7 @@
       <c r="S700" s="4"/>
       <c r="T700" s="4"/>
     </row>
-    <row r="701" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
@@ -19469,7 +19475,7 @@
       <c r="S701" s="4"/>
       <c r="T701" s="4"/>
     </row>
-    <row r="702" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -19491,7 +19497,7 @@
       <c r="S702" s="4"/>
       <c r="T702" s="4"/>
     </row>
-    <row r="703" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
@@ -19513,7 +19519,7 @@
       <c r="S703" s="4"/>
       <c r="T703" s="4"/>
     </row>
-    <row r="704" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
@@ -19535,7 +19541,7 @@
       <c r="S704" s="4"/>
       <c r="T704" s="4"/>
     </row>
-    <row r="705" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -19557,7 +19563,7 @@
       <c r="S705" s="4"/>
       <c r="T705" s="4"/>
     </row>
-    <row r="706" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
@@ -19579,7 +19585,7 @@
       <c r="S706" s="4"/>
       <c r="T706" s="4"/>
     </row>
-    <row r="707" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
@@ -19601,7 +19607,7 @@
       <c r="S707" s="4"/>
       <c r="T707" s="4"/>
     </row>
-    <row r="708" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
@@ -19623,7 +19629,7 @@
       <c r="S708" s="4"/>
       <c r="T708" s="4"/>
     </row>
-    <row r="709" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
@@ -19645,7 +19651,7 @@
       <c r="S709" s="4"/>
       <c r="T709" s="4"/>
     </row>
-    <row r="710" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
@@ -19667,7 +19673,7 @@
       <c r="S710" s="4"/>
       <c r="T710" s="4"/>
     </row>
-    <row r="711" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
@@ -19689,7 +19695,7 @@
       <c r="S711" s="4"/>
       <c r="T711" s="4"/>
     </row>
-    <row r="712" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
@@ -19711,7 +19717,7 @@
       <c r="S712" s="4"/>
       <c r="T712" s="4"/>
     </row>
-    <row r="713" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
@@ -19733,7 +19739,7 @@
       <c r="S713" s="4"/>
       <c r="T713" s="4"/>
     </row>
-    <row r="714" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
@@ -19755,7 +19761,7 @@
       <c r="S714" s="4"/>
       <c r="T714" s="4"/>
     </row>
-    <row r="715" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
@@ -19777,7 +19783,7 @@
       <c r="S715" s="4"/>
       <c r="T715" s="4"/>
     </row>
-    <row r="716" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
@@ -19799,7 +19805,7 @@
       <c r="S716" s="4"/>
       <c r="T716" s="4"/>
     </row>
-    <row r="717" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
@@ -19821,7 +19827,7 @@
       <c r="S717" s="4"/>
       <c r="T717" s="4"/>
     </row>
-    <row r="718" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
@@ -19843,7 +19849,7 @@
       <c r="S718" s="4"/>
       <c r="T718" s="4"/>
     </row>
-    <row r="719" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
@@ -19865,7 +19871,7 @@
       <c r="S719" s="4"/>
       <c r="T719" s="4"/>
     </row>
-    <row r="720" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
@@ -19887,7 +19893,7 @@
       <c r="S720" s="4"/>
       <c r="T720" s="4"/>
     </row>
-    <row r="721" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
@@ -19909,7 +19915,7 @@
       <c r="S721" s="4"/>
       <c r="T721" s="4"/>
     </row>
-    <row r="722" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
@@ -19931,7 +19937,7 @@
       <c r="S722" s="4"/>
       <c r="T722" s="4"/>
     </row>
-    <row r="723" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
@@ -19953,7 +19959,7 @@
       <c r="S723" s="4"/>
       <c r="T723" s="4"/>
     </row>
-    <row r="724" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
@@ -19975,7 +19981,7 @@
       <c r="S724" s="4"/>
       <c r="T724" s="4"/>
     </row>
-    <row r="725" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
@@ -19997,7 +20003,7 @@
       <c r="S725" s="4"/>
       <c r="T725" s="4"/>
     </row>
-    <row r="726" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
@@ -20019,7 +20025,7 @@
       <c r="S726" s="4"/>
       <c r="T726" s="4"/>
     </row>
-    <row r="727" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
@@ -20041,7 +20047,7 @@
       <c r="S727" s="4"/>
       <c r="T727" s="4"/>
     </row>
-    <row r="728" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
@@ -20063,7 +20069,7 @@
       <c r="S728" s="4"/>
       <c r="T728" s="4"/>
     </row>
-    <row r="729" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
@@ -20085,7 +20091,7 @@
       <c r="S729" s="4"/>
       <c r="T729" s="4"/>
     </row>
-    <row r="730" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
@@ -20107,7 +20113,7 @@
       <c r="S730" s="4"/>
       <c r="T730" s="4"/>
     </row>
-    <row r="731" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
@@ -20129,7 +20135,7 @@
       <c r="S731" s="4"/>
       <c r="T731" s="4"/>
     </row>
-    <row r="732" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
@@ -20151,7 +20157,7 @@
       <c r="S732" s="4"/>
       <c r="T732" s="4"/>
     </row>
-    <row r="733" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
@@ -20173,7 +20179,7 @@
       <c r="S733" s="4"/>
       <c r="T733" s="4"/>
     </row>
-    <row r="734" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
@@ -20195,7 +20201,7 @@
       <c r="S734" s="4"/>
       <c r="T734" s="4"/>
     </row>
-    <row r="735" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
@@ -20217,7 +20223,7 @@
       <c r="S735" s="4"/>
       <c r="T735" s="4"/>
     </row>
-    <row r="736" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
@@ -20239,7 +20245,7 @@
       <c r="S736" s="4"/>
       <c r="T736" s="4"/>
     </row>
-    <row r="737" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
@@ -20261,7 +20267,7 @@
       <c r="S737" s="4"/>
       <c r="T737" s="4"/>
     </row>
-    <row r="738" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
@@ -20283,7 +20289,7 @@
       <c r="S738" s="4"/>
       <c r="T738" s="4"/>
     </row>
-    <row r="739" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
@@ -20305,7 +20311,7 @@
       <c r="S739" s="4"/>
       <c r="T739" s="4"/>
     </row>
-    <row r="740" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
@@ -20327,7 +20333,7 @@
       <c r="S740" s="4"/>
       <c r="T740" s="4"/>
     </row>
-    <row r="741" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
@@ -20349,7 +20355,7 @@
       <c r="S741" s="4"/>
       <c r="T741" s="4"/>
     </row>
-    <row r="742" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
@@ -20371,7 +20377,7 @@
       <c r="S742" s="4"/>
       <c r="T742" s="4"/>
     </row>
-    <row r="743" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
@@ -20393,7 +20399,7 @@
       <c r="S743" s="4"/>
       <c r="T743" s="4"/>
     </row>
-    <row r="744" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
@@ -20415,7 +20421,7 @@
       <c r="S744" s="4"/>
       <c r="T744" s="4"/>
     </row>
-    <row r="745" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
@@ -20437,7 +20443,7 @@
       <c r="S745" s="4"/>
       <c r="T745" s="4"/>
     </row>
-    <row r="746" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
@@ -20459,7 +20465,7 @@
       <c r="S746" s="4"/>
       <c r="T746" s="4"/>
     </row>
-    <row r="747" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
@@ -20481,7 +20487,7 @@
       <c r="S747" s="4"/>
       <c r="T747" s="4"/>
     </row>
-    <row r="748" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
@@ -20503,7 +20509,7 @@
       <c r="S748" s="4"/>
       <c r="T748" s="4"/>
     </row>
-    <row r="749" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
@@ -20525,7 +20531,7 @@
       <c r="S749" s="4"/>
       <c r="T749" s="4"/>
     </row>
-    <row r="750" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
@@ -20547,7 +20553,7 @@
       <c r="S750" s="4"/>
       <c r="T750" s="4"/>
     </row>
-    <row r="751" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
@@ -20569,7 +20575,7 @@
       <c r="S751" s="4"/>
       <c r="T751" s="4"/>
     </row>
-    <row r="752" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
@@ -20591,7 +20597,7 @@
       <c r="S752" s="4"/>
       <c r="T752" s="4"/>
     </row>
-    <row r="753" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
@@ -20613,7 +20619,7 @@
       <c r="S753" s="4"/>
       <c r="T753" s="4"/>
     </row>
-    <row r="754" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
@@ -20635,7 +20641,7 @@
       <c r="S754" s="4"/>
       <c r="T754" s="4"/>
     </row>
-    <row r="755" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
@@ -20657,7 +20663,7 @@
       <c r="S755" s="4"/>
       <c r="T755" s="4"/>
     </row>
-    <row r="756" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
@@ -20679,7 +20685,7 @@
       <c r="S756" s="4"/>
       <c r="T756" s="4"/>
     </row>
-    <row r="757" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
@@ -20701,7 +20707,7 @@
       <c r="S757" s="4"/>
       <c r="T757" s="4"/>
     </row>
-    <row r="758" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
@@ -20723,7 +20729,7 @@
       <c r="S758" s="4"/>
       <c r="T758" s="4"/>
     </row>
-    <row r="759" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
@@ -20745,7 +20751,7 @@
       <c r="S759" s="4"/>
       <c r="T759" s="4"/>
     </row>
-    <row r="760" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
@@ -20767,7 +20773,7 @@
       <c r="S760" s="4"/>
       <c r="T760" s="4"/>
     </row>
-    <row r="761" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
@@ -20789,7 +20795,7 @@
       <c r="S761" s="4"/>
       <c r="T761" s="4"/>
     </row>
-    <row r="762" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
@@ -20811,7 +20817,7 @@
       <c r="S762" s="4"/>
       <c r="T762" s="4"/>
     </row>
-    <row r="763" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
@@ -20833,7 +20839,7 @@
       <c r="S763" s="4"/>
       <c r="T763" s="4"/>
     </row>
-    <row r="764" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
@@ -20855,7 +20861,7 @@
       <c r="S764" s="4"/>
       <c r="T764" s="4"/>
     </row>
-    <row r="765" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
@@ -20877,7 +20883,7 @@
       <c r="S765" s="4"/>
       <c r="T765" s="4"/>
     </row>
-    <row r="766" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
@@ -20899,7 +20905,7 @@
       <c r="S766" s="4"/>
       <c r="T766" s="4"/>
     </row>
-    <row r="767" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
@@ -20921,7 +20927,7 @@
       <c r="S767" s="4"/>
       <c r="T767" s="4"/>
     </row>
-    <row r="768" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
@@ -20943,7 +20949,7 @@
       <c r="S768" s="4"/>
       <c r="T768" s="4"/>
     </row>
-    <row r="769" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
@@ -20965,7 +20971,7 @@
       <c r="S769" s="4"/>
       <c r="T769" s="4"/>
     </row>
-    <row r="770" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
@@ -20987,7 +20993,7 @@
       <c r="S770" s="4"/>
       <c r="T770" s="4"/>
     </row>
-    <row r="771" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
@@ -21009,7 +21015,7 @@
       <c r="S771" s="4"/>
       <c r="T771" s="4"/>
     </row>
-    <row r="772" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
@@ -21031,7 +21037,7 @@
       <c r="S772" s="4"/>
       <c r="T772" s="4"/>
     </row>
-    <row r="773" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
@@ -21053,7 +21059,7 @@
       <c r="S773" s="4"/>
       <c r="T773" s="4"/>
     </row>
-    <row r="774" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
@@ -21075,7 +21081,7 @@
       <c r="S774" s="4"/>
       <c r="T774" s="4"/>
     </row>
-    <row r="775" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
@@ -21097,7 +21103,7 @@
       <c r="S775" s="4"/>
       <c r="T775" s="4"/>
     </row>
-    <row r="776" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
@@ -21119,7 +21125,7 @@
       <c r="S776" s="4"/>
       <c r="T776" s="4"/>
     </row>
-    <row r="777" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
@@ -21141,7 +21147,7 @@
       <c r="S777" s="4"/>
       <c r="T777" s="4"/>
     </row>
-    <row r="778" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
@@ -21163,7 +21169,7 @@
       <c r="S778" s="4"/>
       <c r="T778" s="4"/>
     </row>
-    <row r="779" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
@@ -21185,7 +21191,7 @@
       <c r="S779" s="4"/>
       <c r="T779" s="4"/>
     </row>
-    <row r="780" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
@@ -21207,7 +21213,7 @@
       <c r="S780" s="4"/>
       <c r="T780" s="4"/>
     </row>
-    <row r="781" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
@@ -21229,7 +21235,7 @@
       <c r="S781" s="4"/>
       <c r="T781" s="4"/>
     </row>
-    <row r="782" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
@@ -21251,7 +21257,7 @@
       <c r="S782" s="4"/>
       <c r="T782" s="4"/>
     </row>
-    <row r="783" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
@@ -21273,7 +21279,7 @@
       <c r="S783" s="4"/>
       <c r="T783" s="4"/>
     </row>
-    <row r="784" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
@@ -21295,7 +21301,7 @@
       <c r="S784" s="4"/>
       <c r="T784" s="4"/>
     </row>
-    <row r="785" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
@@ -21317,7 +21323,7 @@
       <c r="S785" s="4"/>
       <c r="T785" s="4"/>
     </row>
-    <row r="786" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
@@ -21339,7 +21345,7 @@
       <c r="S786" s="4"/>
       <c r="T786" s="4"/>
     </row>
-    <row r="787" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
@@ -21361,7 +21367,7 @@
       <c r="S787" s="4"/>
       <c r="T787" s="4"/>
     </row>
-    <row r="788" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
@@ -21383,7 +21389,7 @@
       <c r="S788" s="4"/>
       <c r="T788" s="4"/>
     </row>
-    <row r="789" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
@@ -21405,7 +21411,7 @@
       <c r="S789" s="4"/>
       <c r="T789" s="4"/>
     </row>
-    <row r="790" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
@@ -21427,7 +21433,7 @@
       <c r="S790" s="4"/>
       <c r="T790" s="4"/>
     </row>
-    <row r="791" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
@@ -21449,7 +21455,7 @@
       <c r="S791" s="4"/>
       <c r="T791" s="4"/>
     </row>
-    <row r="792" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
@@ -21471,7 +21477,7 @@
       <c r="S792" s="4"/>
       <c r="T792" s="4"/>
     </row>
-    <row r="793" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
@@ -21493,7 +21499,7 @@
       <c r="S793" s="4"/>
       <c r="T793" s="4"/>
     </row>
-    <row r="794" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
@@ -21515,7 +21521,7 @@
       <c r="S794" s="4"/>
       <c r="T794" s="4"/>
     </row>
-    <row r="795" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
@@ -21537,7 +21543,7 @@
       <c r="S795" s="4"/>
       <c r="T795" s="4"/>
     </row>
-    <row r="796" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
@@ -21559,7 +21565,7 @@
       <c r="S796" s="4"/>
       <c r="T796" s="4"/>
     </row>
-    <row r="797" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
@@ -21581,7 +21587,7 @@
       <c r="S797" s="4"/>
       <c r="T797" s="4"/>
     </row>
-    <row r="798" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
@@ -21603,7 +21609,7 @@
       <c r="S798" s="4"/>
       <c r="T798" s="4"/>
     </row>
-    <row r="799" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
@@ -21625,7 +21631,7 @@
       <c r="S799" s="4"/>
       <c r="T799" s="4"/>
     </row>
-    <row r="800" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
@@ -21647,7 +21653,7 @@
       <c r="S800" s="4"/>
       <c r="T800" s="4"/>
     </row>
-    <row r="801" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
@@ -21669,7 +21675,7 @@
       <c r="S801" s="4"/>
       <c r="T801" s="4"/>
     </row>
-    <row r="802" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
@@ -21691,7 +21697,7 @@
       <c r="S802" s="4"/>
       <c r="T802" s="4"/>
     </row>
-    <row r="803" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
@@ -21713,7 +21719,7 @@
       <c r="S803" s="4"/>
       <c r="T803" s="4"/>
     </row>
-    <row r="804" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
@@ -21735,7 +21741,7 @@
       <c r="S804" s="4"/>
       <c r="T804" s="4"/>
     </row>
-    <row r="805" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
@@ -21757,7 +21763,7 @@
       <c r="S805" s="4"/>
       <c r="T805" s="4"/>
     </row>
-    <row r="806" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
@@ -21779,7 +21785,7 @@
       <c r="S806" s="4"/>
       <c r="T806" s="4"/>
     </row>
-    <row r="807" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
@@ -21801,7 +21807,7 @@
       <c r="S807" s="4"/>
       <c r="T807" s="4"/>
     </row>
-    <row r="808" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
@@ -21823,7 +21829,7 @@
       <c r="S808" s="4"/>
       <c r="T808" s="4"/>
     </row>
-    <row r="809" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
@@ -21845,7 +21851,7 @@
       <c r="S809" s="4"/>
       <c r="T809" s="4"/>
     </row>
-    <row r="810" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
@@ -21867,7 +21873,7 @@
       <c r="S810" s="4"/>
       <c r="T810" s="4"/>
     </row>
-    <row r="811" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
@@ -21889,7 +21895,7 @@
       <c r="S811" s="4"/>
       <c r="T811" s="4"/>
     </row>
-    <row r="812" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
@@ -21911,7 +21917,7 @@
       <c r="S812" s="4"/>
       <c r="T812" s="4"/>
     </row>
-    <row r="813" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
@@ -21933,7 +21939,7 @@
       <c r="S813" s="4"/>
       <c r="T813" s="4"/>
     </row>
-    <row r="814" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
@@ -21955,7 +21961,7 @@
       <c r="S814" s="4"/>
       <c r="T814" s="4"/>
     </row>
-    <row r="815" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
@@ -21977,7 +21983,7 @@
       <c r="S815" s="4"/>
       <c r="T815" s="4"/>
     </row>
-    <row r="816" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
@@ -21999,7 +22005,7 @@
       <c r="S816" s="4"/>
       <c r="T816" s="4"/>
     </row>
-    <row r="817" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
@@ -22021,7 +22027,7 @@
       <c r="S817" s="4"/>
       <c r="T817" s="4"/>
     </row>
-    <row r="818" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
@@ -22043,7 +22049,7 @@
       <c r="S818" s="4"/>
       <c r="T818" s="4"/>
     </row>
-    <row r="819" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
@@ -22065,7 +22071,7 @@
       <c r="S819" s="4"/>
       <c r="T819" s="4"/>
     </row>
-    <row r="820" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
@@ -22087,7 +22093,7 @@
       <c r="S820" s="4"/>
       <c r="T820" s="4"/>
     </row>
-    <row r="821" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
@@ -22109,7 +22115,7 @@
       <c r="S821" s="4"/>
       <c r="T821" s="4"/>
     </row>
-    <row r="822" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
@@ -22131,7 +22137,7 @@
       <c r="S822" s="4"/>
       <c r="T822" s="4"/>
     </row>
-    <row r="823" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
@@ -22153,7 +22159,7 @@
       <c r="S823" s="4"/>
       <c r="T823" s="4"/>
     </row>
-    <row r="824" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
@@ -22175,7 +22181,7 @@
       <c r="S824" s="4"/>
       <c r="T824" s="4"/>
     </row>
-    <row r="825" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
@@ -22197,7 +22203,7 @@
       <c r="S825" s="4"/>
       <c r="T825" s="4"/>
     </row>
-    <row r="826" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
@@ -22219,7 +22225,7 @@
       <c r="S826" s="4"/>
       <c r="T826" s="4"/>
     </row>
-    <row r="827" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
@@ -22241,7 +22247,7 @@
       <c r="S827" s="4"/>
       <c r="T827" s="4"/>
     </row>
-    <row r="828" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
@@ -22263,7 +22269,7 @@
       <c r="S828" s="4"/>
       <c r="T828" s="4"/>
     </row>
-    <row r="829" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
@@ -22285,7 +22291,7 @@
       <c r="S829" s="4"/>
       <c r="T829" s="4"/>
     </row>
-    <row r="830" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
@@ -22307,7 +22313,7 @@
       <c r="S830" s="4"/>
       <c r="T830" s="4"/>
     </row>
-    <row r="831" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
@@ -22329,7 +22335,7 @@
       <c r="S831" s="4"/>
       <c r="T831" s="4"/>
     </row>
-    <row r="832" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
@@ -22351,7 +22357,7 @@
       <c r="S832" s="4"/>
       <c r="T832" s="4"/>
     </row>
-    <row r="833" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
@@ -22373,7 +22379,7 @@
       <c r="S833" s="4"/>
       <c r="T833" s="4"/>
     </row>
-    <row r="834" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
@@ -22395,7 +22401,7 @@
       <c r="S834" s="4"/>
       <c r="T834" s="4"/>
     </row>
-    <row r="835" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
@@ -22417,7 +22423,7 @@
       <c r="S835" s="4"/>
       <c r="T835" s="4"/>
     </row>
-    <row r="836" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
@@ -22439,7 +22445,7 @@
       <c r="S836" s="4"/>
       <c r="T836" s="4"/>
     </row>
-    <row r="837" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
@@ -22461,7 +22467,7 @@
       <c r="S837" s="4"/>
       <c r="T837" s="4"/>
     </row>
-    <row r="838" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
@@ -22483,7 +22489,7 @@
       <c r="S838" s="4"/>
       <c r="T838" s="4"/>
     </row>
-    <row r="839" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
@@ -22505,7 +22511,7 @@
       <c r="S839" s="4"/>
       <c r="T839" s="4"/>
     </row>
-    <row r="840" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
@@ -22527,7 +22533,7 @@
       <c r="S840" s="4"/>
       <c r="T840" s="4"/>
     </row>
-    <row r="841" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
@@ -22549,7 +22555,7 @@
       <c r="S841" s="4"/>
       <c r="T841" s="4"/>
     </row>
-    <row r="842" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
@@ -22571,7 +22577,7 @@
       <c r="S842" s="4"/>
       <c r="T842" s="4"/>
     </row>
-    <row r="843" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
@@ -22593,7 +22599,7 @@
       <c r="S843" s="4"/>
       <c r="T843" s="4"/>
     </row>
-    <row r="844" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
@@ -22615,7 +22621,7 @@
       <c r="S844" s="4"/>
       <c r="T844" s="4"/>
     </row>
-    <row r="845" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
@@ -22637,7 +22643,7 @@
       <c r="S845" s="4"/>
       <c r="T845" s="4"/>
     </row>
-    <row r="846" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
@@ -22659,7 +22665,7 @@
       <c r="S846" s="4"/>
       <c r="T846" s="4"/>
     </row>
-    <row r="847" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
@@ -22681,7 +22687,7 @@
       <c r="S847" s="4"/>
       <c r="T847" s="4"/>
     </row>
-    <row r="848" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
@@ -22703,7 +22709,7 @@
       <c r="S848" s="4"/>
       <c r="T848" s="4"/>
     </row>
-    <row r="849" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
@@ -22725,7 +22731,7 @@
       <c r="S849" s="4"/>
       <c r="T849" s="4"/>
     </row>
-    <row r="850" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
@@ -22747,7 +22753,7 @@
       <c r="S850" s="4"/>
       <c r="T850" s="4"/>
     </row>
-    <row r="851" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
@@ -22769,7 +22775,7 @@
       <c r="S851" s="4"/>
       <c r="T851" s="4"/>
     </row>
-    <row r="852" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
@@ -22791,7 +22797,7 @@
       <c r="S852" s="4"/>
       <c r="T852" s="4"/>
     </row>
-    <row r="853" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
@@ -22813,7 +22819,7 @@
       <c r="S853" s="4"/>
       <c r="T853" s="4"/>
     </row>
-    <row r="854" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
@@ -22835,7 +22841,7 @@
       <c r="S854" s="4"/>
       <c r="T854" s="4"/>
     </row>
-    <row r="855" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
@@ -22857,7 +22863,7 @@
       <c r="S855" s="4"/>
       <c r="T855" s="4"/>
     </row>
-    <row r="856" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
@@ -22879,7 +22885,7 @@
       <c r="S856" s="4"/>
       <c r="T856" s="4"/>
     </row>
-    <row r="857" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
@@ -22901,7 +22907,7 @@
       <c r="S857" s="4"/>
       <c r="T857" s="4"/>
     </row>
-    <row r="858" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
@@ -22923,7 +22929,7 @@
       <c r="S858" s="4"/>
       <c r="T858" s="4"/>
     </row>
-    <row r="859" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
@@ -22945,7 +22951,7 @@
       <c r="S859" s="4"/>
       <c r="T859" s="4"/>
     </row>
-    <row r="860" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
@@ -22967,7 +22973,7 @@
       <c r="S860" s="4"/>
       <c r="T860" s="4"/>
     </row>
-    <row r="861" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
@@ -22989,7 +22995,7 @@
       <c r="S861" s="4"/>
       <c r="T861" s="4"/>
     </row>
-    <row r="862" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
@@ -23011,7 +23017,7 @@
       <c r="S862" s="4"/>
       <c r="T862" s="4"/>
     </row>
-    <row r="863" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
@@ -23033,7 +23039,7 @@
       <c r="S863" s="4"/>
       <c r="T863" s="4"/>
     </row>
-    <row r="864" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
@@ -23055,7 +23061,7 @@
       <c r="S864" s="4"/>
       <c r="T864" s="4"/>
     </row>
-    <row r="865" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
@@ -23077,7 +23083,7 @@
       <c r="S865" s="4"/>
       <c r="T865" s="4"/>
     </row>
-    <row r="866" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
@@ -23099,7 +23105,7 @@
       <c r="S866" s="4"/>
       <c r="T866" s="4"/>
     </row>
-    <row r="867" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
@@ -23121,7 +23127,7 @@
       <c r="S867" s="4"/>
       <c r="T867" s="4"/>
     </row>
-    <row r="868" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
@@ -23143,7 +23149,7 @@
       <c r="S868" s="4"/>
       <c r="T868" s="4"/>
     </row>
-    <row r="869" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
@@ -23165,7 +23171,7 @@
       <c r="S869" s="4"/>
       <c r="T869" s="4"/>
     </row>
-    <row r="870" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
@@ -23187,7 +23193,7 @@
       <c r="S870" s="4"/>
       <c r="T870" s="4"/>
     </row>
-    <row r="871" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
@@ -23209,7 +23215,7 @@
       <c r="S871" s="4"/>
       <c r="T871" s="4"/>
     </row>
-    <row r="872" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
@@ -23231,7 +23237,7 @@
       <c r="S872" s="4"/>
       <c r="T872" s="4"/>
     </row>
-    <row r="873" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
@@ -23253,7 +23259,7 @@
       <c r="S873" s="4"/>
       <c r="T873" s="4"/>
     </row>
-    <row r="874" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
@@ -23275,7 +23281,7 @@
       <c r="S874" s="4"/>
       <c r="T874" s="4"/>
     </row>
-    <row r="875" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
@@ -23297,7 +23303,7 @@
       <c r="S875" s="4"/>
       <c r="T875" s="4"/>
     </row>
-    <row r="876" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
@@ -23319,7 +23325,7 @@
       <c r="S876" s="4"/>
       <c r="T876" s="4"/>
     </row>
-    <row r="877" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
@@ -23341,7 +23347,7 @@
       <c r="S877" s="4"/>
       <c r="T877" s="4"/>
     </row>
-    <row r="878" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
@@ -23363,7 +23369,7 @@
       <c r="S878" s="4"/>
       <c r="T878" s="4"/>
     </row>
-    <row r="879" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
@@ -23385,7 +23391,7 @@
       <c r="S879" s="4"/>
       <c r="T879" s="4"/>
     </row>
-    <row r="880" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
@@ -23407,7 +23413,7 @@
       <c r="S880" s="4"/>
       <c r="T880" s="4"/>
     </row>
-    <row r="881" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
@@ -23429,7 +23435,7 @@
       <c r="S881" s="4"/>
       <c r="T881" s="4"/>
     </row>
-    <row r="882" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
@@ -23451,7 +23457,7 @@
       <c r="S882" s="4"/>
       <c r="T882" s="4"/>
     </row>
-    <row r="883" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
@@ -23473,7 +23479,7 @@
       <c r="S883" s="4"/>
       <c r="T883" s="4"/>
     </row>
-    <row r="884" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
@@ -23495,7 +23501,7 @@
       <c r="S884" s="4"/>
       <c r="T884" s="4"/>
     </row>
-    <row r="885" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
@@ -23517,7 +23523,7 @@
       <c r="S885" s="4"/>
       <c r="T885" s="4"/>
     </row>
-    <row r="886" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
@@ -23539,7 +23545,7 @@
       <c r="S886" s="4"/>
       <c r="T886" s="4"/>
     </row>
-    <row r="887" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
@@ -23561,7 +23567,7 @@
       <c r="S887" s="4"/>
       <c r="T887" s="4"/>
     </row>
-    <row r="888" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
@@ -23583,7 +23589,7 @@
       <c r="S888" s="4"/>
       <c r="T888" s="4"/>
     </row>
-    <row r="889" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
@@ -23605,7 +23611,7 @@
       <c r="S889" s="4"/>
       <c r="T889" s="4"/>
     </row>
-    <row r="890" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
@@ -23627,7 +23633,7 @@
       <c r="S890" s="4"/>
       <c r="T890" s="4"/>
     </row>
-    <row r="891" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
@@ -23649,7 +23655,7 @@
       <c r="S891" s="4"/>
       <c r="T891" s="4"/>
     </row>
-    <row r="892" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
@@ -23671,7 +23677,7 @@
       <c r="S892" s="4"/>
       <c r="T892" s="4"/>
     </row>
-    <row r="893" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
@@ -23693,7 +23699,7 @@
       <c r="S893" s="4"/>
       <c r="T893" s="4"/>
     </row>
-    <row r="894" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
@@ -23715,7 +23721,7 @@
       <c r="S894" s="4"/>
       <c r="T894" s="4"/>
     </row>
-    <row r="895" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
@@ -23737,7 +23743,7 @@
       <c r="S895" s="4"/>
       <c r="T895" s="4"/>
     </row>
-    <row r="896" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
@@ -23759,7 +23765,7 @@
       <c r="S896" s="4"/>
       <c r="T896" s="4"/>
     </row>
-    <row r="897" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
@@ -23781,7 +23787,7 @@
       <c r="S897" s="4"/>
       <c r="T897" s="4"/>
     </row>
-    <row r="898" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
@@ -23803,7 +23809,7 @@
       <c r="S898" s="4"/>
       <c r="T898" s="4"/>
     </row>
-    <row r="899" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
@@ -23825,7 +23831,7 @@
       <c r="S899" s="4"/>
       <c r="T899" s="4"/>
     </row>
-    <row r="900" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
@@ -23847,7 +23853,7 @@
       <c r="S900" s="4"/>
       <c r="T900" s="4"/>
     </row>
-    <row r="901" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
@@ -23869,7 +23875,7 @@
       <c r="S901" s="4"/>
       <c r="T901" s="4"/>
     </row>
-    <row r="902" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
@@ -23891,7 +23897,7 @@
       <c r="S902" s="4"/>
       <c r="T902" s="4"/>
     </row>
-    <row r="903" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
@@ -23913,7 +23919,7 @@
       <c r="S903" s="4"/>
       <c r="T903" s="4"/>
     </row>
-    <row r="904" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
@@ -23935,7 +23941,7 @@
       <c r="S904" s="4"/>
       <c r="T904" s="4"/>
     </row>
-    <row r="905" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
@@ -23957,7 +23963,7 @@
       <c r="S905" s="4"/>
       <c r="T905" s="4"/>
     </row>
-    <row r="906" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
@@ -23979,7 +23985,7 @@
       <c r="S906" s="4"/>
       <c r="T906" s="4"/>
     </row>
-    <row r="907" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
@@ -24001,7 +24007,7 @@
       <c r="S907" s="4"/>
       <c r="T907" s="4"/>
     </row>
-    <row r="908" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
@@ -24023,7 +24029,7 @@
       <c r="S908" s="4"/>
       <c r="T908" s="4"/>
     </row>
-    <row r="909" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
@@ -24045,7 +24051,7 @@
       <c r="S909" s="4"/>
       <c r="T909" s="4"/>
     </row>
-    <row r="910" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
@@ -24067,7 +24073,7 @@
       <c r="S910" s="4"/>
       <c r="T910" s="4"/>
     </row>
-    <row r="911" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
@@ -24089,7 +24095,7 @@
       <c r="S911" s="4"/>
       <c r="T911" s="4"/>
     </row>
-    <row r="912" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
@@ -24111,7 +24117,7 @@
       <c r="S912" s="4"/>
       <c r="T912" s="4"/>
     </row>
-    <row r="913" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
@@ -24133,7 +24139,7 @@
       <c r="S913" s="4"/>
       <c r="T913" s="4"/>
     </row>
-    <row r="914" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
@@ -24155,7 +24161,7 @@
       <c r="S914" s="4"/>
       <c r="T914" s="4"/>
     </row>
-    <row r="915" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
@@ -24177,7 +24183,7 @@
       <c r="S915" s="4"/>
       <c r="T915" s="4"/>
     </row>
-    <row r="916" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
@@ -24199,7 +24205,7 @@
       <c r="S916" s="4"/>
       <c r="T916" s="4"/>
     </row>
-    <row r="917" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
@@ -24221,7 +24227,7 @@
       <c r="S917" s="4"/>
       <c r="T917" s="4"/>
     </row>
-    <row r="918" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
@@ -24243,7 +24249,7 @@
       <c r="S918" s="4"/>
       <c r="T918" s="4"/>
     </row>
-    <row r="919" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
@@ -24265,7 +24271,7 @@
       <c r="S919" s="4"/>
       <c r="T919" s="4"/>
     </row>
-    <row r="920" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
@@ -24287,7 +24293,7 @@
       <c r="S920" s="4"/>
       <c r="T920" s="4"/>
     </row>
-    <row r="921" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
@@ -24309,7 +24315,7 @@
       <c r="S921" s="4"/>
       <c r="T921" s="4"/>
     </row>
-    <row r="922" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
@@ -24331,7 +24337,7 @@
       <c r="S922" s="4"/>
       <c r="T922" s="4"/>
     </row>
-    <row r="923" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
@@ -24353,7 +24359,7 @@
       <c r="S923" s="4"/>
       <c r="T923" s="4"/>
     </row>
-    <row r="924" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
@@ -24375,7 +24381,7 @@
       <c r="S924" s="4"/>
       <c r="T924" s="4"/>
     </row>
-    <row r="925" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
@@ -24397,7 +24403,7 @@
       <c r="S925" s="4"/>
       <c r="T925" s="4"/>
     </row>
-    <row r="926" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
@@ -24419,7 +24425,7 @@
       <c r="S926" s="4"/>
       <c r="T926" s="4"/>
     </row>
-    <row r="927" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
@@ -24441,7 +24447,7 @@
       <c r="S927" s="4"/>
       <c r="T927" s="4"/>
     </row>
-    <row r="928" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
@@ -24463,7 +24469,7 @@
       <c r="S928" s="4"/>
       <c r="T928" s="4"/>
     </row>
-    <row r="929" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
@@ -24485,7 +24491,7 @@
       <c r="S929" s="4"/>
       <c r="T929" s="4"/>
     </row>
-    <row r="930" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
@@ -24507,7 +24513,7 @@
       <c r="S930" s="4"/>
       <c r="T930" s="4"/>
     </row>
-    <row r="931" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
@@ -24529,7 +24535,7 @@
       <c r="S931" s="4"/>
       <c r="T931" s="4"/>
     </row>
-    <row r="932" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
@@ -24551,7 +24557,7 @@
       <c r="S932" s="4"/>
       <c r="T932" s="4"/>
     </row>
-    <row r="933" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
@@ -24573,7 +24579,7 @@
       <c r="S933" s="4"/>
       <c r="T933" s="4"/>
     </row>
-    <row r="934" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
@@ -24595,7 +24601,7 @@
       <c r="S934" s="4"/>
       <c r="T934" s="4"/>
     </row>
-    <row r="935" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
@@ -24617,7 +24623,7 @@
       <c r="S935" s="4"/>
       <c r="T935" s="4"/>
     </row>
-    <row r="936" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
@@ -24639,7 +24645,7 @@
       <c r="S936" s="4"/>
       <c r="T936" s="4"/>
     </row>
-    <row r="937" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
@@ -24661,7 +24667,7 @@
       <c r="S937" s="4"/>
       <c r="T937" s="4"/>
     </row>
-    <row r="938" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
@@ -24683,7 +24689,7 @@
       <c r="S938" s="4"/>
       <c r="T938" s="4"/>
     </row>
-    <row r="939" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
@@ -24705,7 +24711,7 @@
       <c r="S939" s="4"/>
       <c r="T939" s="4"/>
     </row>
-    <row r="940" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
@@ -24727,7 +24733,7 @@
       <c r="S940" s="4"/>
       <c r="T940" s="4"/>
     </row>
-    <row r="941" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
@@ -24749,7 +24755,7 @@
       <c r="S941" s="4"/>
       <c r="T941" s="4"/>
     </row>
-    <row r="942" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
@@ -24771,7 +24777,7 @@
       <c r="S942" s="4"/>
       <c r="T942" s="4"/>
     </row>
-    <row r="943" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
@@ -24793,7 +24799,7 @@
       <c r="S943" s="4"/>
       <c r="T943" s="4"/>
     </row>
-    <row r="944" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
@@ -24815,7 +24821,7 @@
       <c r="S944" s="4"/>
       <c r="T944" s="4"/>
     </row>
-    <row r="945" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
@@ -24837,7 +24843,7 @@
       <c r="S945" s="4"/>
       <c r="T945" s="4"/>
     </row>
-    <row r="946" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
@@ -24859,7 +24865,7 @@
       <c r="S946" s="4"/>
       <c r="T946" s="4"/>
     </row>
-    <row r="947" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
@@ -24881,7 +24887,7 @@
       <c r="S947" s="4"/>
       <c r="T947" s="4"/>
     </row>
-    <row r="948" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
@@ -24903,7 +24909,7 @@
       <c r="S948" s="4"/>
       <c r="T948" s="4"/>
     </row>
-    <row r="949" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
@@ -24925,7 +24931,7 @@
       <c r="S949" s="4"/>
       <c r="T949" s="4"/>
     </row>
-    <row r="950" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
@@ -24947,7 +24953,7 @@
       <c r="S950" s="4"/>
       <c r="T950" s="4"/>
     </row>
-    <row r="951" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
@@ -24973,7 +24979,7 @@
   <customSheetViews>
     <customSheetView guid="{D7E611A9-CBFC-42C5-9647-0040AB3C88E9}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:G230" xr:uid="{A201FC06-04C6-457B-A4AD-4634894375AF}"/>
+      <autoFilter ref="A2:G230" xr:uid="{AE9F61BD-C620-4BB1-BD55-774C4007B9E0}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1681142713"/>

--- a/Hethongquanlylab/wwwroot/data/users.xlsx
+++ b/Hethongquanlylab/wwwroot/data/users.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>STT</t>
   </si>
@@ -784,15 +784,6 @@
   </si>
   <si>
     <t>Vũ Tiến Dũng</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>2022-09-01</t>
-  </si>
-  <si>
-    <t>default.jpg</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T950"/>
+  <dimension ref="A1:T949"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -8501,30 +8492,14 @@
       <c r="T202" s="15"/>
     </row>
     <row r="203" ht="14.25" customHeight="1">
-      <c r="A203" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D203" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="E203" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F203" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G203" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H203" s="4" t="s">
-        <v>253</v>
-      </c>
+      <c r="A203" s="4"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="39"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+      <c r="H203" s="4"/>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
       <c r="K203" s="4"/>
@@ -24950,28 +24925,6 @@
       <c r="S949" s="4"/>
       <c r="T949" s="4"/>
     </row>
-    <row r="950" ht="14.25" customHeight="1">
-      <c r="A950" s="4"/>
-      <c r="B950" s="4"/>
-      <c r="C950" s="4"/>
-      <c r="D950" s="39"/>
-      <c r="E950" s="4"/>
-      <c r="F950" s="4"/>
-      <c r="G950" s="4"/>
-      <c r="H950" s="4"/>
-      <c r="I950" s="4"/>
-      <c r="J950" s="4"/>
-      <c r="K950" s="4"/>
-      <c r="L950" s="4"/>
-      <c r="M950" s="4"/>
-      <c r="N950" s="4"/>
-      <c r="O950" s="4"/>
-      <c r="P950" s="4"/>
-      <c r="Q950" s="4"/>
-      <c r="R950" s="4"/>
-      <c r="S950" s="4"/>
-      <c r="T950" s="4"/>
-    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D7E611A9-CBFC-42C5-9647-0040AB3C88E9}" filter="1" showAutoFilter="1">

--- a/Hethongquanlylab/wwwroot/data/users.xlsx
+++ b/Hethongquanlylab/wwwroot/data/users.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
   <si>
     <t>STT</t>
   </si>
@@ -784,6 +784,15 @@
   </si>
   <si>
     <t>Vũ Tiến Dũng</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>2022-09-09</t>
+  </si>
+  <si>
+    <t>2741b05c-c267-4b25-a1ba-d7f8afad628f_.png</t>
   </si>
 </sst>
 </file>
@@ -8492,14 +8501,30 @@
       <c r="T202" s="15"/>
     </row>
     <row r="203" ht="14.25" customHeight="1">
-      <c r="A203" s="4"/>
-      <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
-      <c r="D203" s="39"/>
-      <c r="E203" s="4"/>
-      <c r="F203" s="4"/>
-      <c r="G203" s="4"/>
-      <c r="H203" s="4"/>
+      <c r="A203" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>253</v>
+      </c>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
       <c r="K203" s="4"/>

--- a/Hethongquanlylab/wwwroot/data/users.xlsx
+++ b/Hethongquanlylab/wwwroot/data/users.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>STT</t>
   </si>
@@ -784,15 +784,6 @@
   </si>
   <si>
     <t>Vũ Tiến Dũng</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>2022-09-09</t>
-  </si>
-  <si>
-    <t>2741b05c-c267-4b25-a1ba-d7f8afad628f_.png</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T949"/>
+  <dimension ref="A1:T948"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -8501,30 +8492,14 @@
       <c r="T202" s="15"/>
     </row>
     <row r="203" ht="14.25" customHeight="1">
-      <c r="A203" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D203" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="E203" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F203" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G203" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H203" s="4" t="s">
-        <v>253</v>
-      </c>
+      <c r="A203" s="4"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="39"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+      <c r="H203" s="4"/>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
       <c r="K203" s="4"/>
@@ -24928,28 +24903,6 @@
       <c r="S948" s="4"/>
       <c r="T948" s="4"/>
     </row>
-    <row r="949" ht="14.25" customHeight="1">
-      <c r="A949" s="4"/>
-      <c r="B949" s="4"/>
-      <c r="C949" s="4"/>
-      <c r="D949" s="39"/>
-      <c r="E949" s="4"/>
-      <c r="F949" s="4"/>
-      <c r="G949" s="4"/>
-      <c r="H949" s="4"/>
-      <c r="I949" s="4"/>
-      <c r="J949" s="4"/>
-      <c r="K949" s="4"/>
-      <c r="L949" s="4"/>
-      <c r="M949" s="4"/>
-      <c r="N949" s="4"/>
-      <c r="O949" s="4"/>
-      <c r="P949" s="4"/>
-      <c r="Q949" s="4"/>
-      <c r="R949" s="4"/>
-      <c r="S949" s="4"/>
-      <c r="T949" s="4"/>
-    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D7E611A9-CBFC-42C5-9647-0040AB3C88E9}" filter="1" showAutoFilter="1">

--- a/Hethongquanlylab/wwwroot/data/users.xlsx
+++ b/Hethongquanlylab/wwwroot/data/users.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Z_D7E611A9_CBFC_42C5_9647_0040AB3C88E9_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$2:$G$202</definedName>
+    <definedName name="Z_D7E611A9_CBFC_42C5_9647_0040AB3C88E9_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$2:$G$201</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
   <customWorkbookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
   <si>
     <t>STT</t>
   </si>
@@ -93,21 +93,15 @@
     <t>Chủ tịch Lab kiêm phó Ban Cố Vấn</t>
   </si>
   <si>
-    <t>Lý Hải Đăng</t>
+    <t>Nguyễn Thị Trang</t>
+  </si>
+  <si>
+    <t>Nữ</t>
   </si>
   <si>
     <t>Ban Cố Vấn, PT PTBT</t>
   </si>
   <si>
-    <t>Cố vấn, Trưởng PT PTBT</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Trang</t>
-  </si>
-  <si>
-    <t>Nữ</t>
-  </si>
-  <si>
     <t>PTB Cố Vấn, Phó PT PTBT</t>
   </si>
   <si>
@@ -784,6 +778,24 @@
   </si>
   <si>
     <t>Vũ Tiến Dũng</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>2022-09-07</t>
+  </si>
+  <si>
+    <t>Ban Nhân Sự</t>
+  </si>
+  <si>
+    <t>default.jpg</t>
+  </si>
+  <si>
+    <t>2022-08-30</t>
+  </si>
+  <si>
+    <t>9.png</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T948"/>
+  <dimension ref="A1:T947"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -1473,25 +1485,25 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D8" s="29">
-        <v>37042</v>
+        <v>36766</v>
       </c>
       <c r="E8" s="11">
         <v>3</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1509,25 +1521,25 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D9" s="29">
-        <v>36766</v>
+        <v>36540</v>
       </c>
       <c r="E9" s="11">
         <v>3</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1545,25 +1557,25 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="29">
-        <v>36540</v>
+        <v>37045</v>
       </c>
       <c r="E10" s="11">
         <v>3</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1581,25 +1593,25 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="29">
-        <v>37045</v>
+        <v>36226</v>
       </c>
       <c r="E11" s="11">
         <v>3</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1617,25 +1629,25 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="29">
-        <v>36226</v>
+        <v>36870</v>
       </c>
       <c r="E12" s="11">
         <v>3</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1653,22 +1665,22 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="10">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="29">
-        <v>36870</v>
+      <c r="D13" s="30">
+        <v>36858</v>
       </c>
       <c r="E13" s="11">
         <v>3</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>37</v>
@@ -1689,22 +1701,22 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="10">
-        <v>18</v>
-      </c>
-      <c r="B14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="30">
-        <v>36858</v>
+      <c r="D14" s="29">
+        <v>36689</v>
       </c>
       <c r="E14" s="11">
         <v>3</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>39</v>
@@ -1724,62 +1736,62 @@
       <c r="T14" s="4"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="10">
-        <v>32</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="13">
+        <v>33</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="29">
-        <v>36689</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="D15" s="31">
+        <v>36492</v>
+      </c>
+      <c r="E15" s="14">
         <v>3</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
+      <c r="F15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="31">
-        <v>36492</v>
+        <v>36373</v>
       </c>
       <c r="E16" s="14">
         <v>3</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -1797,25 +1809,25 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="31">
-        <v>36373</v>
+        <v>36336</v>
       </c>
       <c r="E17" s="14">
         <v>3</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
@@ -1832,134 +1844,134 @@
       <c r="T17" s="15"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="13">
-        <v>35</v>
-      </c>
-      <c r="B18" s="14" t="s">
+      <c r="A18" s="16">
+        <v>36</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="32">
+        <v>35278</v>
+      </c>
+      <c r="E18" s="17">
+        <v>4</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="G18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="13">
+        <v>37</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="31">
-        <v>36336</v>
-      </c>
-      <c r="E18" s="14">
-        <v>3</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="16">
-        <v>36</v>
-      </c>
-      <c r="B19" s="17" t="s">
+      <c r="D19" s="31">
+        <v>36679</v>
+      </c>
+      <c r="E19" s="14">
+        <v>4</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="16">
+        <v>38</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="32">
-        <v>35278</v>
-      </c>
-      <c r="E19" s="17">
+      <c r="D20" s="32">
+        <v>36703</v>
+      </c>
+      <c r="E20" s="17">
         <v>4</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="13">
-        <v>37</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="31">
-        <v>36679</v>
-      </c>
-      <c r="E20" s="14">
-        <v>4</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
+      <c r="F20" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="16">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="32">
-        <v>36703</v>
+        <v>36746</v>
       </c>
       <c r="E21" s="17">
         <v>4</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -1976,98 +1988,98 @@
       <c r="T21" s="4"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="16">
+      <c r="A22" s="13">
+        <v>40</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="31">
+        <v>36756</v>
+      </c>
+      <c r="E22" s="14">
+        <v>4</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="G22" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="16">
+        <v>41</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="32">
-        <v>36746</v>
-      </c>
-      <c r="E22" s="17">
+      <c r="D23" s="32">
+        <v>36888</v>
+      </c>
+      <c r="E23" s="17">
         <v>4</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="13">
-        <v>40</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="31">
-        <v>36756</v>
-      </c>
-      <c r="E23" s="14">
-        <v>4</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
+      <c r="F23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="16">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="32">
-        <v>36888</v>
+        <v>36919</v>
       </c>
       <c r="E24" s="17">
         <v>4</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -2085,7 +2097,7 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>53</v>
@@ -2094,16 +2106,16 @@
         <v>8</v>
       </c>
       <c r="D25" s="32">
-        <v>36919</v>
+        <v>36942</v>
       </c>
       <c r="E25" s="17">
         <v>4</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>54</v>
+        <v>31</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -2121,25 +2133,25 @@
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="32">
-        <v>36942</v>
+        <v>36945</v>
       </c>
       <c r="E26" s="17">
         <v>4</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -2157,25 +2169,25 @@
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="16">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="32">
-        <v>36945</v>
+        <v>36950</v>
       </c>
       <c r="E27" s="17">
         <v>4</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -2192,62 +2204,62 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="16">
+      <c r="A28" s="13">
+        <v>46</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="31">
+        <v>37014</v>
+      </c>
+      <c r="E28" s="14">
+        <v>4</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="32">
-        <v>36950</v>
-      </c>
-      <c r="E28" s="17">
-        <v>4</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="31">
-        <v>37014</v>
+        <v>36997</v>
       </c>
       <c r="E29" s="14">
         <v>4</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
@@ -2265,25 +2277,25 @@
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="13">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="31">
-        <v>36997</v>
+        <v>37058</v>
       </c>
       <c r="E30" s="14">
         <v>4</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
@@ -2300,62 +2312,62 @@
       <c r="T30" s="15"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="13">
-        <v>48</v>
-      </c>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="16">
+        <v>49</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="31">
-        <v>37058</v>
-      </c>
-      <c r="E31" s="14">
+      <c r="D31" s="32">
+        <v>37070</v>
+      </c>
+      <c r="E31" s="17">
         <v>4</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
+      <c r="F31" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="16">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="32">
-        <v>37070</v>
+        <v>37100</v>
       </c>
       <c r="E32" s="17">
         <v>4</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -2373,7 +2385,7 @@
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="16">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>62</v>
@@ -2382,16 +2394,16 @@
         <v>8</v>
       </c>
       <c r="D33" s="32">
-        <v>37100</v>
+        <v>37080</v>
       </c>
       <c r="E33" s="17">
         <v>4</v>
       </c>
       <c r="F33" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -2408,98 +2420,98 @@
       <c r="T33" s="4"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="16">
-        <v>51</v>
-      </c>
-      <c r="B34" s="17" t="s">
+      <c r="A34" s="13">
+        <v>52</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="32">
-        <v>37080</v>
-      </c>
-      <c r="E34" s="17">
+      <c r="D34" s="31">
+        <v>37020</v>
+      </c>
+      <c r="E34" s="14">
         <v>4</v>
       </c>
-      <c r="F34" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="18" t="s">
+      <c r="F34" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+    </row>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="16">
+        <v>53</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="13">
-        <v>52</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="31">
-        <v>37020</v>
-      </c>
-      <c r="E35" s="14">
+      <c r="D35" s="32">
+        <v>37161</v>
+      </c>
+      <c r="E35" s="17">
         <v>4</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
+      <c r="F35" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D36" s="32">
-        <v>37161</v>
+        <v>37187</v>
       </c>
       <c r="E36" s="17">
         <v>4</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -2517,25 +2529,25 @@
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="16">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D37" s="32">
-        <v>37187</v>
+        <v>37145</v>
       </c>
       <c r="E37" s="17">
         <v>4</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2553,25 +2565,25 @@
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="16">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="32">
-        <v>37145</v>
+        <v>37211</v>
       </c>
       <c r="E38" s="17">
         <v>4</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -2589,25 +2601,25 @@
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="16">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="32">
-        <v>37211</v>
+        <v>37216</v>
       </c>
       <c r="E39" s="17">
         <v>4</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -2625,25 +2637,25 @@
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="16">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="32">
-        <v>37216</v>
+        <v>37217</v>
       </c>
       <c r="E40" s="17">
         <v>4</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -2660,98 +2672,98 @@
       <c r="T40" s="4"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="16">
-        <v>58</v>
-      </c>
-      <c r="B41" s="17" t="s">
+      <c r="A41" s="13">
+        <v>59</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="31">
+        <v>37249</v>
+      </c>
+      <c r="E41" s="14">
+        <v>4</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="A42" s="16">
+        <v>60</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C42" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="32">
-        <v>37217</v>
-      </c>
-      <c r="E41" s="17">
+      <c r="D42" s="32">
+        <v>37284</v>
+      </c>
+      <c r="E42" s="17">
         <v>4</v>
       </c>
-      <c r="F41" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="13">
-        <v>59</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="31">
-        <v>37249</v>
-      </c>
-      <c r="E42" s="14">
-        <v>4</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
+      <c r="F42" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="16">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="32">
-        <v>37284</v>
+        <v>37531</v>
       </c>
       <c r="E43" s="17">
         <v>4</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -2769,25 +2781,25 @@
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="16">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="32">
-        <v>37531</v>
+        <v>37471</v>
       </c>
       <c r="E44" s="17">
         <v>4</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -2804,62 +2816,62 @@
       <c r="T44" s="4"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="16">
-        <v>62</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="16" t="s">
+      <c r="A45" s="13">
+        <v>63</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="32">
-        <v>37471</v>
-      </c>
-      <c r="E45" s="17">
+      <c r="D45" s="31">
+        <v>37319</v>
+      </c>
+      <c r="E45" s="14">
         <v>4</v>
       </c>
-      <c r="F45" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
+      <c r="F45" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="15"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="13">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="31">
-        <v>37319</v>
+        <v>37366</v>
       </c>
       <c r="E46" s="14">
         <v>4</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
@@ -2877,25 +2889,25 @@
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="13">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="31">
-        <v>37366</v>
+        <v>37584</v>
       </c>
       <c r="E47" s="14">
         <v>4</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
@@ -2913,25 +2925,25 @@
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="13">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="31">
-        <v>37584</v>
+        <v>37825</v>
       </c>
       <c r="E48" s="14">
         <v>4</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
@@ -2949,25 +2961,25 @@
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="13">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="31">
-        <v>37825</v>
+        <v>37889</v>
       </c>
       <c r="E49" s="14">
         <v>4</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
@@ -2984,62 +2996,62 @@
       <c r="T49" s="15"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="13">
-        <v>67</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="31">
-        <v>37889</v>
-      </c>
-      <c r="E50" s="14">
-        <v>4</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="15"/>
-      <c r="T50" s="15"/>
+      <c r="A50" s="19">
+        <v>68</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="33">
+        <v>36677</v>
+      </c>
+      <c r="E50" s="21">
+        <v>5</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="19">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D51" s="33">
-        <v>36677</v>
+        <v>37233</v>
       </c>
       <c r="E51" s="21">
         <v>5</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -3057,25 +3069,25 @@
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="19">
-        <v>69</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>84</v>
+        <v>70</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="33">
-        <v>37233</v>
+        <v>37104</v>
       </c>
       <c r="E52" s="21">
         <v>5</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -3093,25 +3105,25 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="19">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="33">
-        <v>37104</v>
+        <v>37072</v>
       </c>
       <c r="E53" s="21">
         <v>5</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -3128,170 +3140,170 @@
       <c r="T53" s="4"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="19">
-        <v>71</v>
-      </c>
-      <c r="B54" s="21" t="s">
+      <c r="A54" s="13">
+        <v>72</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="31">
+        <v>37520</v>
+      </c>
+      <c r="E54" s="14">
+        <v>5</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="15"/>
+    </row>
+    <row r="55" ht="14.25" customHeight="1">
+      <c r="A55" s="19">
+        <v>73</v>
+      </c>
+      <c r="B55" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C55" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="33">
-        <v>37072</v>
-      </c>
-      <c r="E54" s="21">
+      <c r="D55" s="33">
+        <v>37582</v>
+      </c>
+      <c r="E55" s="21">
         <v>5</v>
       </c>
-      <c r="F54" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="4"/>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="13">
-        <v>72</v>
-      </c>
-      <c r="B55" s="14" t="s">
+      <c r="F55" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+    </row>
+    <row r="56" ht="14.25" customHeight="1">
+      <c r="A56" s="13">
+        <v>74</v>
+      </c>
+      <c r="B56" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="31">
-        <v>37520</v>
-      </c>
-      <c r="E55" s="14">
+      <c r="D56" s="31">
+        <v>37482</v>
+      </c>
+      <c r="E56" s="14">
         <v>5</v>
       </c>
-      <c r="F55" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="15"/>
-      <c r="T55" s="15"/>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="19">
-        <v>73</v>
-      </c>
-      <c r="B56" s="21" t="s">
+      <c r="F56" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+    </row>
+    <row r="57" ht="14.25" customHeight="1">
+      <c r="A57" s="19">
+        <v>75</v>
+      </c>
+      <c r="B57" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C57" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="33">
-        <v>37582</v>
-      </c>
-      <c r="E56" s="21">
+      <c r="D57" s="33">
+        <v>37596</v>
+      </c>
+      <c r="E57" s="21">
         <v>5</v>
       </c>
-      <c r="F56" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="13">
-        <v>74</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="31">
-        <v>37482</v>
-      </c>
-      <c r="E57" s="14">
-        <v>5</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="15"/>
-      <c r="T57" s="15"/>
+      <c r="F57" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="19">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="33">
-        <v>37596</v>
+        <v>37547</v>
       </c>
       <c r="E58" s="21">
         <v>5</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -3309,25 +3321,25 @@
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="19">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="33">
-        <v>37547</v>
+        <v>37592</v>
       </c>
       <c r="E59" s="21">
         <v>5</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -3344,98 +3356,98 @@
       <c r="T59" s="4"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="19">
-        <v>77</v>
-      </c>
-      <c r="B60" s="21" t="s">
+      <c r="A60" s="13">
+        <v>78</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="33">
-        <v>37592</v>
-      </c>
-      <c r="E60" s="21">
+      <c r="D60" s="31">
+        <v>36910</v>
+      </c>
+      <c r="E60" s="14">
         <v>5</v>
       </c>
-      <c r="F60" s="19" t="s">
+      <c r="F60" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G60" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
+      <c r="G60" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="15"/>
+      <c r="T60" s="15"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="13">
-        <v>78</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" s="13" t="s">
+      <c r="A61" s="19">
+        <v>79</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="31">
-        <v>36910</v>
-      </c>
-      <c r="E61" s="14">
+      <c r="D61" s="33">
+        <v>37532</v>
+      </c>
+      <c r="E61" s="21">
         <v>5</v>
       </c>
-      <c r="F61" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="15"/>
-      <c r="T61" s="15"/>
+      <c r="F61" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="19">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="33">
-        <v>37532</v>
+        <v>37849</v>
       </c>
       <c r="E62" s="21">
         <v>5</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -3452,62 +3464,62 @@
       <c r="T62" s="4"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="19">
-        <v>80</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C63" s="19" t="s">
+      <c r="A63" s="13">
+        <v>81</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="33">
-        <v>37849</v>
-      </c>
-      <c r="E63" s="21">
+      <c r="D63" s="31">
+        <v>37648</v>
+      </c>
+      <c r="E63" s="14">
         <v>5</v>
       </c>
-      <c r="F63" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
+      <c r="F63" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="15"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="13">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="31">
-        <v>37648</v>
+        <v>37599</v>
       </c>
       <c r="E64" s="14">
         <v>5</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
@@ -3525,25 +3537,25 @@
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="13">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="31">
-        <v>37599</v>
+        <v>37672</v>
       </c>
       <c r="E65" s="14">
         <v>5</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
@@ -3561,25 +3573,25 @@
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="13">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="31">
-        <v>37672</v>
+        <v>36802</v>
       </c>
       <c r="E66" s="14">
         <v>5</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
@@ -3597,25 +3609,25 @@
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="13">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="31">
-        <v>36802</v>
+        <v>37540</v>
       </c>
       <c r="E67" s="14">
         <v>5</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
@@ -3633,25 +3645,25 @@
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="13">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="31">
-        <v>37540</v>
+        <v>37127</v>
       </c>
       <c r="E68" s="14">
         <v>5</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
@@ -3668,62 +3680,62 @@
       <c r="T68" s="15"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="13">
-        <v>86</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C69" s="13" t="s">
+      <c r="A69" s="19">
+        <v>87</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="31">
-        <v>37127</v>
-      </c>
-      <c r="E69" s="14">
+      <c r="D69" s="33">
+        <v>36781</v>
+      </c>
+      <c r="E69" s="21">
         <v>5</v>
       </c>
-      <c r="F69" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="15"/>
-      <c r="R69" s="15"/>
-      <c r="S69" s="15"/>
-      <c r="T69" s="15"/>
+      <c r="F69" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="19">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C70" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="33">
-        <v>36781</v>
+        <v>36727</v>
       </c>
       <c r="E70" s="21">
         <v>5</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
@@ -3740,98 +3752,98 @@
       <c r="T70" s="4"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="19">
-        <v>88</v>
-      </c>
-      <c r="B71" s="21" t="s">
+      <c r="A71" s="13">
+        <v>89</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="31">
+        <v>37091</v>
+      </c>
+      <c r="E71" s="14">
+        <v>5</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="15"/>
+      <c r="S71" s="15"/>
+      <c r="T71" s="15"/>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" s="19">
+        <v>90</v>
+      </c>
+      <c r="B72" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C72" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="33">
-        <v>36727</v>
-      </c>
-      <c r="E71" s="21">
+      <c r="D72" s="33">
+        <v>37645</v>
+      </c>
+      <c r="E72" s="21">
         <v>5</v>
       </c>
-      <c r="F71" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G71" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
-      <c r="T71" s="4"/>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="13">
-        <v>89</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="31">
-        <v>37091</v>
-      </c>
-      <c r="E72" s="14">
-        <v>5</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="15"/>
-      <c r="S72" s="15"/>
-      <c r="T72" s="15"/>
+      <c r="F72" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="19">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="33">
-        <v>37645</v>
+        <v>36959</v>
       </c>
       <c r="E73" s="21">
         <v>5</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
@@ -3849,25 +3861,25 @@
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" s="19">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="33">
-        <v>36959</v>
+        <v>37663</v>
       </c>
       <c r="E74" s="21">
         <v>5</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
@@ -3885,25 +3897,25 @@
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="19">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="33">
-        <v>37663</v>
+        <v>37355</v>
       </c>
       <c r="E75" s="21">
         <v>5</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
@@ -3921,25 +3933,25 @@
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="19">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="33">
-        <v>37355</v>
+        <v>36641</v>
       </c>
       <c r="E76" s="21">
         <v>5</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
@@ -3956,62 +3968,62 @@
       <c r="T76" s="4"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="19">
-        <v>94</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C77" s="19" t="s">
+      <c r="A77" s="13">
+        <v>95</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="33">
-        <v>36641</v>
-      </c>
-      <c r="E77" s="21">
+      <c r="D77" s="31">
+        <v>37238</v>
+      </c>
+      <c r="E77" s="14">
         <v>5</v>
       </c>
-      <c r="F77" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G77" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="4"/>
-      <c r="T77" s="4"/>
+      <c r="F77" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
+      <c r="S77" s="15"/>
+      <c r="T77" s="15"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" s="13">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="31">
-        <v>37238</v>
+        <v>37891</v>
       </c>
       <c r="E78" s="14">
         <v>5</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H78" s="15"/>
       <c r="I78" s="15"/>
@@ -4029,25 +4041,25 @@
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" s="13">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="31">
-        <v>37891</v>
+        <v>35338</v>
       </c>
       <c r="E79" s="14">
         <v>5</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
@@ -4064,134 +4076,134 @@
       <c r="T79" s="15"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="13">
-        <v>97</v>
-      </c>
-      <c r="B80" s="14" t="s">
+      <c r="A80" s="19">
+        <v>98</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="33">
+        <v>37452</v>
+      </c>
+      <c r="E80" s="21">
+        <v>5</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+    </row>
+    <row r="81" ht="14.25" customHeight="1">
+      <c r="A81" s="13">
+        <v>99</v>
+      </c>
+      <c r="B81" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="31">
-        <v>35338</v>
-      </c>
-      <c r="E80" s="14">
+      <c r="D81" s="31">
+        <v>36664</v>
+      </c>
+      <c r="E81" s="14">
         <v>5</v>
       </c>
-      <c r="F80" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="15"/>
-      <c r="S80" s="15"/>
-      <c r="T80" s="15"/>
-    </row>
-    <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="19">
-        <v>98</v>
-      </c>
-      <c r="B81" s="21" t="s">
+      <c r="F81" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="G81" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="15"/>
+      <c r="S81" s="15"/>
+      <c r="T81" s="15"/>
+    </row>
+    <row r="82" ht="14.25" customHeight="1">
+      <c r="A82" s="19">
+        <v>100</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="33">
-        <v>37452</v>
-      </c>
-      <c r="E81" s="21">
+      <c r="D82" s="33">
+        <v>37918</v>
+      </c>
+      <c r="E82" s="21">
         <v>5</v>
       </c>
-      <c r="F81" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G81" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-      <c r="S81" s="4"/>
-      <c r="T81" s="4"/>
-    </row>
-    <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="13">
-        <v>99</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="31">
-        <v>36664</v>
-      </c>
-      <c r="E82" s="14">
-        <v>5</v>
-      </c>
-      <c r="F82" s="13" t="s">
+      <c r="F82" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="G82" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="15"/>
-      <c r="S82" s="15"/>
-      <c r="T82" s="15"/>
+      <c r="G82" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" s="19">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="33">
-        <v>37918</v>
+        <v>37796</v>
       </c>
       <c r="E83" s="21">
         <v>5</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
@@ -4208,62 +4220,62 @@
       <c r="T83" s="4"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="19">
-        <v>101</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C84" s="19" t="s">
+      <c r="A84" s="13">
+        <v>102</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="33">
-        <v>37796</v>
-      </c>
-      <c r="E84" s="21">
+      <c r="D84" s="31">
+        <v>37297</v>
+      </c>
+      <c r="E84" s="14">
         <v>5</v>
       </c>
-      <c r="F84" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="G84" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
-      <c r="S84" s="4"/>
-      <c r="T84" s="4"/>
+      <c r="F84" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="15"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" s="13">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="31">
-        <v>37297</v>
+        <v>37783</v>
       </c>
       <c r="E85" s="14">
         <v>5</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
@@ -4281,25 +4293,25 @@
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" s="13">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="31">
-        <v>37783</v>
+        <v>37796</v>
       </c>
       <c r="E86" s="14">
         <v>5</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
@@ -4316,62 +4328,62 @@
       <c r="T86" s="15"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="13">
-        <v>104</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C87" s="13" t="s">
+      <c r="A87" s="19">
+        <v>105</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C87" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="31">
-        <v>37796</v>
-      </c>
-      <c r="E87" s="14">
+      <c r="D87" s="33">
+        <v>37479</v>
+      </c>
+      <c r="E87" s="21">
         <v>5</v>
       </c>
-      <c r="F87" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="15"/>
-      <c r="S87" s="15"/>
-      <c r="T87" s="15"/>
+      <c r="F87" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G87" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="4"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" s="19">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="33">
-        <v>37479</v>
+        <v>36965</v>
       </c>
       <c r="E88" s="21">
         <v>5</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
@@ -4389,25 +4401,25 @@
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="19">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C89" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="33">
-        <v>36965</v>
+        <v>37308</v>
       </c>
       <c r="E89" s="21">
         <v>5</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
@@ -4424,98 +4436,98 @@
       <c r="T89" s="4"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="19">
-        <v>107</v>
-      </c>
-      <c r="B90" s="21" t="s">
+      <c r="A90" s="13">
+        <v>108</v>
+      </c>
+      <c r="B90" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C90" s="19" t="s">
+      <c r="C90" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="33">
-        <v>37308</v>
-      </c>
-      <c r="E90" s="21">
+      <c r="D90" s="31">
+        <v>37854</v>
+      </c>
+      <c r="E90" s="14">
         <v>5</v>
       </c>
-      <c r="F90" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="G90" s="19" t="s">
+      <c r="F90" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="15"/>
+      <c r="S90" s="15"/>
+      <c r="T90" s="15"/>
+    </row>
+    <row r="91" ht="14.25" customHeight="1">
+      <c r="A91" s="19">
+        <v>109</v>
+      </c>
+      <c r="B91" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
-      <c r="S90" s="4"/>
-      <c r="T90" s="4"/>
-    </row>
-    <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="13">
-        <v>108</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D91" s="31">
-        <v>37854</v>
-      </c>
-      <c r="E91" s="14">
+      <c r="D91" s="33">
+        <v>37917</v>
+      </c>
+      <c r="E91" s="21">
         <v>5</v>
       </c>
-      <c r="F91" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="15"/>
-      <c r="L91" s="15"/>
-      <c r="M91" s="15"/>
-      <c r="N91" s="15"/>
-      <c r="O91" s="15"/>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="15"/>
-      <c r="R91" s="15"/>
-      <c r="S91" s="15"/>
-      <c r="T91" s="15"/>
+      <c r="F91" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G91" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="4"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" s="19">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="33">
-        <v>37917</v>
+        <v>37591</v>
       </c>
       <c r="E92" s="21">
         <v>5</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
@@ -4532,44 +4544,44 @@
       <c r="T92" s="4"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="19">
-        <v>110</v>
-      </c>
-      <c r="B93" s="21" t="s">
+      <c r="A93" s="13">
+        <v>111</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="31">
+        <v>37577</v>
+      </c>
+      <c r="E93" s="14">
+        <v>5</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G93" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C93" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="33">
-        <v>37591</v>
-      </c>
-      <c r="E93" s="21">
-        <v>5</v>
-      </c>
-      <c r="F93" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G93" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
-      <c r="S93" s="4"/>
-      <c r="T93" s="4"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="15"/>
+      <c r="O93" s="15"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="15"/>
+      <c r="S93" s="15"/>
+      <c r="T93" s="15"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" s="13">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B94" s="14" t="s">
         <v>135</v>
@@ -4578,16 +4590,16 @@
         <v>8</v>
       </c>
       <c r="D94" s="31">
-        <v>37577</v>
+        <v>37298</v>
       </c>
       <c r="E94" s="14">
         <v>5</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
@@ -4604,98 +4616,98 @@
       <c r="T94" s="15"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="13">
-        <v>112</v>
-      </c>
-      <c r="B95" s="14" t="s">
+      <c r="A95" s="19">
+        <v>113</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="33">
+        <v>37844</v>
+      </c>
+      <c r="E95" s="21">
+        <v>5</v>
+      </c>
+      <c r="F95" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G95" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+    </row>
+    <row r="96" ht="14.25" customHeight="1">
+      <c r="A96" s="13">
+        <v>114</v>
+      </c>
+      <c r="B96" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C96" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D95" s="31">
-        <v>37298</v>
-      </c>
-      <c r="E95" s="14">
+      <c r="D96" s="31">
+        <v>36781</v>
+      </c>
+      <c r="E96" s="14">
         <v>5</v>
       </c>
-      <c r="F95" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G95" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="15"/>
-      <c r="L95" s="15"/>
-      <c r="M95" s="15"/>
-      <c r="N95" s="15"/>
-      <c r="O95" s="15"/>
-      <c r="P95" s="15"/>
-      <c r="Q95" s="15"/>
-      <c r="R95" s="15"/>
-      <c r="S95" s="15"/>
-      <c r="T95" s="15"/>
-    </row>
-    <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="19">
-        <v>113</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="33">
-        <v>37844</v>
-      </c>
-      <c r="E96" s="21">
-        <v>5</v>
-      </c>
-      <c r="F96" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="G96" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="4"/>
-      <c r="S96" s="4"/>
-      <c r="T96" s="4"/>
+      <c r="F96" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="15"/>
+      <c r="O96" s="15"/>
+      <c r="P96" s="15"/>
+      <c r="Q96" s="15"/>
+      <c r="R96" s="15"/>
+      <c r="S96" s="15"/>
+      <c r="T96" s="15"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" s="13">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="31">
-        <v>36781</v>
+        <v>37165</v>
       </c>
       <c r="E97" s="14">
         <v>5</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
@@ -4712,62 +4724,62 @@
       <c r="T97" s="15"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" s="13">
-        <v>115</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" s="13" t="s">
+      <c r="A98" s="19">
+        <v>116</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D98" s="31">
-        <v>37165</v>
-      </c>
-      <c r="E98" s="14">
+      <c r="D98" s="33">
+        <v>37128</v>
+      </c>
+      <c r="E98" s="21">
         <v>5</v>
       </c>
-      <c r="F98" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G98" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="15"/>
-      <c r="L98" s="15"/>
-      <c r="M98" s="15"/>
-      <c r="N98" s="15"/>
-      <c r="O98" s="15"/>
-      <c r="P98" s="15"/>
-      <c r="Q98" s="15"/>
-      <c r="R98" s="15"/>
-      <c r="S98" s="15"/>
-      <c r="T98" s="15"/>
+      <c r="F98" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G98" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
       <c r="A99" s="19">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="33">
-        <v>37128</v>
+        <v>36911</v>
       </c>
       <c r="E99" s="21">
         <v>5</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G99" s="19" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
@@ -4784,62 +4796,62 @@
       <c r="T99" s="4"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="A100" s="19">
-        <v>117</v>
-      </c>
-      <c r="B100" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C100" s="19" t="s">
+      <c r="A100" s="13">
+        <v>118</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C100" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="33">
-        <v>36911</v>
-      </c>
-      <c r="E100" s="21">
+      <c r="D100" s="31">
+        <v>36685</v>
+      </c>
+      <c r="E100" s="14">
         <v>5</v>
       </c>
-      <c r="F100" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G100" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
-      <c r="O100" s="4"/>
-      <c r="P100" s="4"/>
-      <c r="Q100" s="4"/>
-      <c r="R100" s="4"/>
-      <c r="S100" s="4"/>
-      <c r="T100" s="4"/>
+      <c r="F100" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="15"/>
+      <c r="O100" s="15"/>
+      <c r="P100" s="15"/>
+      <c r="Q100" s="15"/>
+      <c r="R100" s="15"/>
+      <c r="S100" s="15"/>
+      <c r="T100" s="15"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
       <c r="A101" s="13">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="31">
-        <v>36685</v>
+        <v>37289</v>
       </c>
       <c r="E101" s="14">
         <v>5</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H101" s="15"/>
       <c r="I101" s="15"/>
@@ -4856,62 +4868,62 @@
       <c r="T101" s="15"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" s="13">
-        <v>119</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C102" s="13" t="s">
+      <c r="A102" s="19">
+        <v>120</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C102" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="31">
-        <v>37289</v>
-      </c>
-      <c r="E102" s="14">
+      <c r="D102" s="33">
+        <v>36957</v>
+      </c>
+      <c r="E102" s="21">
         <v>5</v>
       </c>
-      <c r="F102" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G102" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="15"/>
-      <c r="L102" s="15"/>
-      <c r="M102" s="15"/>
-      <c r="N102" s="15"/>
-      <c r="O102" s="15"/>
-      <c r="P102" s="15"/>
-      <c r="Q102" s="15"/>
-      <c r="R102" s="15"/>
-      <c r="S102" s="15"/>
-      <c r="T102" s="15"/>
+      <c r="F102" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="4"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="A103" s="19">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="33">
-        <v>36957</v>
+        <v>37097</v>
       </c>
       <c r="E103" s="21">
         <v>5</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
@@ -4928,80 +4940,80 @@
       <c r="T103" s="4"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" s="19">
-        <v>121</v>
-      </c>
-      <c r="B104" s="21" t="s">
+      <c r="A104" s="13">
+        <v>122</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="31">
+        <v>37000</v>
+      </c>
+      <c r="E104" s="14">
+        <v>5</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="15"/>
+      <c r="L104" s="15"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="15"/>
+      <c r="O104" s="15"/>
+      <c r="P104" s="15"/>
+      <c r="Q104" s="15"/>
+      <c r="R104" s="15"/>
+      <c r="S104" s="15"/>
+      <c r="T104" s="15"/>
+    </row>
+    <row r="105" ht="14.25" customHeight="1">
+      <c r="A105" s="19">
+        <v>123</v>
+      </c>
+      <c r="B105" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C104" s="19" t="s">
+      <c r="C105" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="33">
-        <v>37097</v>
-      </c>
-      <c r="E104" s="21">
+      <c r="D105" s="33">
+        <v>37514</v>
+      </c>
+      <c r="E105" s="21">
         <v>5</v>
       </c>
-      <c r="F104" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G104" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
-      <c r="O104" s="4"/>
-      <c r="P104" s="4"/>
-      <c r="Q104" s="4"/>
-      <c r="R104" s="4"/>
-      <c r="S104" s="4"/>
-      <c r="T104" s="4"/>
-    </row>
-    <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" s="13">
-        <v>122</v>
-      </c>
-      <c r="B105" s="14" t="s">
+      <c r="F105" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G105" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C105" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="31">
-        <v>37000</v>
-      </c>
-      <c r="E105" s="14">
-        <v>5</v>
-      </c>
-      <c r="F105" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G105" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15"/>
-      <c r="O105" s="15"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="15"/>
-      <c r="S105" s="15"/>
-      <c r="T105" s="15"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
+      <c r="S105" s="4"/>
+      <c r="T105" s="4"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="A106" s="19">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B106" s="21" t="s">
         <v>148</v>
@@ -5010,13 +5022,13 @@
         <v>8</v>
       </c>
       <c r="D106" s="33">
-        <v>37514</v>
+        <v>36308</v>
       </c>
       <c r="E106" s="21">
         <v>5</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G106" s="19" t="s">
         <v>149</v>
@@ -5037,7 +5049,7 @@
     </row>
     <row r="107" ht="14.25" customHeight="1">
       <c r="A107" s="19">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B107" s="21" t="s">
         <v>150</v>
@@ -5046,16 +5058,16 @@
         <v>8</v>
       </c>
       <c r="D107" s="33">
-        <v>36308</v>
+        <v>37834</v>
       </c>
       <c r="E107" s="21">
         <v>5</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G107" s="19" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
@@ -5072,134 +5084,134 @@
       <c r="T107" s="4"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
-      <c r="A108" s="19">
-        <v>125</v>
-      </c>
-      <c r="B108" s="21" t="s">
+      <c r="A108" s="13">
+        <v>126</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="31">
+        <v>37507</v>
+      </c>
+      <c r="E108" s="14">
+        <v>5</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="15"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="15"/>
+      <c r="O108" s="15"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="15"/>
+      <c r="S108" s="15"/>
+      <c r="T108" s="15"/>
+    </row>
+    <row r="109" ht="14.25" customHeight="1">
+      <c r="A109" s="19">
+        <v>127</v>
+      </c>
+      <c r="B109" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C108" s="19" t="s">
+      <c r="C109" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D108" s="33">
-        <v>37834</v>
-      </c>
-      <c r="E108" s="21">
+      <c r="D109" s="33">
+        <v>37272</v>
+      </c>
+      <c r="E109" s="21">
         <v>5</v>
       </c>
-      <c r="F108" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G108" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
-      <c r="M108" s="4"/>
-      <c r="N108" s="4"/>
-      <c r="O108" s="4"/>
-      <c r="P108" s="4"/>
-      <c r="Q108" s="4"/>
-      <c r="R108" s="4"/>
-      <c r="S108" s="4"/>
-      <c r="T108" s="4"/>
-    </row>
-    <row r="109" ht="14.25" customHeight="1">
-      <c r="A109" s="13">
-        <v>126</v>
-      </c>
-      <c r="B109" s="14" t="s">
+      <c r="F109" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="4"/>
+      <c r="S109" s="4"/>
+      <c r="T109" s="4"/>
+    </row>
+    <row r="110" ht="14.25" customHeight="1">
+      <c r="A110" s="13">
+        <v>128</v>
+      </c>
+      <c r="B110" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="C110" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D109" s="31">
-        <v>37507</v>
-      </c>
-      <c r="E109" s="14">
+      <c r="D110" s="31">
+        <v>37253</v>
+      </c>
+      <c r="E110" s="14">
         <v>5</v>
       </c>
-      <c r="F109" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G109" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="15"/>
-      <c r="L109" s="15"/>
-      <c r="M109" s="15"/>
-      <c r="N109" s="15"/>
-      <c r="O109" s="15"/>
-      <c r="P109" s="15"/>
-      <c r="Q109" s="15"/>
-      <c r="R109" s="15"/>
-      <c r="S109" s="15"/>
-      <c r="T109" s="15"/>
-    </row>
-    <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" s="19">
-        <v>127</v>
-      </c>
-      <c r="B110" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C110" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="33">
-        <v>37272</v>
-      </c>
-      <c r="E110" s="21">
-        <v>5</v>
-      </c>
-      <c r="F110" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G110" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
-      <c r="M110" s="4"/>
-      <c r="N110" s="4"/>
-      <c r="O110" s="4"/>
-      <c r="P110" s="4"/>
-      <c r="Q110" s="4"/>
-      <c r="R110" s="4"/>
-      <c r="S110" s="4"/>
-      <c r="T110" s="4"/>
+      <c r="F110" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="15"/>
+      <c r="L110" s="15"/>
+      <c r="M110" s="15"/>
+      <c r="N110" s="15"/>
+      <c r="O110" s="15"/>
+      <c r="P110" s="15"/>
+      <c r="Q110" s="15"/>
+      <c r="R110" s="15"/>
+      <c r="S110" s="15"/>
+      <c r="T110" s="15"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="A111" s="13">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="C111" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="31">
-        <v>37253</v>
+        <v>37599</v>
       </c>
       <c r="E111" s="14">
         <v>5</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H111" s="15"/>
       <c r="I111" s="15"/>
@@ -5217,25 +5229,25 @@
     </row>
     <row r="112" ht="14.25" customHeight="1">
       <c r="A112" s="13">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="C112" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="31">
-        <v>37599</v>
+        <v>37096</v>
       </c>
       <c r="E112" s="14">
         <v>5</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
@@ -5253,25 +5265,25 @@
     </row>
     <row r="113" ht="14.25" customHeight="1">
       <c r="A113" s="13">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="31">
-        <v>37096</v>
+        <v>37268</v>
       </c>
       <c r="E113" s="14">
         <v>5</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H113" s="15"/>
       <c r="I113" s="15"/>
@@ -5288,44 +5300,44 @@
       <c r="T113" s="15"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="A114" s="13">
-        <v>131</v>
-      </c>
-      <c r="B114" s="14" t="s">
+      <c r="A114" s="19">
+        <v>132</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="33">
+        <v>36685</v>
+      </c>
+      <c r="E114" s="21">
+        <v>5</v>
+      </c>
+      <c r="F114" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C114" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="31">
-        <v>37268</v>
-      </c>
-      <c r="E114" s="14">
-        <v>5</v>
-      </c>
-      <c r="F114" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G114" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="15"/>
-      <c r="K114" s="15"/>
-      <c r="L114" s="15"/>
-      <c r="M114" s="15"/>
-      <c r="N114" s="15"/>
-      <c r="O114" s="15"/>
-      <c r="P114" s="15"/>
-      <c r="Q114" s="15"/>
-      <c r="R114" s="15"/>
-      <c r="S114" s="15"/>
-      <c r="T114" s="15"/>
+      <c r="G114" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="4"/>
+      <c r="S114" s="4"/>
+      <c r="T114" s="4"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
       <c r="A115" s="19">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B115" s="21" t="s">
         <v>158</v>
@@ -5334,16 +5346,16 @@
         <v>8</v>
       </c>
       <c r="D115" s="33">
-        <v>36685</v>
+        <v>36885</v>
       </c>
       <c r="E115" s="21">
         <v>5</v>
       </c>
       <c r="F115" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G115" s="19" t="s">
         <v>159</v>
-      </c>
-      <c r="G115" s="19" t="s">
-        <v>131</v>
       </c>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
@@ -5361,25 +5373,25 @@
     </row>
     <row r="116" ht="14.25" customHeight="1">
       <c r="A116" s="19">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B116" s="21" t="s">
         <v>160</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="33">
-        <v>36885</v>
+        <v>21</v>
+      </c>
+      <c r="D116" s="34">
+        <v>37541</v>
       </c>
       <c r="E116" s="21">
         <v>5</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="G116" s="19" t="s">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
@@ -5397,25 +5409,25 @@
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="A117" s="19">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D117" s="34">
-        <v>37541</v>
+        <v>21</v>
+      </c>
+      <c r="D117" s="35">
+        <v>37072</v>
       </c>
       <c r="E117" s="21">
         <v>5</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G117" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
@@ -5433,25 +5445,25 @@
     </row>
     <row r="118" ht="14.25" customHeight="1">
       <c r="A118" s="19">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D118" s="35">
-        <v>37072</v>
+        <v>8</v>
+      </c>
+      <c r="D118" s="34">
+        <v>37461</v>
       </c>
       <c r="E118" s="21">
         <v>5</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G118" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
@@ -5469,25 +5481,25 @@
     </row>
     <row r="119" ht="14.25" customHeight="1">
       <c r="A119" s="19">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C119" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="34">
-        <v>37461</v>
+        <v>36835</v>
       </c>
       <c r="E119" s="21">
         <v>5</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
@@ -5505,25 +5517,25 @@
     </row>
     <row r="120" ht="14.25" customHeight="1">
       <c r="A120" s="19">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C120" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D120" s="34">
-        <v>36835</v>
+      <c r="D120" s="36">
+        <v>36802</v>
       </c>
       <c r="E120" s="21">
         <v>5</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
@@ -5541,25 +5553,25 @@
     </row>
     <row r="121" ht="14.25" customHeight="1">
       <c r="A121" s="19">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C121" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="36">
-        <v>36802</v>
+        <v>37324</v>
       </c>
       <c r="E121" s="21">
         <v>5</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G121" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
@@ -5576,134 +5588,134 @@
       <c r="T121" s="4"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" s="19">
-        <v>139</v>
-      </c>
-      <c r="B122" s="21" t="s">
+      <c r="A122" s="13">
+        <v>140</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="37">
+        <v>36902</v>
+      </c>
+      <c r="E122" s="14">
+        <v>5</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G122" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="15"/>
+      <c r="K122" s="15"/>
+      <c r="L122" s="15"/>
+      <c r="M122" s="15"/>
+      <c r="N122" s="15"/>
+      <c r="O122" s="15"/>
+      <c r="P122" s="15"/>
+      <c r="Q122" s="15"/>
+      <c r="R122" s="15"/>
+      <c r="S122" s="15"/>
+      <c r="T122" s="15"/>
+    </row>
+    <row r="123" ht="14.25" customHeight="1">
+      <c r="A123" s="19">
+        <v>141</v>
+      </c>
+      <c r="B123" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C122" s="19" t="s">
+      <c r="C123" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" s="34">
+        <v>37691</v>
+      </c>
+      <c r="E123" s="21">
+        <v>5</v>
+      </c>
+      <c r="F123" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G123" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+      <c r="R123" s="4"/>
+      <c r="S123" s="4"/>
+      <c r="T123" s="4"/>
+    </row>
+    <row r="124" ht="14.25" customHeight="1">
+      <c r="A124" s="13">
+        <v>142</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C124" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D122" s="36">
-        <v>37324</v>
-      </c>
-      <c r="E122" s="21">
-        <v>5</v>
-      </c>
-      <c r="F122" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G122" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
-      <c r="N122" s="4"/>
-      <c r="O122" s="4"/>
-      <c r="P122" s="4"/>
-      <c r="Q122" s="4"/>
-      <c r="R122" s="4"/>
-      <c r="S122" s="4"/>
-      <c r="T122" s="4"/>
-    </row>
-    <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" s="13">
-        <v>140</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C123" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="37">
-        <v>36902</v>
-      </c>
-      <c r="E123" s="14">
-        <v>5</v>
-      </c>
-      <c r="F123" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G123" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="15"/>
-      <c r="K123" s="15"/>
-      <c r="L123" s="15"/>
-      <c r="M123" s="15"/>
-      <c r="N123" s="15"/>
-      <c r="O123" s="15"/>
-      <c r="P123" s="15"/>
-      <c r="Q123" s="15"/>
-      <c r="R123" s="15"/>
-      <c r="S123" s="15"/>
-      <c r="T123" s="15"/>
-    </row>
-    <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" s="19">
-        <v>141</v>
-      </c>
-      <c r="B124" s="21" t="s">
+      <c r="D124" s="31">
+        <v>36617</v>
+      </c>
+      <c r="E124" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C124" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D124" s="34">
-        <v>37691</v>
-      </c>
-      <c r="E124" s="21">
-        <v>5</v>
-      </c>
-      <c r="F124" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G124" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-      <c r="M124" s="4"/>
-      <c r="N124" s="4"/>
-      <c r="O124" s="4"/>
-      <c r="P124" s="4"/>
-      <c r="Q124" s="4"/>
-      <c r="R124" s="4"/>
-      <c r="S124" s="4"/>
-      <c r="T124" s="4"/>
+      <c r="F124" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="15"/>
+      <c r="K124" s="15"/>
+      <c r="L124" s="15"/>
+      <c r="M124" s="15"/>
+      <c r="N124" s="15"/>
+      <c r="O124" s="15"/>
+      <c r="P124" s="15"/>
+      <c r="Q124" s="15"/>
+      <c r="R124" s="15"/>
+      <c r="S124" s="15"/>
+      <c r="T124" s="15"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
       <c r="A125" s="13">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C125" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="31">
-        <v>36617</v>
+        <v>48726</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
@@ -5721,25 +5733,25 @@
     </row>
     <row r="126" ht="14.25" customHeight="1">
       <c r="A126" s="13">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="31">
-        <v>48726</v>
+        <v>37539</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
@@ -5757,25 +5769,25 @@
     </row>
     <row r="127" ht="14.25" customHeight="1">
       <c r="A127" s="13">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="31">
-        <v>37539</v>
+        <v>37794</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
@@ -5793,25 +5805,25 @@
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="A128" s="13">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="31">
-        <v>37794</v>
+        <v>37638</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
@@ -5828,62 +5840,62 @@
       <c r="T128" s="15"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" s="13">
-        <v>146</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C129" s="13" t="s">
+      <c r="A129" s="23">
+        <v>147</v>
+      </c>
+      <c r="B129" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C129" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D129" s="31">
-        <v>37638</v>
-      </c>
-      <c r="E129" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F129" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G129" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="15"/>
-      <c r="K129" s="15"/>
-      <c r="L129" s="15"/>
-      <c r="M129" s="15"/>
-      <c r="N129" s="15"/>
-      <c r="O129" s="15"/>
-      <c r="P129" s="15"/>
-      <c r="Q129" s="15"/>
-      <c r="R129" s="15"/>
-      <c r="S129" s="15"/>
-      <c r="T129" s="15"/>
+      <c r="D129" s="38">
+        <v>37572</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F129" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G129" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+      <c r="R129" s="4"/>
+      <c r="S129" s="4"/>
+      <c r="T129" s="4"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
       <c r="A130" s="23">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C130" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D130" s="38">
-        <v>37572</v>
+        <v>37775</v>
       </c>
       <c r="E130" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F130" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G130" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
@@ -5901,25 +5913,25 @@
     </row>
     <row r="131" ht="14.25" customHeight="1">
       <c r="A131" s="23">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C131" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D131" s="38">
-        <v>37775</v>
+      <c r="D131" s="38" t="s">
+        <v>178</v>
       </c>
       <c r="E131" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F131" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G131" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
@@ -5936,62 +5948,62 @@
       <c r="T131" s="4"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" s="23">
-        <v>149</v>
-      </c>
-      <c r="B132" s="24" t="s">
+      <c r="A132" s="13">
+        <v>150</v>
+      </c>
+      <c r="B132" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C132" s="23" t="s">
+      <c r="C132" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E132" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F132" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G132" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
-      <c r="O132" s="4"/>
-      <c r="P132" s="4"/>
-      <c r="Q132" s="4"/>
-      <c r="R132" s="4"/>
-      <c r="S132" s="4"/>
-      <c r="T132" s="4"/>
+      <c r="D132" s="31">
+        <v>37793</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="15"/>
+      <c r="K132" s="15"/>
+      <c r="L132" s="15"/>
+      <c r="M132" s="15"/>
+      <c r="N132" s="15"/>
+      <c r="O132" s="15"/>
+      <c r="P132" s="15"/>
+      <c r="Q132" s="15"/>
+      <c r="R132" s="15"/>
+      <c r="S132" s="15"/>
+      <c r="T132" s="15"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
       <c r="A133" s="13">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="31">
-        <v>37793</v>
+        <v>37098</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H133" s="15"/>
       <c r="I133" s="15"/>
@@ -6008,98 +6020,98 @@
       <c r="T133" s="15"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" s="13">
-        <v>151</v>
-      </c>
-      <c r="B134" s="14" t="s">
+      <c r="A134" s="23">
+        <v>152</v>
+      </c>
+      <c r="B134" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C134" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="38">
+        <v>36770</v>
+      </c>
+      <c r="E134" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F134" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G134" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4"/>
+      <c r="O134" s="4"/>
+      <c r="P134" s="4"/>
+      <c r="Q134" s="4"/>
+      <c r="R134" s="4"/>
+      <c r="S134" s="4"/>
+      <c r="T134" s="4"/>
+    </row>
+    <row r="135" ht="14.25" customHeight="1">
+      <c r="A135" s="13">
+        <v>153</v>
+      </c>
+      <c r="B135" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C134" s="13" t="s">
+      <c r="C135" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D134" s="31">
-        <v>37098</v>
-      </c>
-      <c r="E134" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F134" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G134" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="15"/>
-      <c r="K134" s="15"/>
-      <c r="L134" s="15"/>
-      <c r="M134" s="15"/>
-      <c r="N134" s="15"/>
-      <c r="O134" s="15"/>
-      <c r="P134" s="15"/>
-      <c r="Q134" s="15"/>
-      <c r="R134" s="15"/>
-      <c r="S134" s="15"/>
-      <c r="T134" s="15"/>
-    </row>
-    <row r="135" ht="14.25" customHeight="1">
-      <c r="A135" s="23">
-        <v>152</v>
-      </c>
-      <c r="B135" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="C135" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="38">
-        <v>36770</v>
-      </c>
-      <c r="E135" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F135" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G135" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
-      <c r="Q135" s="4"/>
-      <c r="R135" s="4"/>
-      <c r="S135" s="4"/>
-      <c r="T135" s="4"/>
+      <c r="D135" s="31">
+        <v>36643</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F135" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G135" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="15"/>
+      <c r="K135" s="15"/>
+      <c r="L135" s="15"/>
+      <c r="M135" s="15"/>
+      <c r="N135" s="15"/>
+      <c r="O135" s="15"/>
+      <c r="P135" s="15"/>
+      <c r="Q135" s="15"/>
+      <c r="R135" s="15"/>
+      <c r="S135" s="15"/>
+      <c r="T135" s="15"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="A136" s="13">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C136" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="31">
-        <v>36643</v>
+        <v>37805</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H136" s="15"/>
       <c r="I136" s="15"/>
@@ -6117,25 +6129,25 @@
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="A137" s="13">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C137" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="31">
-        <v>37805</v>
+        <v>37021</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H137" s="15"/>
       <c r="I137" s="15"/>
@@ -6152,134 +6164,134 @@
       <c r="T137" s="15"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
-      <c r="A138" s="13">
-        <v>155</v>
-      </c>
-      <c r="B138" s="14" t="s">
+      <c r="A138" s="23">
+        <v>156</v>
+      </c>
+      <c r="B138" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C138" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="38">
+        <v>37549</v>
+      </c>
+      <c r="E138" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F138" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G138" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
+      <c r="L138" s="4"/>
+      <c r="M138" s="4"/>
+      <c r="N138" s="4"/>
+      <c r="O138" s="4"/>
+      <c r="P138" s="4"/>
+      <c r="Q138" s="4"/>
+      <c r="R138" s="4"/>
+      <c r="S138" s="4"/>
+      <c r="T138" s="4"/>
+    </row>
+    <row r="139" ht="14.25" customHeight="1">
+      <c r="A139" s="13">
+        <v>157</v>
+      </c>
+      <c r="B139" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C138" s="13" t="s">
+      <c r="C139" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D138" s="31">
-        <v>37021</v>
-      </c>
-      <c r="E138" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F138" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G138" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="15"/>
-      <c r="K138" s="15"/>
-      <c r="L138" s="15"/>
-      <c r="M138" s="15"/>
-      <c r="N138" s="15"/>
-      <c r="O138" s="15"/>
-      <c r="P138" s="15"/>
-      <c r="Q138" s="15"/>
-      <c r="R138" s="15"/>
-      <c r="S138" s="15"/>
-      <c r="T138" s="15"/>
-    </row>
-    <row r="139" ht="14.25" customHeight="1">
-      <c r="A139" s="23">
-        <v>156</v>
-      </c>
-      <c r="B139" s="24" t="s">
+      <c r="D139" s="31">
+        <v>36894</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F139" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G139" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="15"/>
+      <c r="K139" s="15"/>
+      <c r="L139" s="15"/>
+      <c r="M139" s="15"/>
+      <c r="N139" s="15"/>
+      <c r="O139" s="15"/>
+      <c r="P139" s="15"/>
+      <c r="Q139" s="15"/>
+      <c r="R139" s="15"/>
+      <c r="S139" s="15"/>
+      <c r="T139" s="15"/>
+    </row>
+    <row r="140" ht="14.25" customHeight="1">
+      <c r="A140" s="23">
+        <v>158</v>
+      </c>
+      <c r="B140" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="C139" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" s="38">
-        <v>37549</v>
-      </c>
-      <c r="E139" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F139" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G139" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="4"/>
-      <c r="N139" s="4"/>
-      <c r="O139" s="4"/>
-      <c r="P139" s="4"/>
-      <c r="Q139" s="4"/>
-      <c r="R139" s="4"/>
-      <c r="S139" s="4"/>
-      <c r="T139" s="4"/>
-    </row>
-    <row r="140" ht="14.25" customHeight="1">
-      <c r="A140" s="13">
-        <v>157</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" s="31">
-        <v>36894</v>
-      </c>
-      <c r="E140" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F140" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G140" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="15"/>
-      <c r="K140" s="15"/>
-      <c r="L140" s="15"/>
-      <c r="M140" s="15"/>
-      <c r="N140" s="15"/>
-      <c r="O140" s="15"/>
-      <c r="P140" s="15"/>
-      <c r="Q140" s="15"/>
-      <c r="R140" s="15"/>
-      <c r="S140" s="15"/>
-      <c r="T140" s="15"/>
+      <c r="C140" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D140" s="38">
+        <v>37603</v>
+      </c>
+      <c r="E140" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F140" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G140" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="4"/>
+      <c r="O140" s="4"/>
+      <c r="P140" s="4"/>
+      <c r="Q140" s="4"/>
+      <c r="R140" s="4"/>
+      <c r="S140" s="4"/>
+      <c r="T140" s="4"/>
     </row>
     <row r="141" ht="14.25" customHeight="1">
       <c r="A141" s="23">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B141" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D141" s="38">
-        <v>37603</v>
+        <v>37028</v>
       </c>
       <c r="E141" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F141" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G141" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
@@ -6296,62 +6308,62 @@
       <c r="T141" s="4"/>
     </row>
     <row r="142" ht="14.25" customHeight="1">
-      <c r="A142" s="23">
-        <v>159</v>
-      </c>
-      <c r="B142" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="C142" s="23" t="s">
+      <c r="A142" s="13">
+        <v>160</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C142" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D142" s="38">
-        <v>37028</v>
-      </c>
-      <c r="E142" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F142" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G142" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H142" s="4"/>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="4"/>
-      <c r="O142" s="4"/>
-      <c r="P142" s="4"/>
-      <c r="Q142" s="4"/>
-      <c r="R142" s="4"/>
-      <c r="S142" s="4"/>
-      <c r="T142" s="4"/>
+      <c r="D142" s="31">
+        <v>37397</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F142" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G142" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="15"/>
+      <c r="L142" s="15"/>
+      <c r="M142" s="15"/>
+      <c r="N142" s="15"/>
+      <c r="O142" s="15"/>
+      <c r="P142" s="15"/>
+      <c r="Q142" s="15"/>
+      <c r="R142" s="15"/>
+      <c r="S142" s="15"/>
+      <c r="T142" s="15"/>
     </row>
     <row r="143" ht="14.25" customHeight="1">
       <c r="A143" s="13">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C143" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="31">
-        <v>37397</v>
+        <v>37341</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H143" s="15"/>
       <c r="I143" s="15"/>
@@ -6368,98 +6380,98 @@
       <c r="T143" s="15"/>
     </row>
     <row r="144" ht="14.25" customHeight="1">
-      <c r="A144" s="13">
-        <v>161</v>
-      </c>
-      <c r="B144" s="14" t="s">
+      <c r="A144" s="23">
+        <v>162</v>
+      </c>
+      <c r="B144" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C144" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" s="38">
+        <v>37135</v>
+      </c>
+      <c r="E144" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F144" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G144" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
+      <c r="Q144" s="4"/>
+      <c r="R144" s="4"/>
+      <c r="S144" s="4"/>
+      <c r="T144" s="4"/>
+    </row>
+    <row r="145" ht="14.25" customHeight="1">
+      <c r="A145" s="13">
+        <v>163</v>
+      </c>
+      <c r="B145" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C144" s="13" t="s">
+      <c r="C145" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D144" s="31">
-        <v>37341</v>
-      </c>
-      <c r="E144" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F144" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G144" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
-      <c r="J144" s="15"/>
-      <c r="K144" s="15"/>
-      <c r="L144" s="15"/>
-      <c r="M144" s="15"/>
-      <c r="N144" s="15"/>
-      <c r="O144" s="15"/>
-      <c r="P144" s="15"/>
-      <c r="Q144" s="15"/>
-      <c r="R144" s="15"/>
-      <c r="S144" s="15"/>
-      <c r="T144" s="15"/>
-    </row>
-    <row r="145" ht="14.25" customHeight="1">
-      <c r="A145" s="23">
-        <v>162</v>
-      </c>
-      <c r="B145" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="C145" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D145" s="38">
-        <v>37135</v>
-      </c>
-      <c r="E145" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F145" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G145" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H145" s="4"/>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
-      <c r="K145" s="4"/>
-      <c r="L145" s="4"/>
-      <c r="M145" s="4"/>
-      <c r="N145" s="4"/>
-      <c r="O145" s="4"/>
-      <c r="P145" s="4"/>
-      <c r="Q145" s="4"/>
-      <c r="R145" s="4"/>
-      <c r="S145" s="4"/>
-      <c r="T145" s="4"/>
+      <c r="D145" s="31">
+        <v>37265</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F145" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G145" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="15"/>
+      <c r="K145" s="15"/>
+      <c r="L145" s="15"/>
+      <c r="M145" s="15"/>
+      <c r="N145" s="15"/>
+      <c r="O145" s="15"/>
+      <c r="P145" s="15"/>
+      <c r="Q145" s="15"/>
+      <c r="R145" s="15"/>
+      <c r="S145" s="15"/>
+      <c r="T145" s="15"/>
     </row>
     <row r="146" ht="14.25" customHeight="1">
       <c r="A146" s="13">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C146" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="31">
-        <v>37265</v>
+        <v>37863</v>
       </c>
       <c r="E146" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H146" s="15"/>
       <c r="I146" s="15"/>
@@ -6477,25 +6489,25 @@
     </row>
     <row r="147" ht="14.25" customHeight="1">
       <c r="A147" s="13">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C147" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="31">
-        <v>37863</v>
+        <v>37405</v>
       </c>
       <c r="E147" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H147" s="15"/>
       <c r="I147" s="15"/>
@@ -6513,25 +6525,25 @@
     </row>
     <row r="148" ht="14.25" customHeight="1">
       <c r="A148" s="13">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C148" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="31">
-        <v>37405</v>
+        <v>37828</v>
       </c>
       <c r="E148" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H148" s="15"/>
       <c r="I148" s="15"/>
@@ -6549,25 +6561,25 @@
     </row>
     <row r="149" ht="14.25" customHeight="1">
       <c r="A149" s="13">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C149" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="31">
-        <v>37828</v>
+        <v>37481</v>
       </c>
       <c r="E149" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F149" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G149" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H149" s="15"/>
       <c r="I149" s="15"/>
@@ -6584,170 +6596,170 @@
       <c r="T149" s="15"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="A150" s="13">
-        <v>167</v>
-      </c>
-      <c r="B150" s="14" t="s">
+      <c r="A150" s="23">
+        <v>168</v>
+      </c>
+      <c r="B150" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C150" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" s="38">
+        <v>36894</v>
+      </c>
+      <c r="E150" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F150" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G150" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
+      <c r="R150" s="4"/>
+      <c r="S150" s="4"/>
+      <c r="T150" s="4"/>
+    </row>
+    <row r="151" ht="14.25" customHeight="1">
+      <c r="A151" s="13">
+        <v>169</v>
+      </c>
+      <c r="B151" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="C150" s="13" t="s">
+      <c r="C151" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D150" s="31">
-        <v>37481</v>
-      </c>
-      <c r="E150" s="14" t="s">
+      <c r="D151" s="31">
+        <v>37757</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F151" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G151" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="15"/>
+      <c r="K151" s="15"/>
+      <c r="L151" s="15"/>
+      <c r="M151" s="15"/>
+      <c r="N151" s="15"/>
+      <c r="O151" s="15"/>
+      <c r="P151" s="15"/>
+      <c r="Q151" s="15"/>
+      <c r="R151" s="15"/>
+      <c r="S151" s="15"/>
+      <c r="T151" s="15"/>
+    </row>
+    <row r="152" ht="14.25" customHeight="1">
+      <c r="A152" s="23">
+        <v>170</v>
+      </c>
+      <c r="B152" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C152" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="38">
+        <v>37714</v>
+      </c>
+      <c r="E152" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F152" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G152" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="4"/>
+      <c r="N152" s="4"/>
+      <c r="O152" s="4"/>
+      <c r="P152" s="4"/>
+      <c r="Q152" s="4"/>
+      <c r="R152" s="4"/>
+      <c r="S152" s="4"/>
+      <c r="T152" s="4"/>
+    </row>
+    <row r="153" ht="14.25" customHeight="1">
+      <c r="A153" s="13">
         <v>171</v>
       </c>
-      <c r="F150" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G150" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H150" s="15"/>
-      <c r="I150" s="15"/>
-      <c r="J150" s="15"/>
-      <c r="K150" s="15"/>
-      <c r="L150" s="15"/>
-      <c r="M150" s="15"/>
-      <c r="N150" s="15"/>
-      <c r="O150" s="15"/>
-      <c r="P150" s="15"/>
-      <c r="Q150" s="15"/>
-      <c r="R150" s="15"/>
-      <c r="S150" s="15"/>
-      <c r="T150" s="15"/>
-    </row>
-    <row r="151" ht="14.25" customHeight="1">
-      <c r="A151" s="23">
-        <v>168</v>
-      </c>
-      <c r="B151" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="C151" s="23" t="s">
+      <c r="B153" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C153" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D151" s="38">
-        <v>36894</v>
-      </c>
-      <c r="E151" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F151" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G151" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
-      <c r="M151" s="4"/>
-      <c r="N151" s="4"/>
-      <c r="O151" s="4"/>
-      <c r="P151" s="4"/>
-      <c r="Q151" s="4"/>
-      <c r="R151" s="4"/>
-      <c r="S151" s="4"/>
-      <c r="T151" s="4"/>
-    </row>
-    <row r="152" ht="14.25" customHeight="1">
-      <c r="A152" s="13">
+      <c r="D153" s="31">
+        <v>36790</v>
+      </c>
+      <c r="E153" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B152" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="31">
-        <v>37757</v>
-      </c>
-      <c r="E152" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F152" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G152" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H152" s="15"/>
-      <c r="I152" s="15"/>
-      <c r="J152" s="15"/>
-      <c r="K152" s="15"/>
-      <c r="L152" s="15"/>
-      <c r="M152" s="15"/>
-      <c r="N152" s="15"/>
-      <c r="O152" s="15"/>
-      <c r="P152" s="15"/>
-      <c r="Q152" s="15"/>
-      <c r="R152" s="15"/>
-      <c r="S152" s="15"/>
-      <c r="T152" s="15"/>
-    </row>
-    <row r="153" ht="14.25" customHeight="1">
-      <c r="A153" s="23">
+      <c r="F153" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B153" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="C153" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="38">
-        <v>37714</v>
-      </c>
-      <c r="E153" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F153" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G153" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H153" s="4"/>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
-      <c r="O153" s="4"/>
-      <c r="P153" s="4"/>
-      <c r="Q153" s="4"/>
-      <c r="R153" s="4"/>
-      <c r="S153" s="4"/>
-      <c r="T153" s="4"/>
+      <c r="G153" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H153" s="15"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="15"/>
+      <c r="K153" s="15"/>
+      <c r="L153" s="15"/>
+      <c r="M153" s="15"/>
+      <c r="N153" s="15"/>
+      <c r="O153" s="15"/>
+      <c r="P153" s="15"/>
+      <c r="Q153" s="15"/>
+      <c r="R153" s="15"/>
+      <c r="S153" s="15"/>
+      <c r="T153" s="15"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
       <c r="A154" s="13">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C154" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="31">
-        <v>36790</v>
+        <v>37945</v>
       </c>
       <c r="E154" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G154" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H154" s="15"/>
       <c r="I154" s="15"/>
@@ -6765,25 +6777,25 @@
     </row>
     <row r="155" ht="14.25" customHeight="1">
       <c r="A155" s="13">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C155" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D155" s="31">
-        <v>37945</v>
+        <v>36925</v>
       </c>
       <c r="E155" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F155" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G155" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H155" s="15"/>
       <c r="I155" s="15"/>
@@ -6801,25 +6813,25 @@
     </row>
     <row r="156" ht="14.25" customHeight="1">
       <c r="A156" s="13">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C156" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="31">
-        <v>36925</v>
+        <v>37656</v>
       </c>
       <c r="E156" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F156" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H156" s="15"/>
       <c r="I156" s="15"/>
@@ -6837,25 +6849,25 @@
     </row>
     <row r="157" ht="14.25" customHeight="1">
       <c r="A157" s="13">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C157" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="31">
-        <v>37656</v>
+        <v>36920</v>
       </c>
       <c r="E157" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F157" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G157" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H157" s="15"/>
       <c r="I157" s="15"/>
@@ -6872,134 +6884,134 @@
       <c r="T157" s="15"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="A158" s="13">
-        <v>175</v>
-      </c>
-      <c r="B158" s="14" t="s">
+      <c r="A158" s="23">
+        <v>176</v>
+      </c>
+      <c r="B158" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C158" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" s="38">
+        <v>37506</v>
+      </c>
+      <c r="E158" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F158" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G158" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="4"/>
+      <c r="M158" s="4"/>
+      <c r="N158" s="4"/>
+      <c r="O158" s="4"/>
+      <c r="P158" s="4"/>
+      <c r="Q158" s="4"/>
+      <c r="R158" s="4"/>
+      <c r="S158" s="4"/>
+      <c r="T158" s="4"/>
+    </row>
+    <row r="159" ht="14.25" customHeight="1">
+      <c r="A159" s="13">
+        <v>177</v>
+      </c>
+      <c r="B159" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C158" s="13" t="s">
+      <c r="C159" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D159" s="31">
+        <v>37883</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F159" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G159" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H159" s="15"/>
+      <c r="I159" s="15"/>
+      <c r="J159" s="15"/>
+      <c r="K159" s="15"/>
+      <c r="L159" s="15"/>
+      <c r="M159" s="15"/>
+      <c r="N159" s="15"/>
+      <c r="O159" s="15"/>
+      <c r="P159" s="15"/>
+      <c r="Q159" s="15"/>
+      <c r="R159" s="15"/>
+      <c r="S159" s="15"/>
+      <c r="T159" s="15"/>
+    </row>
+    <row r="160" ht="14.25" customHeight="1">
+      <c r="A160" s="23">
+        <v>178</v>
+      </c>
+      <c r="B160" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C160" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D158" s="31">
-        <v>36920</v>
-      </c>
-      <c r="E158" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F158" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G158" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H158" s="15"/>
-      <c r="I158" s="15"/>
-      <c r="J158" s="15"/>
-      <c r="K158" s="15"/>
-      <c r="L158" s="15"/>
-      <c r="M158" s="15"/>
-      <c r="N158" s="15"/>
-      <c r="O158" s="15"/>
-      <c r="P158" s="15"/>
-      <c r="Q158" s="15"/>
-      <c r="R158" s="15"/>
-      <c r="S158" s="15"/>
-      <c r="T158" s="15"/>
-    </row>
-    <row r="159" ht="14.25" customHeight="1">
-      <c r="A159" s="23">
-        <v>176</v>
-      </c>
-      <c r="B159" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="C159" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" s="38">
-        <v>37506</v>
-      </c>
-      <c r="E159" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F159" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G159" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H159" s="4"/>
-      <c r="I159" s="4"/>
-      <c r="J159" s="4"/>
-      <c r="K159" s="4"/>
-      <c r="L159" s="4"/>
-      <c r="M159" s="4"/>
-      <c r="N159" s="4"/>
-      <c r="O159" s="4"/>
-      <c r="P159" s="4"/>
-      <c r="Q159" s="4"/>
-      <c r="R159" s="4"/>
-      <c r="S159" s="4"/>
-      <c r="T159" s="4"/>
-    </row>
-    <row r="160" ht="14.25" customHeight="1">
-      <c r="A160" s="13">
-        <v>177</v>
-      </c>
-      <c r="B160" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="C160" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D160" s="31">
-        <v>37883</v>
-      </c>
-      <c r="E160" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F160" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G160" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H160" s="15"/>
-      <c r="I160" s="15"/>
-      <c r="J160" s="15"/>
-      <c r="K160" s="15"/>
-      <c r="L160" s="15"/>
-      <c r="M160" s="15"/>
-      <c r="N160" s="15"/>
-      <c r="O160" s="15"/>
-      <c r="P160" s="15"/>
-      <c r="Q160" s="15"/>
-      <c r="R160" s="15"/>
-      <c r="S160" s="15"/>
-      <c r="T160" s="15"/>
+      <c r="D160" s="38">
+        <v>37388</v>
+      </c>
+      <c r="E160" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F160" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G160" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+      <c r="K160" s="4"/>
+      <c r="L160" s="4"/>
+      <c r="M160" s="4"/>
+      <c r="N160" s="4"/>
+      <c r="O160" s="4"/>
+      <c r="P160" s="4"/>
+      <c r="Q160" s="4"/>
+      <c r="R160" s="4"/>
+      <c r="S160" s="4"/>
+      <c r="T160" s="4"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
       <c r="A161" s="23">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B161" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C161" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="38">
-        <v>37388</v>
+        <v>36845</v>
       </c>
       <c r="E161" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F161" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G161" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
@@ -7017,25 +7029,25 @@
     </row>
     <row r="162" ht="14.25" customHeight="1">
       <c r="A162" s="23">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B162" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C162" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D162" s="38">
-        <v>36845</v>
+        <v>37573</v>
       </c>
       <c r="E162" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F162" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G162" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
@@ -7053,25 +7065,25 @@
     </row>
     <row r="163" ht="14.25" customHeight="1">
       <c r="A163" s="23">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B163" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C163" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D163" s="38">
-        <v>37573</v>
+        <v>37465</v>
       </c>
       <c r="E163" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F163" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G163" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
@@ -7089,25 +7101,25 @@
     </row>
     <row r="164" ht="14.25" customHeight="1">
       <c r="A164" s="23">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B164" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C164" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="38">
-        <v>37465</v>
+        <v>37756</v>
       </c>
       <c r="E164" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F164" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G164" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
@@ -7125,25 +7137,25 @@
     </row>
     <row r="165" ht="14.25" customHeight="1">
       <c r="A165" s="23">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B165" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C165" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D165" s="38">
-        <v>37756</v>
+        <v>37376</v>
       </c>
       <c r="E165" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F165" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G165" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
@@ -7161,25 +7173,25 @@
     </row>
     <row r="166" ht="14.25" customHeight="1">
       <c r="A166" s="23">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B166" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C166" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D166" s="38">
-        <v>37376</v>
+        <v>37240</v>
       </c>
       <c r="E166" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F166" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G166" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
@@ -7196,62 +7208,62 @@
       <c r="T166" s="4"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
-      <c r="A167" s="23">
-        <v>184</v>
-      </c>
-      <c r="B167" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="C167" s="23" t="s">
+      <c r="A167" s="13">
+        <v>185</v>
+      </c>
+      <c r="B167" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C167" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D167" s="38">
-        <v>37240</v>
-      </c>
-      <c r="E167" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F167" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G167" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H167" s="4"/>
-      <c r="I167" s="4"/>
-      <c r="J167" s="4"/>
-      <c r="K167" s="4"/>
-      <c r="L167" s="4"/>
-      <c r="M167" s="4"/>
-      <c r="N167" s="4"/>
-      <c r="O167" s="4"/>
-      <c r="P167" s="4"/>
-      <c r="Q167" s="4"/>
-      <c r="R167" s="4"/>
-      <c r="S167" s="4"/>
-      <c r="T167" s="4"/>
+      <c r="D167" s="31">
+        <v>37938</v>
+      </c>
+      <c r="E167" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F167" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G167" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H167" s="15"/>
+      <c r="I167" s="15"/>
+      <c r="J167" s="15"/>
+      <c r="K167" s="15"/>
+      <c r="L167" s="15"/>
+      <c r="M167" s="15"/>
+      <c r="N167" s="15"/>
+      <c r="O167" s="15"/>
+      <c r="P167" s="15"/>
+      <c r="Q167" s="15"/>
+      <c r="R167" s="15"/>
+      <c r="S167" s="15"/>
+      <c r="T167" s="15"/>
     </row>
     <row r="168" ht="14.25" customHeight="1">
       <c r="A168" s="13">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D168" s="31">
-        <v>37938</v>
+        <v>37370</v>
       </c>
       <c r="E168" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F168" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H168" s="15"/>
       <c r="I168" s="15"/>
@@ -7269,25 +7281,25 @@
     </row>
     <row r="169" ht="14.25" customHeight="1">
       <c r="A169" s="13">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D169" s="31">
-        <v>37370</v>
+        <v>37434</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F169" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H169" s="15"/>
       <c r="I169" s="15"/>
@@ -7305,25 +7317,25 @@
     </row>
     <row r="170" ht="14.25" customHeight="1">
       <c r="A170" s="13">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D170" s="31">
-        <v>37434</v>
+        <v>37492</v>
       </c>
       <c r="E170" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F170" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H170" s="15"/>
       <c r="I170" s="15"/>
@@ -7341,25 +7353,25 @@
     </row>
     <row r="171" ht="14.25" customHeight="1">
       <c r="A171" s="13">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D171" s="31">
-        <v>37492</v>
+        <v>37275</v>
       </c>
       <c r="E171" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F171" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H171" s="15"/>
       <c r="I171" s="15"/>
@@ -7376,98 +7388,98 @@
       <c r="T171" s="15"/>
     </row>
     <row r="172" ht="14.25" customHeight="1">
-      <c r="A172" s="13">
-        <v>189</v>
-      </c>
-      <c r="B172" s="14" t="s">
+      <c r="A172" s="23">
+        <v>190</v>
+      </c>
+      <c r="B172" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C172" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D172" s="38">
+        <v>37867</v>
+      </c>
+      <c r="E172" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F172" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G172" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
+      <c r="L172" s="4"/>
+      <c r="M172" s="4"/>
+      <c r="N172" s="4"/>
+      <c r="O172" s="4"/>
+      <c r="P172" s="4"/>
+      <c r="Q172" s="4"/>
+      <c r="R172" s="4"/>
+      <c r="S172" s="4"/>
+      <c r="T172" s="4"/>
+    </row>
+    <row r="173" ht="14.25" customHeight="1">
+      <c r="A173" s="13">
+        <v>191</v>
+      </c>
+      <c r="B173" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C172" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D172" s="31">
-        <v>37275</v>
-      </c>
-      <c r="E172" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F172" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G172" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H172" s="15"/>
-      <c r="I172" s="15"/>
-      <c r="J172" s="15"/>
-      <c r="K172" s="15"/>
-      <c r="L172" s="15"/>
-      <c r="M172" s="15"/>
-      <c r="N172" s="15"/>
-      <c r="O172" s="15"/>
-      <c r="P172" s="15"/>
-      <c r="Q172" s="15"/>
-      <c r="R172" s="15"/>
-      <c r="S172" s="15"/>
-      <c r="T172" s="15"/>
-    </row>
-    <row r="173" ht="14.25" customHeight="1">
-      <c r="A173" s="23">
-        <v>190</v>
-      </c>
-      <c r="B173" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="C173" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D173" s="38">
-        <v>37867</v>
-      </c>
-      <c r="E173" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F173" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G173" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H173" s="4"/>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
-      <c r="K173" s="4"/>
-      <c r="L173" s="4"/>
-      <c r="M173" s="4"/>
-      <c r="N173" s="4"/>
-      <c r="O173" s="4"/>
-      <c r="P173" s="4"/>
-      <c r="Q173" s="4"/>
-      <c r="R173" s="4"/>
-      <c r="S173" s="4"/>
-      <c r="T173" s="4"/>
+      <c r="C173" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="31">
+        <v>36038</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F173" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G173" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H173" s="15"/>
+      <c r="I173" s="15"/>
+      <c r="J173" s="15"/>
+      <c r="K173" s="15"/>
+      <c r="L173" s="15"/>
+      <c r="M173" s="15"/>
+      <c r="N173" s="15"/>
+      <c r="O173" s="15"/>
+      <c r="P173" s="15"/>
+      <c r="Q173" s="15"/>
+      <c r="R173" s="15"/>
+      <c r="S173" s="15"/>
+      <c r="T173" s="15"/>
     </row>
     <row r="174" ht="14.25" customHeight="1">
       <c r="A174" s="13">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C174" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="31">
-        <v>36038</v>
+        <v>37319</v>
       </c>
       <c r="E174" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F174" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H174" s="15"/>
       <c r="I174" s="15"/>
@@ -7485,25 +7497,25 @@
     </row>
     <row r="175" ht="14.25" customHeight="1">
       <c r="A175" s="13">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C175" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D175" s="31">
-        <v>37319</v>
+        <v>37330</v>
       </c>
       <c r="E175" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F175" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H175" s="15"/>
       <c r="I175" s="15"/>
@@ -7521,25 +7533,25 @@
     </row>
     <row r="176" ht="14.25" customHeight="1">
       <c r="A176" s="13">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C176" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D176" s="31">
-        <v>37330</v>
+        <v>36892</v>
       </c>
       <c r="E176" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F176" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H176" s="15"/>
       <c r="I176" s="15"/>
@@ -7557,25 +7569,25 @@
     </row>
     <row r="177" ht="14.25" customHeight="1">
       <c r="A177" s="13">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C177" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D177" s="31">
-        <v>36892</v>
+        <v>37016</v>
       </c>
       <c r="E177" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F177" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H177" s="15"/>
       <c r="I177" s="15"/>
@@ -7592,134 +7604,134 @@
       <c r="T177" s="15"/>
     </row>
     <row r="178" ht="14.25" customHeight="1">
-      <c r="A178" s="13">
-        <v>195</v>
-      </c>
-      <c r="B178" s="14" t="s">
+      <c r="A178" s="23">
+        <v>196</v>
+      </c>
+      <c r="B178" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C178" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" s="38">
+        <v>36684</v>
+      </c>
+      <c r="E178" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F178" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G178" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="4"/>
+      <c r="M178" s="4"/>
+      <c r="N178" s="4"/>
+      <c r="O178" s="4"/>
+      <c r="P178" s="4"/>
+      <c r="Q178" s="4"/>
+      <c r="R178" s="4"/>
+      <c r="S178" s="4"/>
+      <c r="T178" s="4"/>
+    </row>
+    <row r="179" ht="14.25" customHeight="1">
+      <c r="A179" s="13">
+        <v>197</v>
+      </c>
+      <c r="B179" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="C178" s="13" t="s">
+      <c r="C179" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179" s="31">
+        <v>37266</v>
+      </c>
+      <c r="E179" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F179" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G179" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H179" s="15"/>
+      <c r="I179" s="15"/>
+      <c r="J179" s="15"/>
+      <c r="K179" s="15"/>
+      <c r="L179" s="15"/>
+      <c r="M179" s="15"/>
+      <c r="N179" s="15"/>
+      <c r="O179" s="15"/>
+      <c r="P179" s="15"/>
+      <c r="Q179" s="15"/>
+      <c r="R179" s="15"/>
+      <c r="S179" s="15"/>
+      <c r="T179" s="15"/>
+    </row>
+    <row r="180" ht="14.25" customHeight="1">
+      <c r="A180" s="23">
+        <v>198</v>
+      </c>
+      <c r="B180" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C180" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D178" s="31">
-        <v>37016</v>
-      </c>
-      <c r="E178" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F178" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G178" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H178" s="15"/>
-      <c r="I178" s="15"/>
-      <c r="J178" s="15"/>
-      <c r="K178" s="15"/>
-      <c r="L178" s="15"/>
-      <c r="M178" s="15"/>
-      <c r="N178" s="15"/>
-      <c r="O178" s="15"/>
-      <c r="P178" s="15"/>
-      <c r="Q178" s="15"/>
-      <c r="R178" s="15"/>
-      <c r="S178" s="15"/>
-      <c r="T178" s="15"/>
-    </row>
-    <row r="179" ht="14.25" customHeight="1">
-      <c r="A179" s="23">
-        <v>196</v>
-      </c>
-      <c r="B179" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="C179" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D179" s="38">
-        <v>36684</v>
-      </c>
-      <c r="E179" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F179" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G179" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H179" s="4"/>
-      <c r="I179" s="4"/>
-      <c r="J179" s="4"/>
-      <c r="K179" s="4"/>
-      <c r="L179" s="4"/>
-      <c r="M179" s="4"/>
-      <c r="N179" s="4"/>
-      <c r="O179" s="4"/>
-      <c r="P179" s="4"/>
-      <c r="Q179" s="4"/>
-      <c r="R179" s="4"/>
-      <c r="S179" s="4"/>
-      <c r="T179" s="4"/>
-    </row>
-    <row r="180" ht="14.25" customHeight="1">
-      <c r="A180" s="13">
-        <v>197</v>
-      </c>
-      <c r="B180" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="C180" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D180" s="31">
-        <v>37266</v>
-      </c>
-      <c r="E180" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F180" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G180" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H180" s="15"/>
-      <c r="I180" s="15"/>
-      <c r="J180" s="15"/>
-      <c r="K180" s="15"/>
-      <c r="L180" s="15"/>
-      <c r="M180" s="15"/>
-      <c r="N180" s="15"/>
-      <c r="O180" s="15"/>
-      <c r="P180" s="15"/>
-      <c r="Q180" s="15"/>
-      <c r="R180" s="15"/>
-      <c r="S180" s="15"/>
-      <c r="T180" s="15"/>
+      <c r="D180" s="38">
+        <v>37165</v>
+      </c>
+      <c r="E180" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F180" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G180" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4"/>
+      <c r="K180" s="4"/>
+      <c r="L180" s="4"/>
+      <c r="M180" s="4"/>
+      <c r="N180" s="4"/>
+      <c r="O180" s="4"/>
+      <c r="P180" s="4"/>
+      <c r="Q180" s="4"/>
+      <c r="R180" s="4"/>
+      <c r="S180" s="4"/>
+      <c r="T180" s="4"/>
     </row>
     <row r="181" ht="14.25" customHeight="1">
       <c r="A181" s="23">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B181" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C181" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D181" s="38">
-        <v>37165</v>
+        <v>37986</v>
       </c>
       <c r="E181" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F181" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G181" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
@@ -7736,134 +7748,134 @@
       <c r="T181" s="4"/>
     </row>
     <row r="182" ht="14.25" customHeight="1">
-      <c r="A182" s="23">
-        <v>199</v>
-      </c>
-      <c r="B182" s="24" t="s">
+      <c r="A182" s="13">
+        <v>200</v>
+      </c>
+      <c r="B182" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" s="31">
+        <v>37124</v>
+      </c>
+      <c r="E182" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F182" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G182" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H182" s="15"/>
+      <c r="I182" s="15"/>
+      <c r="J182" s="15"/>
+      <c r="K182" s="15"/>
+      <c r="L182" s="15"/>
+      <c r="M182" s="15"/>
+      <c r="N182" s="15"/>
+      <c r="O182" s="15"/>
+      <c r="P182" s="15"/>
+      <c r="Q182" s="15"/>
+      <c r="R182" s="15"/>
+      <c r="S182" s="15"/>
+      <c r="T182" s="15"/>
+    </row>
+    <row r="183" ht="14.25" customHeight="1">
+      <c r="A183" s="23">
+        <v>201</v>
+      </c>
+      <c r="B183" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="C182" s="23" t="s">
+      <c r="C183" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D182" s="38">
-        <v>37986</v>
-      </c>
-      <c r="E182" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F182" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G182" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H182" s="4"/>
-      <c r="I182" s="4"/>
-      <c r="J182" s="4"/>
-      <c r="K182" s="4"/>
-      <c r="L182" s="4"/>
-      <c r="M182" s="4"/>
-      <c r="N182" s="4"/>
-      <c r="O182" s="4"/>
-      <c r="P182" s="4"/>
-      <c r="Q182" s="4"/>
-      <c r="R182" s="4"/>
-      <c r="S182" s="4"/>
-      <c r="T182" s="4"/>
-    </row>
-    <row r="183" ht="14.25" customHeight="1">
-      <c r="A183" s="13">
-        <v>200</v>
-      </c>
-      <c r="B183" s="14" t="s">
+      <c r="D183" s="38">
+        <v>37138</v>
+      </c>
+      <c r="E183" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F183" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G183" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H183" s="4"/>
+      <c r="I183" s="4"/>
+      <c r="J183" s="4"/>
+      <c r="K183" s="4"/>
+      <c r="L183" s="4"/>
+      <c r="M183" s="4"/>
+      <c r="N183" s="4"/>
+      <c r="O183" s="4"/>
+      <c r="P183" s="4"/>
+      <c r="Q183" s="4"/>
+      <c r="R183" s="4"/>
+      <c r="S183" s="4"/>
+      <c r="T183" s="4"/>
+    </row>
+    <row r="184" ht="14.25" customHeight="1">
+      <c r="A184" s="13">
+        <v>202</v>
+      </c>
+      <c r="B184" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="C183" s="13" t="s">
+      <c r="C184" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D183" s="31">
-        <v>37124</v>
-      </c>
-      <c r="E183" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F183" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G183" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H183" s="15"/>
-      <c r="I183" s="15"/>
-      <c r="J183" s="15"/>
-      <c r="K183" s="15"/>
-      <c r="L183" s="15"/>
-      <c r="M183" s="15"/>
-      <c r="N183" s="15"/>
-      <c r="O183" s="15"/>
-      <c r="P183" s="15"/>
-      <c r="Q183" s="15"/>
-      <c r="R183" s="15"/>
-      <c r="S183" s="15"/>
-      <c r="T183" s="15"/>
-    </row>
-    <row r="184" ht="14.25" customHeight="1">
-      <c r="A184" s="23">
-        <v>201</v>
-      </c>
-      <c r="B184" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="C184" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D184" s="38">
-        <v>37138</v>
-      </c>
-      <c r="E184" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F184" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G184" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H184" s="4"/>
-      <c r="I184" s="4"/>
-      <c r="J184" s="4"/>
-      <c r="K184" s="4"/>
-      <c r="L184" s="4"/>
-      <c r="M184" s="4"/>
-      <c r="N184" s="4"/>
-      <c r="O184" s="4"/>
-      <c r="P184" s="4"/>
-      <c r="Q184" s="4"/>
-      <c r="R184" s="4"/>
-      <c r="S184" s="4"/>
-      <c r="T184" s="4"/>
+      <c r="D184" s="31">
+        <v>37385</v>
+      </c>
+      <c r="E184" s="14">
+        <v>5.1</v>
+      </c>
+      <c r="F184" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G184" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H184" s="15"/>
+      <c r="I184" s="15"/>
+      <c r="J184" s="15"/>
+      <c r="K184" s="15"/>
+      <c r="L184" s="15"/>
+      <c r="M184" s="15"/>
+      <c r="N184" s="15"/>
+      <c r="O184" s="15"/>
+      <c r="P184" s="15"/>
+      <c r="Q184" s="15"/>
+      <c r="R184" s="15"/>
+      <c r="S184" s="15"/>
+      <c r="T184" s="15"/>
     </row>
     <row r="185" ht="14.25" customHeight="1">
       <c r="A185" s="13">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C185" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D185" s="31">
-        <v>37385</v>
-      </c>
-      <c r="E185" s="14">
-        <v>5.1</v>
+        <v>37199</v>
+      </c>
+      <c r="E185" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="F185" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H185" s="15"/>
       <c r="I185" s="15"/>
@@ -7880,62 +7892,62 @@
       <c r="T185" s="15"/>
     </row>
     <row r="186" ht="14.25" customHeight="1">
-      <c r="A186" s="13">
-        <v>203</v>
-      </c>
-      <c r="B186" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C186" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" s="31">
-        <v>37199</v>
-      </c>
-      <c r="E186" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F186" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G186" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H186" s="15"/>
-      <c r="I186" s="15"/>
-      <c r="J186" s="15"/>
-      <c r="K186" s="15"/>
-      <c r="L186" s="15"/>
-      <c r="M186" s="15"/>
-      <c r="N186" s="15"/>
-      <c r="O186" s="15"/>
-      <c r="P186" s="15"/>
-      <c r="Q186" s="15"/>
-      <c r="R186" s="15"/>
-      <c r="S186" s="15"/>
-      <c r="T186" s="15"/>
+      <c r="A186" s="23">
+        <v>204</v>
+      </c>
+      <c r="B186" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C186" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D186" s="38">
+        <v>37640</v>
+      </c>
+      <c r="E186" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F186" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G186" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H186" s="4"/>
+      <c r="I186" s="4"/>
+      <c r="J186" s="4"/>
+      <c r="K186" s="4"/>
+      <c r="L186" s="4"/>
+      <c r="M186" s="4"/>
+      <c r="N186" s="4"/>
+      <c r="O186" s="4"/>
+      <c r="P186" s="4"/>
+      <c r="Q186" s="4"/>
+      <c r="R186" s="4"/>
+      <c r="S186" s="4"/>
+      <c r="T186" s="4"/>
     </row>
     <row r="187" ht="14.25" customHeight="1">
       <c r="A187" s="23">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B187" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C187" s="23" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D187" s="38">
-        <v>37640</v>
+        <v>36762</v>
       </c>
       <c r="E187" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F187" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G187" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
@@ -7952,98 +7964,98 @@
       <c r="T187" s="4"/>
     </row>
     <row r="188" ht="14.25" customHeight="1">
-      <c r="A188" s="23">
-        <v>205</v>
-      </c>
-      <c r="B188" s="24" t="s">
+      <c r="A188" s="13">
+        <v>206</v>
+      </c>
+      <c r="B188" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" s="31">
+        <v>37299</v>
+      </c>
+      <c r="E188" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F188" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G188" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H188" s="15"/>
+      <c r="I188" s="15"/>
+      <c r="J188" s="15"/>
+      <c r="K188" s="15"/>
+      <c r="L188" s="15"/>
+      <c r="M188" s="15"/>
+      <c r="N188" s="15"/>
+      <c r="O188" s="15"/>
+      <c r="P188" s="15"/>
+      <c r="Q188" s="15"/>
+      <c r="R188" s="15"/>
+      <c r="S188" s="15"/>
+      <c r="T188" s="15"/>
+    </row>
+    <row r="189" ht="14.25" customHeight="1">
+      <c r="A189" s="23">
+        <v>207</v>
+      </c>
+      <c r="B189" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="C188" s="23" t="s">
+      <c r="C189" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D188" s="38">
-        <v>36762</v>
-      </c>
-      <c r="E188" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F188" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G188" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H188" s="4"/>
-      <c r="I188" s="4"/>
-      <c r="J188" s="4"/>
-      <c r="K188" s="4"/>
-      <c r="L188" s="4"/>
-      <c r="M188" s="4"/>
-      <c r="N188" s="4"/>
-      <c r="O188" s="4"/>
-      <c r="P188" s="4"/>
-      <c r="Q188" s="4"/>
-      <c r="R188" s="4"/>
-      <c r="S188" s="4"/>
-      <c r="T188" s="4"/>
-    </row>
-    <row r="189" ht="14.25" customHeight="1">
-      <c r="A189" s="13">
-        <v>206</v>
-      </c>
-      <c r="B189" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="C189" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D189" s="31">
-        <v>37299</v>
-      </c>
-      <c r="E189" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F189" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G189" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H189" s="15"/>
-      <c r="I189" s="15"/>
-      <c r="J189" s="15"/>
-      <c r="K189" s="15"/>
-      <c r="L189" s="15"/>
-      <c r="M189" s="15"/>
-      <c r="N189" s="15"/>
-      <c r="O189" s="15"/>
-      <c r="P189" s="15"/>
-      <c r="Q189" s="15"/>
-      <c r="R189" s="15"/>
-      <c r="S189" s="15"/>
-      <c r="T189" s="15"/>
+      <c r="D189" s="38">
+        <v>36621</v>
+      </c>
+      <c r="E189" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F189" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G189" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H189" s="4"/>
+      <c r="I189" s="4"/>
+      <c r="J189" s="4"/>
+      <c r="K189" s="4"/>
+      <c r="L189" s="4"/>
+      <c r="M189" s="4"/>
+      <c r="N189" s="4"/>
+      <c r="O189" s="4"/>
+      <c r="P189" s="4"/>
+      <c r="Q189" s="4"/>
+      <c r="R189" s="4"/>
+      <c r="S189" s="4"/>
+      <c r="T189" s="4"/>
     </row>
     <row r="190" ht="14.25" customHeight="1">
       <c r="A190" s="23">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B190" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C190" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="38">
-        <v>36621</v>
+        <v>37070</v>
       </c>
       <c r="E190" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F190" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G190" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
@@ -8060,62 +8072,62 @@
       <c r="T190" s="4"/>
     </row>
     <row r="191" ht="14.25" customHeight="1">
-      <c r="A191" s="23">
-        <v>208</v>
-      </c>
-      <c r="B191" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="C191" s="23" t="s">
+      <c r="A191" s="13">
+        <v>209</v>
+      </c>
+      <c r="B191" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C191" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D191" s="38">
-        <v>37070</v>
-      </c>
-      <c r="E191" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F191" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G191" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H191" s="4"/>
-      <c r="I191" s="4"/>
-      <c r="J191" s="4"/>
-      <c r="K191" s="4"/>
-      <c r="L191" s="4"/>
-      <c r="M191" s="4"/>
-      <c r="N191" s="4"/>
-      <c r="O191" s="4"/>
-      <c r="P191" s="4"/>
-      <c r="Q191" s="4"/>
-      <c r="R191" s="4"/>
-      <c r="S191" s="4"/>
-      <c r="T191" s="4"/>
+      <c r="D191" s="31">
+        <v>37878</v>
+      </c>
+      <c r="E191" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F191" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G191" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H191" s="15"/>
+      <c r="I191" s="15"/>
+      <c r="J191" s="15"/>
+      <c r="K191" s="15"/>
+      <c r="L191" s="15"/>
+      <c r="M191" s="15"/>
+      <c r="N191" s="15"/>
+      <c r="O191" s="15"/>
+      <c r="P191" s="15"/>
+      <c r="Q191" s="15"/>
+      <c r="R191" s="15"/>
+      <c r="S191" s="15"/>
+      <c r="T191" s="15"/>
     </row>
     <row r="192" ht="14.25" customHeight="1">
       <c r="A192" s="13">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C192" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D192" s="31">
-        <v>37878</v>
+        <v>37024</v>
       </c>
       <c r="E192" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F192" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G192" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H192" s="15"/>
       <c r="I192" s="15"/>
@@ -8133,25 +8145,25 @@
     </row>
     <row r="193" ht="14.25" customHeight="1">
       <c r="A193" s="13">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D193" s="31">
-        <v>37024</v>
+        <v>37642</v>
       </c>
       <c r="E193" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F193" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G193" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H193" s="15"/>
       <c r="I193" s="15"/>
@@ -8168,170 +8180,170 @@
       <c r="T193" s="15"/>
     </row>
     <row r="194" ht="14.25" customHeight="1">
-      <c r="A194" s="13">
-        <v>211</v>
-      </c>
-      <c r="B194" s="14" t="s">
+      <c r="A194" s="23">
+        <v>212</v>
+      </c>
+      <c r="B194" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C194" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194" s="38">
+        <v>37636</v>
+      </c>
+      <c r="E194" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F194" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G194" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H194" s="4"/>
+      <c r="I194" s="4"/>
+      <c r="J194" s="4"/>
+      <c r="K194" s="4"/>
+      <c r="L194" s="4"/>
+      <c r="M194" s="4"/>
+      <c r="N194" s="4"/>
+      <c r="O194" s="4"/>
+      <c r="P194" s="4"/>
+      <c r="Q194" s="4"/>
+      <c r="R194" s="4"/>
+      <c r="S194" s="4"/>
+      <c r="T194" s="4"/>
+    </row>
+    <row r="195" ht="14.25" customHeight="1">
+      <c r="A195" s="13">
+        <v>213</v>
+      </c>
+      <c r="B195" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C194" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D194" s="31">
-        <v>37642</v>
-      </c>
-      <c r="E194" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F194" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G194" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H194" s="15"/>
-      <c r="I194" s="15"/>
-      <c r="J194" s="15"/>
-      <c r="K194" s="15"/>
-      <c r="L194" s="15"/>
-      <c r="M194" s="15"/>
-      <c r="N194" s="15"/>
-      <c r="O194" s="15"/>
-      <c r="P194" s="15"/>
-      <c r="Q194" s="15"/>
-      <c r="R194" s="15"/>
-      <c r="S194" s="15"/>
-      <c r="T194" s="15"/>
-    </row>
-    <row r="195" ht="14.25" customHeight="1">
-      <c r="A195" s="23">
-        <v>212</v>
-      </c>
-      <c r="B195" s="24" t="s">
+      <c r="C195" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" s="31">
+        <v>37924</v>
+      </c>
+      <c r="E195" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F195" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G195" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H195" s="15"/>
+      <c r="I195" s="15"/>
+      <c r="J195" s="15"/>
+      <c r="K195" s="15"/>
+      <c r="L195" s="15"/>
+      <c r="M195" s="15"/>
+      <c r="N195" s="15"/>
+      <c r="O195" s="15"/>
+      <c r="P195" s="15"/>
+      <c r="Q195" s="15"/>
+      <c r="R195" s="15"/>
+      <c r="S195" s="15"/>
+      <c r="T195" s="15"/>
+    </row>
+    <row r="196" ht="14.25" customHeight="1">
+      <c r="A196" s="23">
+        <v>214</v>
+      </c>
+      <c r="B196" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="C195" s="23" t="s">
+      <c r="C196" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D195" s="38">
-        <v>37636</v>
-      </c>
-      <c r="E195" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F195" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G195" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H195" s="4"/>
-      <c r="I195" s="4"/>
-      <c r="J195" s="4"/>
-      <c r="K195" s="4"/>
-      <c r="L195" s="4"/>
-      <c r="M195" s="4"/>
-      <c r="N195" s="4"/>
-      <c r="O195" s="4"/>
-      <c r="P195" s="4"/>
-      <c r="Q195" s="4"/>
-      <c r="R195" s="4"/>
-      <c r="S195" s="4"/>
-      <c r="T195" s="4"/>
-    </row>
-    <row r="196" ht="14.25" customHeight="1">
-      <c r="A196" s="13">
-        <v>213</v>
-      </c>
-      <c r="B196" s="14" t="s">
+      <c r="D196" s="38">
+        <v>37836</v>
+      </c>
+      <c r="E196" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F196" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G196" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4"/>
+      <c r="J196" s="4"/>
+      <c r="K196" s="4"/>
+      <c r="L196" s="4"/>
+      <c r="M196" s="4"/>
+      <c r="N196" s="4"/>
+      <c r="O196" s="4"/>
+      <c r="P196" s="4"/>
+      <c r="Q196" s="4"/>
+      <c r="R196" s="4"/>
+      <c r="S196" s="4"/>
+      <c r="T196" s="4"/>
+    </row>
+    <row r="197" ht="14.25" customHeight="1">
+      <c r="A197" s="13">
+        <v>215</v>
+      </c>
+      <c r="B197" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C196" s="13" t="s">
+      <c r="C197" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D196" s="31">
-        <v>37924</v>
-      </c>
-      <c r="E196" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F196" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G196" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H196" s="15"/>
-      <c r="I196" s="15"/>
-      <c r="J196" s="15"/>
-      <c r="K196" s="15"/>
-      <c r="L196" s="15"/>
-      <c r="M196" s="15"/>
-      <c r="N196" s="15"/>
-      <c r="O196" s="15"/>
-      <c r="P196" s="15"/>
-      <c r="Q196" s="15"/>
-      <c r="R196" s="15"/>
-      <c r="S196" s="15"/>
-      <c r="T196" s="15"/>
-    </row>
-    <row r="197" ht="14.25" customHeight="1">
-      <c r="A197" s="23">
-        <v>214</v>
-      </c>
-      <c r="B197" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="C197" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D197" s="38">
-        <v>37836</v>
-      </c>
-      <c r="E197" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F197" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G197" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H197" s="4"/>
-      <c r="I197" s="4"/>
-      <c r="J197" s="4"/>
-      <c r="K197" s="4"/>
-      <c r="L197" s="4"/>
-      <c r="M197" s="4"/>
-      <c r="N197" s="4"/>
-      <c r="O197" s="4"/>
-      <c r="P197" s="4"/>
-      <c r="Q197" s="4"/>
-      <c r="R197" s="4"/>
-      <c r="S197" s="4"/>
-      <c r="T197" s="4"/>
+      <c r="D197" s="31">
+        <v>37608</v>
+      </c>
+      <c r="E197" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F197" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G197" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H197" s="15"/>
+      <c r="I197" s="15"/>
+      <c r="J197" s="15"/>
+      <c r="K197" s="15"/>
+      <c r="L197" s="15"/>
+      <c r="M197" s="15"/>
+      <c r="N197" s="15"/>
+      <c r="O197" s="15"/>
+      <c r="P197" s="15"/>
+      <c r="Q197" s="15"/>
+      <c r="R197" s="15"/>
+      <c r="S197" s="15"/>
+      <c r="T197" s="15"/>
     </row>
     <row r="198" ht="14.25" customHeight="1">
       <c r="A198" s="13">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C198" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D198" s="31">
-        <v>37608</v>
+        <v>37632</v>
       </c>
       <c r="E198" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F198" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G198" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H198" s="15"/>
       <c r="I198" s="15"/>
@@ -8349,25 +8361,25 @@
     </row>
     <row r="199" ht="14.25" customHeight="1">
       <c r="A199" s="13">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C199" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D199" s="31">
-        <v>37632</v>
+        <v>37599</v>
       </c>
       <c r="E199" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F199" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H199" s="15"/>
       <c r="I199" s="15"/>
@@ -8384,122 +8396,140 @@
       <c r="T199" s="15"/>
     </row>
     <row r="200" ht="14.25" customHeight="1">
-      <c r="A200" s="13">
-        <v>217</v>
-      </c>
-      <c r="B200" s="14" t="s">
+      <c r="A200" s="23">
+        <v>218</v>
+      </c>
+      <c r="B200" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C200" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D200" s="38">
+        <v>37780</v>
+      </c>
+      <c r="E200" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F200" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G200" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H200" s="4"/>
+      <c r="I200" s="4"/>
+      <c r="J200" s="4"/>
+      <c r="K200" s="4"/>
+      <c r="L200" s="4"/>
+      <c r="M200" s="4"/>
+      <c r="N200" s="4"/>
+      <c r="O200" s="4"/>
+      <c r="P200" s="4"/>
+      <c r="Q200" s="4"/>
+      <c r="R200" s="4"/>
+      <c r="S200" s="4"/>
+      <c r="T200" s="4"/>
+    </row>
+    <row r="201" ht="14.25" customHeight="1">
+      <c r="A201" s="13">
+        <v>219</v>
+      </c>
+      <c r="B201" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C200" s="13" t="s">
+      <c r="C201" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D200" s="31">
-        <v>37599</v>
-      </c>
-      <c r="E200" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F200" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G200" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H200" s="15"/>
-      <c r="I200" s="15"/>
-      <c r="J200" s="15"/>
-      <c r="K200" s="15"/>
-      <c r="L200" s="15"/>
-      <c r="M200" s="15"/>
-      <c r="N200" s="15"/>
-      <c r="O200" s="15"/>
-      <c r="P200" s="15"/>
-      <c r="Q200" s="15"/>
-      <c r="R200" s="15"/>
-      <c r="S200" s="15"/>
-      <c r="T200" s="15"/>
-    </row>
-    <row r="201" ht="14.25" customHeight="1">
-      <c r="A201" s="23">
-        <v>218</v>
-      </c>
-      <c r="B201" s="24" t="s">
+      <c r="D201" s="31">
+        <v>37716</v>
+      </c>
+      <c r="E201" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F201" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G201" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H201" s="15"/>
+      <c r="I201" s="15"/>
+      <c r="J201" s="15"/>
+      <c r="K201" s="15"/>
+      <c r="L201" s="15"/>
+      <c r="M201" s="15"/>
+      <c r="N201" s="15"/>
+      <c r="O201" s="15"/>
+      <c r="P201" s="15"/>
+      <c r="Q201" s="15"/>
+      <c r="R201" s="15"/>
+      <c r="S201" s="15"/>
+      <c r="T201" s="15"/>
+    </row>
+    <row r="202" ht="14.25" customHeight="1">
+      <c r="A202" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C201" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D201" s="38">
-        <v>37780</v>
-      </c>
-      <c r="E201" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F201" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G201" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H201" s="4"/>
-      <c r="I201" s="4"/>
-      <c r="J201" s="4"/>
-      <c r="K201" s="4"/>
-      <c r="L201" s="4"/>
-      <c r="M201" s="4"/>
-      <c r="N201" s="4"/>
-      <c r="O201" s="4"/>
-      <c r="P201" s="4"/>
-      <c r="Q201" s="4"/>
-      <c r="R201" s="4"/>
-      <c r="S201" s="4"/>
-      <c r="T201" s="4"/>
-    </row>
-    <row r="202" ht="14.25" customHeight="1">
-      <c r="A202" s="13">
-        <v>219</v>
-      </c>
-      <c r="B202" s="14" t="s">
+      <c r="B202" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="C202" s="13" t="s">
+      <c r="E202" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H202" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I202" s="4"/>
+      <c r="J202" s="4"/>
+      <c r="K202" s="4"/>
+      <c r="L202" s="4"/>
+      <c r="M202" s="4"/>
+      <c r="N202" s="4"/>
+      <c r="O202" s="4"/>
+      <c r="P202" s="4"/>
+      <c r="Q202" s="4"/>
+      <c r="R202" s="4"/>
+      <c r="S202" s="4"/>
+      <c r="T202" s="4"/>
+    </row>
+    <row r="203" ht="14.25" customHeight="1">
+      <c r="A203" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C203" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D202" s="31">
-        <v>37716</v>
-      </c>
-      <c r="E202" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F202" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G202" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H202" s="15"/>
-      <c r="I202" s="15"/>
-      <c r="J202" s="15"/>
-      <c r="K202" s="15"/>
-      <c r="L202" s="15"/>
-      <c r="M202" s="15"/>
-      <c r="N202" s="15"/>
-      <c r="O202" s="15"/>
-      <c r="P202" s="15"/>
-      <c r="Q202" s="15"/>
-      <c r="R202" s="15"/>
-      <c r="S202" s="15"/>
-      <c r="T202" s="15"/>
-    </row>
-    <row r="203" ht="14.25" customHeight="1">
-      <c r="A203" s="4"/>
-      <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
-      <c r="D203" s="39"/>
-      <c r="E203" s="4"/>
-      <c r="F203" s="4"/>
-      <c r="G203" s="4"/>
-      <c r="H203" s="4"/>
+      <c r="D203" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
       <c r="K203" s="4"/>
@@ -24881,28 +24911,6 @@
       <c r="S947" s="4"/>
       <c r="T947" s="4"/>
     </row>
-    <row r="948" ht="14.25" customHeight="1">
-      <c r="A948" s="4"/>
-      <c r="B948" s="4"/>
-      <c r="C948" s="4"/>
-      <c r="D948" s="39"/>
-      <c r="E948" s="4"/>
-      <c r="F948" s="4"/>
-      <c r="G948" s="4"/>
-      <c r="H948" s="4"/>
-      <c r="I948" s="4"/>
-      <c r="J948" s="4"/>
-      <c r="K948" s="4"/>
-      <c r="L948" s="4"/>
-      <c r="M948" s="4"/>
-      <c r="N948" s="4"/>
-      <c r="O948" s="4"/>
-      <c r="P948" s="4"/>
-      <c r="Q948" s="4"/>
-      <c r="R948" s="4"/>
-      <c r="S948" s="4"/>
-      <c r="T948" s="4"/>
-    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D7E611A9-CBFC-42C5-9647-0040AB3C88E9}" filter="1" showAutoFilter="1">
